--- a/相关资料/01 通讯协议/航安LED灯具通讯协议.xlsx
+++ b/相关资料/01 通讯协议/航安LED灯具通讯协议.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.144.11\留言板文件\金肖雅\01 ASCMS 最新资料\01 通讯协议\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5220"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="驱动对照表" sheetId="3" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="341">
   <si>
     <t>RMS1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -752,26 +757,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双路滑中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_CHECK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED_F2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shock1(次数)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,10 +782,6 @@
   </si>
   <si>
     <t>备用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1405,6 +1386,15 @@
   </si>
   <si>
     <t xml:space="preserve">                </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态反馈指令2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8寸警戒灯V2.0
+状态反馈指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1891,7 +1881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2003,9 +1993,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2327,22 +2314,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2366,6 +2365,45 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2385,45 +2423,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2446,6 +2445,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2465,7 +2473,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2507,7 +2515,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2542,7 +2550,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2751,20 +2759,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K46"/>
+  <dimension ref="A2:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="15.125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="40" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -2796,440 +2804,466 @@
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="35"/>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="159" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="156" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="156"/>
+      <c r="H7" s="157" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="154" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="160"/>
+      <c r="D8" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="158"/>
+      <c r="I8" s="155"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="76">
+        <v>1</v>
+      </c>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="78"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="76">
+        <v>2</v>
+      </c>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="78"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="76">
+        <v>3</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="78"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="132">
+        <v>4</v>
+      </c>
+      <c r="E12" s="132">
+        <v>5</v>
+      </c>
+      <c r="F12" s="88">
+        <v>1</v>
+      </c>
+      <c r="G12" s="94" t="s">
+        <v>328</v>
+      </c>
+      <c r="H12" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="I12" s="143" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="138" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="148" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="151">
+        <v>5</v>
+      </c>
+      <c r="E13" s="151">
+        <v>6</v>
+      </c>
+      <c r="F13" s="88">
+        <v>1</v>
+      </c>
+      <c r="G13" s="94" t="s">
+        <v>330</v>
+      </c>
+      <c r="H13" s="90" t="s">
+        <v>331</v>
+      </c>
+      <c r="I13" s="135" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="133" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="149"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="88">
+        <v>1</v>
+      </c>
+      <c r="G14" s="88">
+        <v>3</v>
+      </c>
+      <c r="H14" s="134" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" s="135" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="139" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="150"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="140">
+        <v>1</v>
+      </c>
+      <c r="G15" s="140">
+        <v>2</v>
+      </c>
+      <c r="H15" s="141" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" s="142" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="76">
+        <v>6</v>
+      </c>
+      <c r="E16" s="76">
+        <v>7</v>
+      </c>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="78"/>
+      <c r="K16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="76">
+        <v>7</v>
+      </c>
+      <c r="E17" s="76">
+        <v>8</v>
+      </c>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="78"/>
+    </row>
+    <row r="18" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="148" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="151">
+        <v>8</v>
+      </c>
+      <c r="E18" s="151">
+        <v>0</v>
+      </c>
+      <c r="F18" s="76">
+        <v>1</v>
+      </c>
+      <c r="G18" s="76">
+        <v>3</v>
+      </c>
+      <c r="H18" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="153" t="s">
+      <c r="I18" s="72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" s="109" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="150"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="118">
+        <v>1</v>
+      </c>
+      <c r="G19" s="118">
+        <v>4</v>
+      </c>
+      <c r="H19" s="119" t="s">
+        <v>274</v>
+      </c>
+      <c r="I19" s="108" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="148" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="151">
+        <v>8</v>
+      </c>
+      <c r="E20" s="151">
+        <v>4</v>
+      </c>
+      <c r="F20" s="76">
+        <v>1</v>
+      </c>
+      <c r="G20" s="76">
+        <v>1</v>
+      </c>
+      <c r="H20" s="90" t="s">
+        <v>206</v>
+      </c>
+      <c r="I20" s="72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" s="138" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="150"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="140">
+        <v>1</v>
+      </c>
+      <c r="G21" s="140">
+        <v>2</v>
+      </c>
+      <c r="H21" s="141" t="s">
+        <v>202</v>
+      </c>
+      <c r="I21" s="142" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" s="109" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="106" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="107">
+        <v>9</v>
+      </c>
+      <c r="E22" s="107">
+        <v>9</v>
+      </c>
+      <c r="F22" s="107">
+        <v>2</v>
+      </c>
+      <c r="G22" s="107">
+        <v>0</v>
+      </c>
+      <c r="H22" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153" t="s">
-        <v>210</v>
-      </c>
-      <c r="G7" s="153"/>
-      <c r="H7" s="154" t="s">
-        <v>207</v>
-      </c>
-      <c r="I7" s="151" t="s">
+      <c r="I22" s="130" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="76">
+        <v>10</v>
+      </c>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="78"/>
+    </row>
+    <row r="24" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="76">
+        <v>11</v>
+      </c>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="78"/>
+    </row>
+    <row r="25" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="148" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="151">
+        <v>12</v>
+      </c>
+      <c r="E25" s="151">
+        <v>0</v>
+      </c>
+      <c r="F25" s="76">
+        <v>1</v>
+      </c>
+      <c r="G25" s="76">
+        <v>3</v>
+      </c>
+      <c r="H25" s="90" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" s="92" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="150"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="87">
+        <v>1</v>
+      </c>
+      <c r="G26" s="87">
+        <v>2</v>
+      </c>
+      <c r="H26" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" s="92" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="76">
+        <v>12</v>
+      </c>
+      <c r="E27" s="76">
+        <v>3</v>
+      </c>
+      <c r="F27" s="76">
+        <v>1</v>
+      </c>
+      <c r="G27" s="76">
+        <v>0</v>
+      </c>
+      <c r="H27" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="I27" s="92" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="157"/>
-      <c r="D8" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="155"/>
-      <c r="I8" s="152"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="77">
+    <row r="28" spans="3:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="81">
+        <v>13</v>
+      </c>
+      <c r="E28" s="81">
+        <v>2</v>
+      </c>
+      <c r="F28" s="81">
         <v>1</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="79"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="77">
-        <v>2</v>
-      </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="79"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="77">
-        <v>3</v>
-      </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="79"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="132" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="133">
-        <v>4</v>
-      </c>
-      <c r="E12" s="133">
-        <v>5</v>
-      </c>
-      <c r="F12" s="89">
-        <v>1</v>
-      </c>
-      <c r="G12" s="95" t="s">
-        <v>334</v>
-      </c>
-      <c r="H12" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="I12" s="144" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="139" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="147">
-        <v>5</v>
-      </c>
-      <c r="E13" s="147">
-        <v>6</v>
-      </c>
-      <c r="F13" s="89">
-        <v>1</v>
-      </c>
-      <c r="G13" s="95" t="s">
-        <v>336</v>
-      </c>
-      <c r="H13" s="91" t="s">
-        <v>337</v>
-      </c>
-      <c r="I13" s="136" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="134" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="149"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="89">
-        <v>1</v>
-      </c>
-      <c r="G14" s="89">
-        <v>3</v>
-      </c>
-      <c r="H14" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="I14" s="136" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="146"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="141">
-        <v>1</v>
-      </c>
-      <c r="G15" s="141">
-        <v>2</v>
-      </c>
-      <c r="H15" s="142" t="s">
-        <v>211</v>
-      </c>
-      <c r="I15" s="143" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="74" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="77">
-        <v>6</v>
-      </c>
-      <c r="E16" s="77">
-        <v>7</v>
-      </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="79"/>
-      <c r="K16" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="77">
-        <v>7</v>
-      </c>
-      <c r="E17" s="77">
-        <v>8</v>
-      </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="79"/>
-    </row>
-    <row r="18" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="145" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="147">
-        <v>8</v>
-      </c>
-      <c r="E18" s="147">
+      <c r="G28" s="81">
         <v>0</v>
       </c>
-      <c r="F18" s="77">
-        <v>1</v>
-      </c>
-      <c r="G18" s="77">
-        <v>3</v>
-      </c>
-      <c r="H18" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="I18" s="73" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" s="110" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="146"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="119">
-        <v>1</v>
-      </c>
-      <c r="G19" s="119">
-        <v>4</v>
-      </c>
-      <c r="H19" s="120" t="s">
-        <v>280</v>
-      </c>
-      <c r="I19" s="109" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" s="77">
-        <v>8</v>
-      </c>
-      <c r="E20" s="77">
-        <v>4</v>
-      </c>
-      <c r="F20" s="77">
-        <v>1</v>
-      </c>
-      <c r="G20" s="77">
-        <v>1</v>
-      </c>
-      <c r="H20" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="I20" s="73" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" s="110" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="107" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21" s="108">
-        <v>9</v>
-      </c>
-      <c r="E21" s="108">
-        <v>9</v>
-      </c>
-      <c r="F21" s="108">
-        <v>2</v>
-      </c>
-      <c r="G21" s="108">
-        <v>0</v>
-      </c>
-      <c r="H21" s="108" t="s">
-        <v>211</v>
-      </c>
-      <c r="I21" s="131" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="77">
-        <v>10</v>
-      </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="79"/>
-    </row>
-    <row r="23" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="D23" s="77">
-        <v>11</v>
-      </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="79"/>
-    </row>
-    <row r="24" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="145" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="147">
-        <v>12</v>
-      </c>
-      <c r="E24" s="147">
-        <v>0</v>
-      </c>
-      <c r="F24" s="77">
-        <v>1</v>
-      </c>
-      <c r="G24" s="77">
-        <v>3</v>
-      </c>
-      <c r="H24" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="I24" s="93" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="146"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="88">
-        <v>1</v>
-      </c>
-      <c r="G25" s="88">
-        <v>2</v>
-      </c>
-      <c r="H25" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="I25" s="93" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="77">
-        <v>12</v>
-      </c>
-      <c r="E26" s="77">
-        <v>3</v>
-      </c>
-      <c r="F26" s="77">
-        <v>1</v>
-      </c>
-      <c r="G26" s="77">
-        <v>0</v>
-      </c>
-      <c r="H26" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="I26" s="93" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="82">
-        <v>13</v>
-      </c>
-      <c r="E27" s="82">
-        <v>2</v>
-      </c>
-      <c r="F27" s="82">
-        <v>1</v>
-      </c>
-      <c r="G27" s="82">
-        <v>0</v>
-      </c>
-      <c r="H27" s="92" t="s">
-        <v>208</v>
-      </c>
-      <c r="I27" s="72" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
-        <v>213</v>
+      <c r="H28" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="I28" s="71" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="94" t="s">
-        <v>224</v>
+      <c r="C37" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="94" t="s">
-        <v>222</v>
+      <c r="C38" s="93" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" t="s">
-        <v>223</v>
+      <c r="C39" s="93" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>342</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="137" t="s">
-        <v>343</v>
+      <c r="C41" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="138"/>
+      <c r="C42" s="136" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="43" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="139"/>
-      <c r="D43" s="40" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C43" s="137"/>
+    </row>
+    <row r="44" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="138"/>
+      <c r="D44" s="39" t="s">
+        <v>338</v>
+      </c>
+    </row>
     <row r="45" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="E13:E15"/>
@@ -3238,12 +3272,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3258,11 +3286,11 @@
   </sheetPr>
   <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="17.375" style="1" bestFit="1" customWidth="1"/>
@@ -3285,7 +3313,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="82" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="9">
@@ -3479,7 +3507,7 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="18"/>
@@ -3500,7 +3528,7 @@
       <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="9">
@@ -3744,14 +3772,14 @@
       <c r="L14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="169" t="s">
+      <c r="M14" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="169"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="169"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="164"/>
       <c r="Q14" s="27" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>75</v>
@@ -3791,17 +3819,17 @@
       <c r="L15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="169" t="s">
+      <c r="M15" s="164" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="169"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="169"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="164"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
     <row r="17" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="49" t="s">
         <v>122</v>
       </c>
       <c r="C17" s="18"/>
@@ -3822,7 +3850,7 @@
       <c r="R17" s="18"/>
     </row>
     <row r="18" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>121</v>
       </c>
       <c r="C18" s="9">
@@ -4039,14 +4067,14 @@
       <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="169" t="s">
+      <c r="D23" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="111" t="s">
-        <v>283</v>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="110" t="s">
+        <v>277</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>63</v>
@@ -4086,12 +4114,12 @@
       <c r="C24" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="170" t="s">
+      <c r="D24" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="172"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="167"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -4104,333 +4132,333 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
     </row>
-    <row r="25" spans="2:18" s="99" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="50" t="s">
+    <row r="25" spans="2:18" s="98" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-    </row>
-    <row r="27" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="C27" s="111">
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+    </row>
+    <row r="27" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" s="110">
         <v>0</v>
       </c>
-      <c r="D27" s="111">
+      <c r="D27" s="110">
         <v>1</v>
       </c>
-      <c r="E27" s="111">
+      <c r="E27" s="110">
         <v>2</v>
       </c>
-      <c r="F27" s="111">
+      <c r="F27" s="110">
         <v>3</v>
       </c>
-      <c r="G27" s="111">
+      <c r="G27" s="110">
         <v>4</v>
       </c>
-      <c r="H27" s="111">
+      <c r="H27" s="110">
         <v>5</v>
       </c>
-      <c r="I27" s="111">
+      <c r="I27" s="110">
         <v>6</v>
       </c>
-      <c r="J27" s="111">
+      <c r="J27" s="110">
         <v>7</v>
       </c>
-      <c r="K27" s="111">
+      <c r="K27" s="110">
         <v>8</v>
       </c>
-      <c r="L27" s="111">
+      <c r="L27" s="110">
         <v>9</v>
       </c>
-      <c r="M27" s="111">
+      <c r="M27" s="110">
         <v>10</v>
       </c>
-      <c r="N27" s="111">
+      <c r="N27" s="110">
         <v>11</v>
       </c>
-      <c r="O27" s="111">
+      <c r="O27" s="110">
         <v>12</v>
       </c>
-      <c r="P27" s="111">
+      <c r="P27" s="110">
         <v>13</v>
       </c>
-      <c r="Q27" s="111">
+      <c r="Q27" s="110">
         <v>14</v>
       </c>
-      <c r="R27" s="111">
+      <c r="R27" s="110">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="66" t="s">
+    <row r="28" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="111" t="s">
+      <c r="D28" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="F28" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="110" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="110" t="s">
+        <v>268</v>
+      </c>
+      <c r="K29" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="M29" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="O29" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="P29" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q29" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="R29" s="110" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+    </row>
+    <row r="31" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="110">
+        <v>16</v>
+      </c>
+      <c r="D31" s="110">
+        <v>17</v>
+      </c>
+      <c r="E31" s="110">
+        <v>18</v>
+      </c>
+      <c r="F31" s="110">
+        <v>19</v>
+      </c>
+      <c r="G31" s="110">
+        <v>20</v>
+      </c>
+      <c r="H31" s="110">
+        <v>21</v>
+      </c>
+      <c r="I31" s="110">
+        <v>22</v>
+      </c>
+      <c r="J31" s="110">
+        <v>23</v>
+      </c>
+      <c r="K31" s="110">
+        <v>24</v>
+      </c>
+      <c r="L31" s="110">
+        <v>25</v>
+      </c>
+      <c r="M31" s="110">
+        <v>26</v>
+      </c>
+      <c r="N31" s="110">
+        <v>27</v>
+      </c>
+      <c r="O31" s="110">
+        <v>28</v>
+      </c>
+      <c r="P31" s="110">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="110">
+        <v>30</v>
+      </c>
+      <c r="R31" s="110">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="170" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="170"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="110" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="110" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="171" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="F28" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="111" t="s">
-        <v>141</v>
-      </c>
-      <c r="K28" s="111" t="s">
-        <v>4</v>
-      </c>
-      <c r="L28" s="111" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="N28" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="O28" s="111" t="s">
-        <v>16</v>
-      </c>
-      <c r="P28" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q28" s="111" t="s">
-        <v>19</v>
-      </c>
-      <c r="R28" s="111" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="111" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" s="111" t="s">
-        <v>274</v>
-      </c>
-      <c r="K29" s="111" t="s">
-        <v>90</v>
-      </c>
-      <c r="L29" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="M29" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="N29" s="111" t="s">
-        <v>93</v>
-      </c>
-      <c r="O29" s="111" t="s">
-        <v>93</v>
-      </c>
-      <c r="P29" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q29" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="R29" s="111" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="112"/>
-    </row>
-    <row r="31" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="111">
-        <v>16</v>
-      </c>
-      <c r="D31" s="111">
-        <v>17</v>
-      </c>
-      <c r="E31" s="111">
-        <v>18</v>
-      </c>
-      <c r="F31" s="111">
-        <v>19</v>
-      </c>
-      <c r="G31" s="111">
-        <v>20</v>
-      </c>
-      <c r="H31" s="111">
-        <v>21</v>
-      </c>
-      <c r="I31" s="111">
-        <v>22</v>
-      </c>
-      <c r="J31" s="111">
-        <v>23</v>
-      </c>
-      <c r="K31" s="111">
-        <v>24</v>
-      </c>
-      <c r="L31" s="111">
-        <v>25</v>
-      </c>
-      <c r="M31" s="111">
-        <v>26</v>
-      </c>
-      <c r="N31" s="111">
-        <v>27</v>
-      </c>
-      <c r="O31" s="111">
-        <v>28</v>
-      </c>
-      <c r="P31" s="111">
-        <v>29</v>
-      </c>
-      <c r="Q31" s="111">
-        <v>30</v>
-      </c>
-      <c r="R31" s="111">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="111" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="165" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="111" t="s">
-        <v>283</v>
-      </c>
-      <c r="I32" s="66" t="s">
-        <v>278</v>
-      </c>
-      <c r="J32" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="O32" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="P32" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q32" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="111" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="111" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="166" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66" t="s">
-        <v>279</v>
-      </c>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-    </row>
-    <row r="34" spans="2:18" s="100" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="110"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="110"/>
+    </row>
+    <row r="34" spans="2:18" s="99" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="100"/>
+      <c r="R34" s="100"/>
     </row>
     <row r="35" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="49" t="s">
         <v>162</v>
       </c>
       <c r="C35" s="26"/>
@@ -4451,7 +4479,7 @@
       <c r="R35" s="26"/>
     </row>
     <row r="36" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="50" t="s">
         <v>120</v>
       </c>
       <c r="C36" s="30">
@@ -4692,12 +4720,12 @@
       <c r="K41" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="170" t="s">
+      <c r="L41" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="M41" s="171"/>
-      <c r="N41" s="171"/>
-      <c r="O41" s="172"/>
+      <c r="M41" s="166"/>
+      <c r="N41" s="166"/>
+      <c r="O41" s="167"/>
       <c r="P41" s="30" t="s">
         <v>141</v>
       </c>
@@ -4739,12 +4767,12 @@
       <c r="K42" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="170" t="s">
+      <c r="L42" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="M42" s="171"/>
-      <c r="N42" s="171"/>
-      <c r="O42" s="172"/>
+      <c r="M42" s="166"/>
+      <c r="N42" s="166"/>
+      <c r="O42" s="167"/>
       <c r="P42" s="30" t="s">
         <v>132</v>
       </c>
@@ -4770,7 +4798,7 @@
       <c r="R43" s="29"/>
     </row>
     <row r="44" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="49" t="s">
         <v>142</v>
       </c>
       <c r="C44" s="26"/>
@@ -4791,7 +4819,7 @@
       <c r="R44" s="26"/>
     </row>
     <row r="45" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="50" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="32">
@@ -5026,7 +5054,7 @@
       <c r="I50" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J50" s="52" t="s">
+      <c r="J50" s="51" t="s">
         <v>166</v>
       </c>
       <c r="K50" s="32" t="s">
@@ -5035,12 +5063,12 @@
       <c r="L50" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="169" t="s">
+      <c r="M50" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="N50" s="169"/>
-      <c r="O50" s="169"/>
-      <c r="P50" s="169"/>
+      <c r="N50" s="164"/>
+      <c r="O50" s="164"/>
+      <c r="P50" s="164"/>
       <c r="Q50" s="32" t="s">
         <v>140</v>
       </c>
@@ -5082,12 +5110,12 @@
       <c r="L51" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="M51" s="169" t="s">
+      <c r="M51" s="164" t="s">
         <v>95</v>
       </c>
-      <c r="N51" s="169"/>
-      <c r="O51" s="169"/>
-      <c r="P51" s="169"/>
+      <c r="N51" s="164"/>
+      <c r="O51" s="164"/>
+      <c r="P51" s="164"/>
       <c r="Q51" s="32" t="s">
         <v>90</v>
       </c>
@@ -5095,7 +5123,7 @@
     </row>
     <row r="52" spans="2:18" s="34" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="53" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="49" t="s">
         <v>148</v>
       </c>
       <c r="C53" s="26"/>
@@ -5116,7 +5144,7 @@
       <c r="R53" s="26"/>
     </row>
     <row r="54" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="50" t="s">
         <v>35</v>
       </c>
       <c r="C54" s="32">
@@ -5262,114 +5290,114 @@
       </c>
     </row>
     <row r="57" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="145"/>
+      <c r="J57" s="145"/>
+      <c r="K57" s="145"/>
+      <c r="L57" s="145"/>
+      <c r="M57" s="145"/>
+      <c r="N57" s="145"/>
+      <c r="O57" s="145"/>
+      <c r="P57" s="145"/>
+      <c r="Q57" s="145"/>
+      <c r="R57" s="145"/>
     </row>
     <row r="58" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="32">
+      <c r="C58" s="144">
         <v>16</v>
       </c>
-      <c r="D58" s="32">
+      <c r="D58" s="144">
         <v>17</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E58" s="144">
         <v>18</v>
       </c>
-      <c r="F58" s="32">
+      <c r="F58" s="144">
         <v>19</v>
       </c>
-      <c r="G58" s="32">
+      <c r="G58" s="144">
         <v>20</v>
       </c>
-      <c r="H58" s="32">
+      <c r="H58" s="144">
         <v>21</v>
       </c>
-      <c r="I58" s="32">
+      <c r="I58" s="144">
         <v>22</v>
       </c>
-      <c r="J58" s="32">
+      <c r="J58" s="144">
         <v>23</v>
       </c>
-      <c r="K58" s="32">
+      <c r="K58" s="144">
         <v>24</v>
       </c>
-      <c r="L58" s="32">
+      <c r="L58" s="144">
         <v>25</v>
       </c>
-      <c r="M58" s="32">
+      <c r="M58" s="144">
         <v>26</v>
       </c>
-      <c r="N58" s="32">
+      <c r="N58" s="144">
         <v>27</v>
       </c>
-      <c r="O58" s="32">
+      <c r="O58" s="144">
         <v>28</v>
       </c>
-      <c r="P58" s="32">
+      <c r="P58" s="144">
         <v>29</v>
       </c>
-      <c r="Q58" s="32">
+      <c r="Q58" s="144">
         <v>30</v>
       </c>
-      <c r="R58" s="32">
+      <c r="R58" s="144">
         <v>31</v>
       </c>
     </row>
     <row r="59" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="169" t="s">
+      <c r="D59" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="169"/>
-      <c r="F59" s="169"/>
-      <c r="G59" s="169"/>
-      <c r="H59" s="32" t="s">
+      <c r="E59" s="166"/>
+      <c r="F59" s="166"/>
+      <c r="G59" s="167"/>
+      <c r="H59" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="I59" s="37" t="s">
+      <c r="I59" s="144" t="s">
         <v>163</v>
       </c>
-      <c r="J59" s="37" t="s">
+      <c r="J59" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="K59" s="32" t="s">
+      <c r="K59" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="L59" s="32" t="s">
+      <c r="L59" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="M59" s="32" t="s">
+      <c r="M59" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="N59" s="32" t="s">
+      <c r="N59" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="O59" s="32" t="s">
+      <c r="O59" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="P59" s="32" t="s">
+      <c r="P59" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="Q59" s="32" t="s">
+      <c r="Q59" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="R59" s="32" t="s">
+      <c r="R59" s="144" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5377,984 +5405,969 @@
       <c r="B60" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="170" t="s">
+      <c r="D60" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="171"/>
-      <c r="F60" s="171"/>
-      <c r="G60" s="172"/>
-      <c r="H60" s="32" t="s">
+      <c r="E60" s="166"/>
+      <c r="F60" s="166"/>
+      <c r="G60" s="167"/>
+      <c r="H60" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="I60" s="37" t="s">
+      <c r="I60" s="144" t="s">
         <v>164</v>
       </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32"/>
-    </row>
-    <row r="61" spans="2:18" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="144"/>
+      <c r="L60" s="144"/>
+      <c r="M60" s="144"/>
+      <c r="N60" s="144"/>
+      <c r="O60" s="144"/>
+      <c r="P60" s="144"/>
+      <c r="Q60" s="144"/>
+      <c r="R60" s="144"/>
+    </row>
+    <row r="61" spans="2:18" s="39" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="65"/>
-      <c r="O62" s="65"/>
-      <c r="P62" s="65"/>
-      <c r="Q62" s="65"/>
-      <c r="R62" s="65"/>
+      <c r="B62" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="64"/>
     </row>
     <row r="63" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="23">
+        <v>339</v>
+      </c>
+      <c r="C63" s="146">
         <v>0</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="146">
         <v>1</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="146">
         <v>2</v>
       </c>
-      <c r="F63" s="23">
+      <c r="F63" s="146">
         <v>3</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="146">
         <v>4</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="146">
         <v>5</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I63" s="146">
         <v>6</v>
       </c>
-      <c r="J63" s="23">
+      <c r="J63" s="146">
         <v>7</v>
       </c>
-      <c r="K63" s="23">
+      <c r="K63" s="146">
         <v>8</v>
       </c>
-      <c r="L63" s="23">
+      <c r="L63" s="146">
         <v>9</v>
       </c>
-      <c r="M63" s="23">
+      <c r="M63" s="146">
         <v>10</v>
       </c>
-      <c r="N63" s="23">
+      <c r="N63" s="146">
         <v>11</v>
       </c>
-      <c r="O63" s="23">
+      <c r="O63" s="146">
         <v>12</v>
       </c>
-      <c r="P63" s="23">
+      <c r="P63" s="146">
         <v>13</v>
       </c>
-      <c r="Q63" s="23">
+      <c r="Q63" s="146">
         <v>14</v>
       </c>
-      <c r="R63" s="23">
+      <c r="R63" s="146">
         <v>15</v>
       </c>
     </row>
     <row r="64" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="66" t="s">
+      <c r="C64" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="F64" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="G64" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="H64" s="23" t="s">
+      <c r="E64" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="F64" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="146" t="s">
+        <v>143</v>
+      </c>
+      <c r="H64" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="I64" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J64" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="K64" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="L64" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="M64" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="N64" s="23" t="s">
+      <c r="I64" s="146" t="s">
+        <v>2</v>
+      </c>
+      <c r="J64" s="146" t="s">
+        <v>141</v>
+      </c>
+      <c r="K64" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="L64" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="M64" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="N64" s="146" t="s">
+        <v>144</v>
+      </c>
+      <c r="O64" s="146" t="s">
+        <v>146</v>
+      </c>
+      <c r="P64" s="146" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q64" s="146" t="s">
+        <v>19</v>
+      </c>
+      <c r="R64" s="146" t="s">
         <v>14</v>
-      </c>
-      <c r="O64" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="P64" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q64" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="R64" s="23" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="65" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23" t="s">
+      <c r="C65" s="146"/>
+      <c r="D65" s="146"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="146"/>
+      <c r="G65" s="146"/>
+      <c r="H65" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="I65" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="J65" s="146" t="s">
+        <v>88</v>
+      </c>
+      <c r="K65" s="146" t="s">
+        <v>90</v>
+      </c>
+      <c r="L65" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="M65" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="N65" s="146" t="s">
+        <v>95</v>
+      </c>
+      <c r="O65" s="146" t="s">
+        <v>95</v>
+      </c>
+      <c r="P65" s="146" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q65" s="146" t="s">
+        <v>88</v>
+      </c>
+      <c r="R65" s="146" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="147"/>
+      <c r="D66" s="147"/>
+      <c r="E66" s="147"/>
+      <c r="F66" s="147"/>
+      <c r="G66" s="147"/>
+      <c r="H66" s="147"/>
+      <c r="I66" s="147"/>
+      <c r="J66" s="147"/>
+      <c r="K66" s="147"/>
+      <c r="L66" s="147"/>
+      <c r="M66" s="147"/>
+      <c r="N66" s="147"/>
+      <c r="O66" s="147"/>
+      <c r="P66" s="147"/>
+      <c r="Q66" s="147"/>
+      <c r="R66" s="147"/>
+    </row>
+    <row r="67" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="146">
+        <v>16</v>
+      </c>
+      <c r="D67" s="146">
+        <v>17</v>
+      </c>
+      <c r="E67" s="146">
+        <v>18</v>
+      </c>
+      <c r="F67" s="146">
+        <v>19</v>
+      </c>
+      <c r="G67" s="146">
+        <v>20</v>
+      </c>
+      <c r="H67" s="146">
+        <v>21</v>
+      </c>
+      <c r="I67" s="146">
+        <v>22</v>
+      </c>
+      <c r="J67" s="146">
+        <v>23</v>
+      </c>
+      <c r="K67" s="146">
+        <v>24</v>
+      </c>
+      <c r="L67" s="146">
+        <v>25</v>
+      </c>
+      <c r="M67" s="146">
+        <v>26</v>
+      </c>
+      <c r="N67" s="146">
+        <v>27</v>
+      </c>
+      <c r="O67" s="146">
+        <v>28</v>
+      </c>
+      <c r="P67" s="146">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="146">
+        <v>30</v>
+      </c>
+      <c r="R67" s="146">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="171" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="172"/>
+      <c r="F68" s="172"/>
+      <c r="G68" s="173"/>
+      <c r="H68" s="146" t="s">
+        <v>147</v>
+      </c>
+      <c r="I68" s="146" t="s">
+        <v>163</v>
+      </c>
+      <c r="J68" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="N68" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="O68" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="P68" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q68" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="R68" s="146" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="146" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="171" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="172"/>
+      <c r="F69" s="172"/>
+      <c r="G69" s="173"/>
+      <c r="H69" s="146" t="s">
+        <v>95</v>
+      </c>
+      <c r="I69" s="146" t="s">
+        <v>95</v>
+      </c>
+      <c r="J69" s="146"/>
+      <c r="K69" s="146"/>
+      <c r="L69" s="146"/>
+      <c r="M69" s="146"/>
+      <c r="N69" s="146"/>
+      <c r="O69" s="146"/>
+      <c r="P69" s="146"/>
+      <c r="Q69" s="146"/>
+      <c r="R69" s="146"/>
+    </row>
+    <row r="70" spans="2:18" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="2:18" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="64"/>
+      <c r="K72" s="64"/>
+      <c r="L72" s="64"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
+      <c r="O72" s="64"/>
+      <c r="P72" s="64"/>
+      <c r="Q72" s="64"/>
+      <c r="R72" s="64"/>
+    </row>
+    <row r="73" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="85">
+        <v>0</v>
+      </c>
+      <c r="D73" s="85">
+        <v>1</v>
+      </c>
+      <c r="E73" s="85">
+        <v>2</v>
+      </c>
+      <c r="F73" s="85">
+        <v>3</v>
+      </c>
+      <c r="G73" s="85">
+        <v>4</v>
+      </c>
+      <c r="H73" s="85">
+        <v>5</v>
+      </c>
+      <c r="I73" s="85">
+        <v>6</v>
+      </c>
+      <c r="J73" s="85">
+        <v>7</v>
+      </c>
+      <c r="K73" s="85">
+        <v>8</v>
+      </c>
+      <c r="L73" s="85">
+        <v>9</v>
+      </c>
+      <c r="M73" s="85">
+        <v>10</v>
+      </c>
+      <c r="N73" s="85">
+        <v>11</v>
+      </c>
+      <c r="O73" s="85">
+        <v>12</v>
+      </c>
+      <c r="P73" s="85">
+        <v>13</v>
+      </c>
+      <c r="Q73" s="85">
+        <v>14</v>
+      </c>
+      <c r="R73" s="85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="G74" s="85" t="s">
+        <v>210</v>
+      </c>
+      <c r="H74" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="I74" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="J74" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="K74" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="L74" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="M74" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="N74" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="O74" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="P74" s="85" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q74" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="R74" s="85" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="I65" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="J65" s="23" t="s">
+      <c r="I75" s="85">
+        <v>0</v>
+      </c>
+      <c r="J75" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="K65" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="L65" s="23" t="s">
+      <c r="K75" s="85">
+        <v>0</v>
+      </c>
+      <c r="L75" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="M65" s="23" t="s">
+      <c r="M75" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="N65" s="23" t="s">
+      <c r="N75" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="O65" s="23" t="s">
+      <c r="O75" s="85">
+        <v>0</v>
+      </c>
+      <c r="P75" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="P65" s="23" t="s">
+      <c r="Q75" s="85">
+        <v>0</v>
+      </c>
+      <c r="R75" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="Q65" s="23" t="s">
+    </row>
+    <row r="76" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="66"/>
+      <c r="M76" s="66"/>
+      <c r="N76" s="66"/>
+      <c r="O76" s="66"/>
+      <c r="P76" s="66"/>
+      <c r="Q76" s="66"/>
+      <c r="R76" s="66"/>
+    </row>
+    <row r="77" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="85">
+        <v>16</v>
+      </c>
+      <c r="D77" s="85">
+        <v>17</v>
+      </c>
+      <c r="E77" s="85">
+        <v>18</v>
+      </c>
+      <c r="F77" s="85">
+        <v>19</v>
+      </c>
+      <c r="G77" s="85">
+        <v>20</v>
+      </c>
+      <c r="H77" s="85">
+        <v>21</v>
+      </c>
+      <c r="I77" s="85">
+        <v>22</v>
+      </c>
+      <c r="J77" s="85">
+        <v>23</v>
+      </c>
+      <c r="K77" s="85">
+        <v>24</v>
+      </c>
+      <c r="L77" s="85">
+        <v>25</v>
+      </c>
+      <c r="M77" s="85">
+        <v>26</v>
+      </c>
+      <c r="N77" s="85">
+        <v>27</v>
+      </c>
+      <c r="O77" s="85">
+        <v>28</v>
+      </c>
+      <c r="P77" s="85">
+        <v>29</v>
+      </c>
+      <c r="Q77" s="85">
+        <v>30</v>
+      </c>
+      <c r="R77" s="85">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="170" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="170"/>
+      <c r="F78" s="170"/>
+      <c r="G78" s="170"/>
+      <c r="H78" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="I78" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="J78" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="N78" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="O78" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="P78" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q78" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="R78" s="85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="R65" s="23" t="s">
+      <c r="D79" s="171" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="172"/>
+      <c r="F79" s="172"/>
+      <c r="G79" s="173"/>
+      <c r="H79" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="I79" s="85"/>
+      <c r="J79" s="85"/>
+      <c r="K79" s="85"/>
+      <c r="L79" s="85"/>
+      <c r="M79" s="85"/>
+      <c r="N79" s="85"/>
+      <c r="O79" s="85"/>
+      <c r="P79" s="85"/>
+      <c r="Q79" s="85"/>
+      <c r="R79" s="85"/>
+    </row>
+    <row r="80" spans="2:18" s="95" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="96"/>
+      <c r="D80" s="96"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="96"/>
+      <c r="G80" s="96"/>
+      <c r="H80" s="96"/>
+      <c r="I80" s="96"/>
+      <c r="J80" s="96"/>
+      <c r="K80" s="96"/>
+      <c r="L80" s="96"/>
+      <c r="M80" s="96"/>
+      <c r="N80" s="96"/>
+      <c r="O80" s="96"/>
+      <c r="P80" s="96"/>
+      <c r="Q80" s="96"/>
+      <c r="R80" s="96"/>
+    </row>
+    <row r="81" spans="1:18" s="112" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" s="113"/>
+      <c r="D81" s="113"/>
+      <c r="E81" s="113"/>
+      <c r="F81" s="113"/>
+      <c r="G81" s="113"/>
+      <c r="H81" s="113"/>
+      <c r="I81" s="113"/>
+      <c r="J81" s="113"/>
+      <c r="K81" s="113"/>
+      <c r="L81" s="113"/>
+      <c r="M81" s="113"/>
+      <c r="N81" s="113"/>
+      <c r="O81" s="113"/>
+      <c r="P81" s="113"/>
+      <c r="Q81" s="113"/>
+      <c r="R81" s="113"/>
+    </row>
+    <row r="82" spans="1:18" s="112" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" s="114">
+        <v>0</v>
+      </c>
+      <c r="D82" s="114">
+        <v>1</v>
+      </c>
+      <c r="E82" s="114">
+        <v>2</v>
+      </c>
+      <c r="F82" s="114">
+        <v>3</v>
+      </c>
+      <c r="G82" s="114">
+        <v>4</v>
+      </c>
+      <c r="H82" s="114">
+        <v>5</v>
+      </c>
+      <c r="I82" s="114">
+        <v>6</v>
+      </c>
+      <c r="J82" s="114">
+        <v>7</v>
+      </c>
+      <c r="K82" s="114">
+        <v>8</v>
+      </c>
+      <c r="L82" s="114">
+        <v>9</v>
+      </c>
+      <c r="M82" s="114">
+        <v>10</v>
+      </c>
+      <c r="N82" s="114">
+        <v>11</v>
+      </c>
+      <c r="O82" s="114">
+        <v>12</v>
+      </c>
+      <c r="P82" s="114">
+        <v>13</v>
+      </c>
+      <c r="Q82" s="114">
+        <v>14</v>
+      </c>
+      <c r="R82" s="114">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" s="112" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="115" t="s">
+        <v>223</v>
+      </c>
+      <c r="D83" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="E83" s="115" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="G83" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="H83" s="114" t="s">
+        <v>227</v>
+      </c>
+      <c r="I83" s="114" t="s">
+        <v>276</v>
+      </c>
+      <c r="J83" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="K83" s="114" t="s">
+        <v>229</v>
+      </c>
+      <c r="L83" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="M83" s="114" t="s">
+        <v>231</v>
+      </c>
+      <c r="N83" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="O83" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="P83" s="114" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q83" s="114" t="s">
+        <v>235</v>
+      </c>
+      <c r="R83" s="114" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" s="112" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="112" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="114"/>
+      <c r="D84" s="114"/>
+      <c r="E84" s="114"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="114"/>
+      <c r="H84" s="114" t="s">
+        <v>238</v>
+      </c>
+      <c r="I84" s="114" t="s">
+        <v>239</v>
+      </c>
+      <c r="J84" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="K84" s="114" t="s">
+        <v>241</v>
+      </c>
+      <c r="L84" s="114" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="67"/>
-      <c r="P66" s="67"/>
-      <c r="Q66" s="67"/>
-      <c r="R66" s="67"/>
-    </row>
-    <row r="67" spans="2:18" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="23">
+      <c r="M84" s="114" t="s">
+        <v>241</v>
+      </c>
+      <c r="N84" s="114" t="s">
+        <v>241</v>
+      </c>
+      <c r="O84" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="P84" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q84" s="114" t="s">
+        <v>241</v>
+      </c>
+      <c r="R84" s="114" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" s="112" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="116"/>
+      <c r="D85" s="116"/>
+      <c r="E85" s="116"/>
+      <c r="F85" s="116"/>
+      <c r="G85" s="116"/>
+      <c r="H85" s="116"/>
+      <c r="I85" s="116"/>
+      <c r="J85" s="116"/>
+      <c r="K85" s="116"/>
+      <c r="L85" s="116"/>
+      <c r="M85" s="116"/>
+      <c r="N85" s="116"/>
+      <c r="O85" s="116"/>
+      <c r="P85" s="116"/>
+      <c r="Q85" s="116"/>
+      <c r="R85" s="116"/>
+    </row>
+    <row r="86" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="114">
         <v>16</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D86" s="114">
         <v>17</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E86" s="114">
         <v>18</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F86" s="114">
         <v>19</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G86" s="114">
         <v>20</v>
       </c>
-      <c r="H67" s="23">
+      <c r="H86" s="114">
         <v>21</v>
       </c>
-      <c r="I67" s="23">
+      <c r="I86" s="114">
         <v>22</v>
       </c>
-      <c r="J67" s="23">
+      <c r="J86" s="114">
         <v>23</v>
       </c>
-      <c r="K67" s="23">
+      <c r="K86" s="114">
         <v>24</v>
       </c>
-      <c r="L67" s="23">
+      <c r="L86" s="114">
         <v>25</v>
       </c>
-      <c r="M67" s="23">
+      <c r="M86" s="114">
         <v>26</v>
       </c>
-      <c r="N67" s="23">
+      <c r="N86" s="114">
         <v>27</v>
       </c>
-      <c r="O67" s="23">
+      <c r="O86" s="114">
         <v>28</v>
       </c>
-      <c r="P67" s="23">
+      <c r="P86" s="114">
         <v>29</v>
       </c>
-      <c r="Q67" s="23">
+      <c r="Q86" s="114">
         <v>30</v>
       </c>
-      <c r="R67" s="23">
+      <c r="R86" s="114">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="2:18" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="165" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="165"/>
-      <c r="F68" s="165"/>
-      <c r="G68" s="165"/>
-      <c r="H68" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="I68" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="L68" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="M68" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="N68" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O68" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="P68" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q68" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R68" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="2:18" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="23" t="s">
+    <row r="87" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="114" t="s">
+        <v>243</v>
+      </c>
+      <c r="D87" s="174" t="s">
+        <v>244</v>
+      </c>
+      <c r="E87" s="174"/>
+      <c r="F87" s="174"/>
+      <c r="G87" s="174"/>
+      <c r="H87" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="I87" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="J87" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="K87" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="L87" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="M87" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="N87" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="O87" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="P87" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q87" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="R87" s="114" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="117" t="s">
+        <v>237</v>
+      </c>
+      <c r="C88" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="166" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="167"/>
-      <c r="F69" s="167"/>
-      <c r="G69" s="168"/>
-      <c r="H69" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="23"/>
-    </row>
-    <row r="70" spans="2:18" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="29"/>
-      <c r="R70" s="29"/>
-    </row>
-    <row r="71" spans="2:18" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="65"/>
-      <c r="J72" s="65"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="65"/>
-      <c r="M72" s="65"/>
-      <c r="N72" s="65"/>
-      <c r="O72" s="65"/>
-      <c r="P72" s="65"/>
-      <c r="Q72" s="65"/>
-      <c r="R72" s="65"/>
-    </row>
-    <row r="73" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="86">
-        <v>0</v>
-      </c>
-      <c r="D73" s="86">
-        <v>1</v>
-      </c>
-      <c r="E73" s="86">
-        <v>2</v>
-      </c>
-      <c r="F73" s="86">
-        <v>3</v>
-      </c>
-      <c r="G73" s="86">
-        <v>4</v>
-      </c>
-      <c r="H73" s="86">
-        <v>5</v>
-      </c>
-      <c r="I73" s="86">
-        <v>6</v>
-      </c>
-      <c r="J73" s="86">
-        <v>7</v>
-      </c>
-      <c r="K73" s="86">
-        <v>8</v>
-      </c>
-      <c r="L73" s="86">
-        <v>9</v>
-      </c>
-      <c r="M73" s="86">
-        <v>10</v>
-      </c>
-      <c r="N73" s="86">
-        <v>11</v>
-      </c>
-      <c r="O73" s="86">
-        <v>12</v>
-      </c>
-      <c r="P73" s="86">
-        <v>13</v>
-      </c>
-      <c r="Q73" s="86">
-        <v>14</v>
-      </c>
-      <c r="R73" s="86">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F74" s="66" t="s">
-        <v>215</v>
-      </c>
-      <c r="G74" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="H74" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="I74" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="J74" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="K74" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="L74" s="86" t="s">
-        <v>201</v>
-      </c>
-      <c r="M74" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="N74" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="O74" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="P74" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q74" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="R74" s="86" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="86"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="86"/>
-      <c r="F75" s="86"/>
-      <c r="G75" s="86"/>
-      <c r="H75" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="I75" s="86">
-        <v>0</v>
-      </c>
-      <c r="J75" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="K75" s="86">
-        <v>0</v>
-      </c>
-      <c r="L75" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="M75" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="N75" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="O75" s="86">
-        <v>0</v>
-      </c>
-      <c r="P75" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q75" s="86">
-        <v>0</v>
-      </c>
-      <c r="R75" s="86" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="67"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="67"/>
-      <c r="L76" s="67"/>
-      <c r="M76" s="67"/>
-      <c r="N76" s="67"/>
-      <c r="O76" s="67"/>
-      <c r="P76" s="67"/>
-      <c r="Q76" s="67"/>
-      <c r="R76" s="67"/>
-    </row>
-    <row r="77" spans="2:18" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="86">
-        <v>16</v>
-      </c>
-      <c r="D77" s="86">
-        <v>17</v>
-      </c>
-      <c r="E77" s="86">
-        <v>18</v>
-      </c>
-      <c r="F77" s="86">
-        <v>19</v>
-      </c>
-      <c r="G77" s="86">
-        <v>20</v>
-      </c>
-      <c r="H77" s="86">
-        <v>21</v>
-      </c>
-      <c r="I77" s="86">
-        <v>22</v>
-      </c>
-      <c r="J77" s="86">
-        <v>23</v>
-      </c>
-      <c r="K77" s="86">
-        <v>24</v>
-      </c>
-      <c r="L77" s="86">
-        <v>25</v>
-      </c>
-      <c r="M77" s="86">
-        <v>26</v>
-      </c>
-      <c r="N77" s="86">
-        <v>27</v>
-      </c>
-      <c r="O77" s="86">
-        <v>28</v>
-      </c>
-      <c r="P77" s="86">
-        <v>29</v>
-      </c>
-      <c r="Q77" s="86">
-        <v>30</v>
-      </c>
-      <c r="R77" s="86">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="2:18" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="165" t="s">
-        <v>31</v>
-      </c>
-      <c r="E78" s="165"/>
-      <c r="F78" s="165"/>
-      <c r="G78" s="165"/>
-      <c r="H78" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="I78" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="J78" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K78" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="L78" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="M78" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="N78" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="O78" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="P78" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q78" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="R78" s="86" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="2:18" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" s="166" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79" s="167"/>
-      <c r="F79" s="167"/>
-      <c r="G79" s="168"/>
-      <c r="H79" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="I79" s="86"/>
-      <c r="J79" s="86"/>
-      <c r="K79" s="86"/>
-      <c r="L79" s="86"/>
-      <c r="M79" s="86"/>
-      <c r="N79" s="86"/>
-      <c r="O79" s="86"/>
-      <c r="P79" s="86"/>
-      <c r="Q79" s="86"/>
-      <c r="R79" s="86"/>
-    </row>
-    <row r="80" spans="2:18" s="96" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="97"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="97"/>
-      <c r="F80" s="97"/>
-      <c r="G80" s="97"/>
-      <c r="H80" s="97"/>
-      <c r="I80" s="97"/>
-      <c r="J80" s="97"/>
-      <c r="K80" s="97"/>
-      <c r="L80" s="97"/>
-      <c r="M80" s="97"/>
-      <c r="N80" s="97"/>
-      <c r="O80" s="97"/>
-      <c r="P80" s="97"/>
-      <c r="Q80" s="97"/>
-      <c r="R80" s="97"/>
-    </row>
-    <row r="81" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="113" t="s">
-        <v>227</v>
-      </c>
-      <c r="C81" s="114"/>
-      <c r="D81" s="114"/>
-      <c r="E81" s="114"/>
-      <c r="F81" s="114"/>
-      <c r="G81" s="114"/>
-      <c r="H81" s="114"/>
-      <c r="I81" s="114"/>
-      <c r="J81" s="114"/>
-      <c r="K81" s="114"/>
-      <c r="L81" s="114"/>
-      <c r="M81" s="114"/>
-      <c r="N81" s="114"/>
-      <c r="O81" s="114"/>
-      <c r="P81" s="114"/>
-      <c r="Q81" s="114"/>
-      <c r="R81" s="114"/>
-    </row>
-    <row r="82" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="113" t="s">
-        <v>228</v>
-      </c>
-      <c r="C82" s="115">
-        <v>0</v>
-      </c>
-      <c r="D82" s="115">
-        <v>1</v>
-      </c>
-      <c r="E82" s="115">
-        <v>2</v>
-      </c>
-      <c r="F82" s="115">
-        <v>3</v>
-      </c>
-      <c r="G82" s="115">
-        <v>4</v>
-      </c>
-      <c r="H82" s="115">
-        <v>5</v>
-      </c>
-      <c r="I82" s="115">
-        <v>6</v>
-      </c>
-      <c r="J82" s="115">
-        <v>7</v>
-      </c>
-      <c r="K82" s="115">
-        <v>8</v>
-      </c>
-      <c r="L82" s="115">
-        <v>9</v>
-      </c>
-      <c r="M82" s="115">
-        <v>10</v>
-      </c>
-      <c r="N82" s="115">
-        <v>11</v>
-      </c>
-      <c r="O82" s="115">
-        <v>12</v>
-      </c>
-      <c r="P82" s="115">
-        <v>13</v>
-      </c>
-      <c r="Q82" s="115">
-        <v>14</v>
-      </c>
-      <c r="R82" s="115">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="116" t="s">
-        <v>229</v>
-      </c>
-      <c r="D83" s="115" t="s">
-        <v>230</v>
-      </c>
-      <c r="E83" s="116" t="s">
-        <v>231</v>
-      </c>
-      <c r="F83" s="116" t="s">
-        <v>232</v>
-      </c>
-      <c r="G83" s="115" t="s">
-        <v>232</v>
-      </c>
-      <c r="H83" s="115" t="s">
-        <v>233</v>
-      </c>
-      <c r="I83" s="115" t="s">
-        <v>282</v>
-      </c>
-      <c r="J83" s="115" t="s">
-        <v>234</v>
-      </c>
-      <c r="K83" s="115" t="s">
-        <v>235</v>
-      </c>
-      <c r="L83" s="115" t="s">
-        <v>236</v>
-      </c>
-      <c r="M83" s="115" t="s">
-        <v>237</v>
-      </c>
-      <c r="N83" s="115" t="s">
-        <v>238</v>
-      </c>
-      <c r="O83" s="115" t="s">
-        <v>239</v>
-      </c>
-      <c r="P83" s="115" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q83" s="115" t="s">
-        <v>241</v>
-      </c>
-      <c r="R83" s="115" t="s">
+      <c r="D88" s="175" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="113" t="s">
-        <v>243</v>
-      </c>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115"/>
-      <c r="E84" s="115"/>
-      <c r="F84" s="115"/>
-      <c r="G84" s="115"/>
-      <c r="H84" s="115" t="s">
-        <v>244</v>
-      </c>
-      <c r="I84" s="115" t="s">
-        <v>245</v>
-      </c>
-      <c r="J84" s="115" t="s">
-        <v>246</v>
-      </c>
-      <c r="K84" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="L84" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="M84" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="N84" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="O84" s="115" t="s">
-        <v>248</v>
-      </c>
-      <c r="P84" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q84" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="R84" s="115" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="117"/>
-      <c r="D85" s="117"/>
-      <c r="E85" s="117"/>
-      <c r="F85" s="117"/>
-      <c r="G85" s="117"/>
-      <c r="H85" s="117"/>
-      <c r="I85" s="117"/>
-      <c r="J85" s="117"/>
-      <c r="K85" s="117"/>
-      <c r="L85" s="117"/>
-      <c r="M85" s="117"/>
-      <c r="N85" s="117"/>
-      <c r="O85" s="117"/>
-      <c r="P85" s="117"/>
-      <c r="Q85" s="117"/>
-      <c r="R85" s="117"/>
-    </row>
-    <row r="86" spans="1:18" s="118" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="115">
-        <v>16</v>
-      </c>
-      <c r="D86" s="115">
-        <v>17</v>
-      </c>
-      <c r="E86" s="115">
-        <v>18</v>
-      </c>
-      <c r="F86" s="115">
-        <v>19</v>
-      </c>
-      <c r="G86" s="115">
-        <v>20</v>
-      </c>
-      <c r="H86" s="115">
-        <v>21</v>
-      </c>
-      <c r="I86" s="115">
-        <v>22</v>
-      </c>
-      <c r="J86" s="115">
-        <v>23</v>
-      </c>
-      <c r="K86" s="115">
-        <v>24</v>
-      </c>
-      <c r="L86" s="115">
-        <v>25</v>
-      </c>
-      <c r="M86" s="115">
-        <v>26</v>
-      </c>
-      <c r="N86" s="115">
-        <v>27</v>
-      </c>
-      <c r="O86" s="115">
-        <v>28</v>
-      </c>
-      <c r="P86" s="115">
-        <v>29</v>
-      </c>
-      <c r="Q86" s="115">
-        <v>30</v>
-      </c>
-      <c r="R86" s="115">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" s="118" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="115" t="s">
-        <v>249</v>
-      </c>
-      <c r="D87" s="158" t="s">
-        <v>250</v>
-      </c>
-      <c r="E87" s="158"/>
-      <c r="F87" s="158"/>
-      <c r="G87" s="158"/>
-      <c r="H87" s="115" t="s">
-        <v>251</v>
-      </c>
-      <c r="I87" s="115" t="s">
-        <v>251</v>
-      </c>
-      <c r="J87" s="115" t="s">
-        <v>251</v>
-      </c>
-      <c r="K87" s="115" t="s">
-        <v>251</v>
-      </c>
-      <c r="L87" s="115" t="s">
-        <v>251</v>
-      </c>
-      <c r="M87" s="115" t="s">
-        <v>251</v>
-      </c>
-      <c r="N87" s="115" t="s">
-        <v>251</v>
-      </c>
-      <c r="O87" s="115" t="s">
-        <v>251</v>
-      </c>
-      <c r="P87" s="115" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q87" s="115" t="s">
-        <v>251</v>
-      </c>
-      <c r="R87" s="115" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" s="118" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="118" t="s">
-        <v>243</v>
-      </c>
-      <c r="C88" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" s="159" t="s">
-        <v>248</v>
-      </c>
-      <c r="E88" s="160"/>
-      <c r="F88" s="160"/>
-      <c r="G88" s="161"/>
-      <c r="H88" s="115"/>
-      <c r="I88" s="115"/>
-      <c r="J88" s="115"/>
-      <c r="K88" s="115"/>
-      <c r="L88" s="115"/>
-      <c r="M88" s="115"/>
-      <c r="N88" s="115"/>
-      <c r="O88" s="115"/>
-      <c r="P88" s="115"/>
-      <c r="Q88" s="115"/>
-      <c r="R88" s="115"/>
+      <c r="E88" s="176"/>
+      <c r="F88" s="176"/>
+      <c r="G88" s="177"/>
+      <c r="H88" s="114"/>
+      <c r="I88" s="114"/>
+      <c r="J88" s="114"/>
+      <c r="K88" s="114"/>
+      <c r="L88" s="114"/>
+      <c r="M88" s="114"/>
+      <c r="N88" s="114"/>
+      <c r="O88" s="114"/>
+      <c r="P88" s="114"/>
+      <c r="Q88" s="114"/>
+      <c r="R88" s="114"/>
     </row>
     <row r="89" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C89" s="29"/>
@@ -6396,7 +6409,7 @@
       <c r="A91" s="7">
         <v>2</v>
       </c>
-      <c r="B91" s="84" t="s">
+      <c r="B91" s="83" t="s">
         <v>159</v>
       </c>
       <c r="C91" s="11">
@@ -6642,7 +6655,7 @@
       </c>
     </row>
     <row r="98" spans="1:18" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C98" s="12" t="s">
@@ -6740,10 +6753,10 @@
       <c r="E101" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F101" s="42" t="s">
+      <c r="F101" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="G101" s="58" t="s">
+      <c r="G101" s="57" t="s">
         <v>187</v>
       </c>
       <c r="H101" s="12" t="s">
@@ -6756,15 +6769,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="69"/>
-      <c r="J102" s="69"/>
+    <row r="102" spans="1:18" s="67" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="68"/>
+      <c r="D102" s="68"/>
+      <c r="E102" s="68"/>
+      <c r="F102" s="69"/>
+      <c r="G102" s="68"/>
+      <c r="H102" s="68"/>
+      <c r="I102" s="68"/>
+      <c r="J102" s="68"/>
     </row>
     <row r="103" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B103" s="8" t="s">
@@ -6918,7 +6931,7 @@
       <c r="E107" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F107" s="42" t="s">
+      <c r="F107" s="41" t="s">
         <v>149</v>
       </c>
       <c r="G107" s="12" t="s">
@@ -6938,27 +6951,27 @@
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
-      <c r="F108" s="57"/>
+      <c r="F108" s="56"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
       <c r="I108" s="20"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="44"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="44"/>
-      <c r="I109" s="44"/>
-      <c r="J109" s="44"/>
+    <row r="109" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="43"/>
     </row>
     <row r="110" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="5">
         <v>3</v>
       </c>
-      <c r="B110" s="83" t="s">
+      <c r="B110" s="82" t="s">
         <v>161</v>
       </c>
       <c r="C110" s="13">
@@ -7011,7 +7024,7 @@
       </c>
     </row>
     <row r="111" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="83" t="s">
+      <c r="B111" s="82" t="s">
         <v>160</v>
       </c>
       <c r="C111" s="14" t="s">
@@ -7029,23 +7042,23 @@
       <c r="G111" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H111" s="176" t="s">
+      <c r="H111" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="I111" s="176"/>
-      <c r="J111" s="176"/>
-      <c r="K111" s="176"/>
-      <c r="L111" s="176" t="s">
+      <c r="I111" s="168"/>
+      <c r="J111" s="168"/>
+      <c r="K111" s="168"/>
+      <c r="L111" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="M111" s="176"/>
-      <c r="N111" s="176"/>
-      <c r="O111" s="176"/>
-      <c r="P111" s="176" t="s">
+      <c r="M111" s="168"/>
+      <c r="N111" s="168"/>
+      <c r="O111" s="168"/>
+      <c r="P111" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="Q111" s="176"/>
-      <c r="R111" s="176"/>
+      <c r="Q111" s="168"/>
+      <c r="R111" s="168"/>
     </row>
     <row r="112" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C112" s="15"/>
@@ -7104,67 +7117,67 @@
       </c>
     </row>
     <row r="114" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="46"/>
-      <c r="C114" s="39" t="s">
+      <c r="B114" s="45"/>
+      <c r="C114" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D114" s="177" t="s">
+      <c r="D114" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="E114" s="177"/>
-      <c r="F114" s="177"/>
-      <c r="G114" s="177"/>
-      <c r="H114" s="39" t="s">
+      <c r="E114" s="169"/>
+      <c r="F114" s="169"/>
+      <c r="G114" s="169"/>
+      <c r="H114" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="I114" s="39" t="s">
+      <c r="I114" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="J114" s="39" t="s">
+      <c r="J114" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="K114" s="39" t="s">
+      <c r="K114" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="L114" s="98" t="s">
-        <v>197</v>
-      </c>
-      <c r="M114" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="N114" s="39" t="s">
+      <c r="L114" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="M114" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="N114" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="55"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="48"/>
-      <c r="F115" s="48"/>
-      <c r="G115" s="48"/>
-      <c r="H115" s="48"/>
-      <c r="I115" s="48"/>
-      <c r="J115" s="48"/>
-      <c r="K115" s="48"/>
-      <c r="L115" s="48"/>
-      <c r="M115" s="48"/>
-      <c r="N115" s="48"/>
+    <row r="115" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="54"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="47"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="47"/>
+      <c r="K115" s="47"/>
+      <c r="L115" s="47"/>
+      <c r="M115" s="47"/>
+      <c r="N115" s="47"/>
     </row>
     <row r="116" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B116" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C116" s="54">
+      <c r="C116" s="53">
         <v>0</v>
       </c>
-      <c r="D116" s="54">
+      <c r="D116" s="53">
         <v>1</v>
       </c>
-      <c r="E116" s="54">
+      <c r="E116" s="53">
         <v>2</v>
       </c>
-      <c r="F116" s="54">
+      <c r="F116" s="53">
         <v>3</v>
       </c>
     </row>
@@ -7172,117 +7185,117 @@
       <c r="B117" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C117" s="53" t="s">
+      <c r="C117" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D117" s="53">
+      <c r="D117" s="52">
         <v>55</v>
       </c>
-      <c r="E117" s="53">
+      <c r="E117" s="52">
         <v>11</v>
       </c>
-      <c r="F117" s="53" t="s">
+      <c r="F117" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="56"/>
-      <c r="D118" s="56"/>
-      <c r="E118" s="56"/>
-      <c r="F118" s="56"/>
+    <row r="118" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="55"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55"/>
     </row>
     <row r="119" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="5">
         <v>4</v>
       </c>
-      <c r="B119" s="84" t="s">
+      <c r="B119" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="C119" s="39">
+      <c r="C119" s="38">
         <v>0</v>
       </c>
-      <c r="D119" s="39">
+      <c r="D119" s="38">
         <v>1</v>
       </c>
-      <c r="E119" s="39">
+      <c r="E119" s="38">
         <v>2</v>
       </c>
-      <c r="F119" s="39">
+      <c r="F119" s="38">
         <v>3</v>
       </c>
-      <c r="G119" s="39">
+      <c r="G119" s="38">
         <v>4</v>
       </c>
-      <c r="H119" s="39">
+      <c r="H119" s="38">
         <v>5</v>
       </c>
-      <c r="I119" s="39">
+      <c r="I119" s="38">
         <v>6</v>
       </c>
-      <c r="J119" s="39">
+      <c r="J119" s="38">
         <v>7</v>
       </c>
-      <c r="K119" s="39">
+      <c r="K119" s="38">
         <v>8</v>
       </c>
-      <c r="L119" s="39">
+      <c r="L119" s="38">
         <v>9</v>
       </c>
-      <c r="M119" s="39">
+      <c r="M119" s="38">
         <v>10</v>
       </c>
-      <c r="N119" s="39">
+      <c r="N119" s="38">
         <v>11</v>
       </c>
-      <c r="O119" s="39">
+      <c r="O119" s="38">
         <v>12</v>
       </c>
-      <c r="P119" s="39">
+      <c r="P119" s="38">
         <v>13</v>
       </c>
-      <c r="Q119" s="39">
+      <c r="Q119" s="38">
         <v>14</v>
       </c>
-      <c r="R119" s="39">
+      <c r="R119" s="38">
         <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="85" t="s">
+      <c r="B120" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="C120" s="38" t="s">
+      <c r="C120" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D120" s="38" t="s">
+      <c r="D120" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E120" s="38" t="s">
+      <c r="E120" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F120" s="38" t="s">
+      <c r="F120" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G120" s="38" t="s">
+      <c r="G120" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H120" s="176" t="s">
+      <c r="H120" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="I120" s="176"/>
-      <c r="J120" s="176"/>
-      <c r="K120" s="176"/>
-      <c r="L120" s="176" t="s">
+      <c r="I120" s="168"/>
+      <c r="J120" s="168"/>
+      <c r="K120" s="168"/>
+      <c r="L120" s="168" t="s">
         <v>154</v>
       </c>
-      <c r="M120" s="176"/>
-      <c r="N120" s="176"/>
-      <c r="O120" s="176"/>
-      <c r="P120" s="176" t="s">
+      <c r="M120" s="168"/>
+      <c r="N120" s="168"/>
+      <c r="O120" s="168"/>
+      <c r="P120" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="Q120" s="176"/>
-      <c r="R120" s="176"/>
+      <c r="Q120" s="168"/>
+      <c r="R120" s="168"/>
     </row>
     <row r="121" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C121" s="15"/>
@@ -7344,12 +7357,12 @@
       <c r="C123" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D123" s="177" t="s">
+      <c r="D123" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="177"/>
-      <c r="F123" s="177"/>
-      <c r="G123" s="177"/>
+      <c r="E123" s="169"/>
+      <c r="F123" s="169"/>
+      <c r="G123" s="169"/>
       <c r="H123" s="36" t="s">
         <v>70</v>
       </c>
@@ -7372,22 +7385,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="124" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="49"/>
-      <c r="D124" s="49"/>
-      <c r="E124" s="49"/>
-      <c r="F124" s="49"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="48"/>
-      <c r="L124" s="48"/>
-      <c r="M124" s="48"/>
-      <c r="N124" s="48"/>
+    <row r="124" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="48"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="47"/>
+      <c r="J124" s="47"/>
+      <c r="K124" s="47"/>
+      <c r="L124" s="47"/>
+      <c r="M124" s="47"/>
+      <c r="N124" s="47"/>
     </row>
     <row r="125" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="46" t="s">
+      <c r="B125" s="45" t="s">
         <v>150</v>
       </c>
       <c r="C125" s="13">
@@ -7420,536 +7433,536 @@
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="47"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="44"/>
-      <c r="F127" s="44"/>
-    </row>
-    <row r="128" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="46">
+    <row r="127" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="46"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="43"/>
+    </row>
+    <row r="128" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="45">
         <v>5</v>
       </c>
-      <c r="B128" s="84" t="s">
-        <v>276</v>
-      </c>
-      <c r="C128" s="102">
+      <c r="B128" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="C128" s="101">
         <v>0</v>
       </c>
-      <c r="D128" s="102">
+      <c r="D128" s="101">
         <v>1</v>
       </c>
-      <c r="E128" s="102">
+      <c r="E128" s="101">
         <v>2</v>
       </c>
-      <c r="F128" s="102">
+      <c r="F128" s="101">
         <v>3</v>
       </c>
-      <c r="G128" s="102">
+      <c r="G128" s="101">
         <v>4</v>
       </c>
-      <c r="H128" s="102">
+      <c r="H128" s="101">
         <v>5</v>
       </c>
-      <c r="I128" s="102">
+      <c r="I128" s="101">
         <v>6</v>
       </c>
-      <c r="J128" s="102">
+      <c r="J128" s="101">
         <v>7</v>
       </c>
-      <c r="K128" s="102">
+      <c r="K128" s="101">
         <v>8</v>
       </c>
-      <c r="L128" s="102">
+      <c r="L128" s="101">
         <v>9</v>
       </c>
-      <c r="M128" s="102">
+      <c r="M128" s="101">
         <v>10</v>
       </c>
-      <c r="N128" s="102">
+      <c r="N128" s="101">
         <v>11</v>
       </c>
-      <c r="O128" s="102">
+      <c r="O128" s="101">
         <v>12</v>
       </c>
-      <c r="P128" s="102">
+      <c r="P128" s="101">
         <v>13</v>
       </c>
-      <c r="Q128" s="102">
+      <c r="Q128" s="101">
         <v>14</v>
       </c>
-      <c r="R128" s="102">
+      <c r="R128" s="101">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:18" s="103" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="84" t="s">
+    <row r="129" spans="1:18" s="102" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="83" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" s="103" t="s">
+        <v>248</v>
+      </c>
+      <c r="D129" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="E129" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" s="103" t="s">
+        <v>251</v>
+      </c>
+      <c r="G129" s="103" t="s">
+        <v>252</v>
+      </c>
+      <c r="H129" s="178" t="s">
         <v>253</v>
       </c>
-      <c r="C129" s="104" t="s">
+      <c r="I129" s="178"/>
+      <c r="J129" s="178"/>
+      <c r="K129" s="178"/>
+      <c r="L129" s="178" t="s">
         <v>254</v>
       </c>
-      <c r="D129" s="104" t="s">
+      <c r="M129" s="178"/>
+      <c r="N129" s="178"/>
+      <c r="O129" s="178"/>
+      <c r="P129" s="101" t="s">
         <v>255</v>
       </c>
-      <c r="E129" s="104" t="s">
+      <c r="Q129" s="101" t="s">
         <v>256</v>
       </c>
-      <c r="F129" s="104" t="s">
+      <c r="R129" s="101" t="s">
         <v>257</v>
       </c>
-      <c r="G129" s="104" t="s">
+    </row>
+    <row r="130" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="104"/>
+      <c r="D130" s="104"/>
+      <c r="E130" s="104"/>
+      <c r="F130" s="104"/>
+      <c r="G130" s="104"/>
+      <c r="H130" s="104"/>
+      <c r="I130" s="104"/>
+      <c r="J130" s="104"/>
+      <c r="K130" s="104"/>
+      <c r="L130" s="104"/>
+      <c r="M130" s="104"/>
+      <c r="N130" s="104"/>
+      <c r="O130" s="104"/>
+      <c r="P130" s="104"/>
+      <c r="Q130" s="104"/>
+      <c r="R130" s="104"/>
+    </row>
+    <row r="131" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="101">
+        <v>16</v>
+      </c>
+      <c r="D131" s="101">
+        <v>17</v>
+      </c>
+      <c r="E131" s="101">
+        <v>18</v>
+      </c>
+      <c r="F131" s="101">
+        <v>19</v>
+      </c>
+      <c r="G131" s="101">
+        <v>20</v>
+      </c>
+      <c r="H131" s="101">
+        <v>21</v>
+      </c>
+      <c r="I131" s="101">
+        <v>22</v>
+      </c>
+      <c r="J131" s="101">
+        <v>23</v>
+      </c>
+      <c r="K131" s="101">
+        <v>24</v>
+      </c>
+      <c r="L131" s="101">
+        <v>25</v>
+      </c>
+      <c r="M131" s="101">
+        <v>26</v>
+      </c>
+      <c r="N131" s="101">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="105"/>
+      <c r="C132" s="179" t="s">
         <v>258</v>
       </c>
-      <c r="H129" s="162" t="s">
+      <c r="D132" s="180"/>
+      <c r="E132" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="I129" s="162"/>
-      <c r="J129" s="162"/>
-      <c r="K129" s="162"/>
-      <c r="L129" s="162" t="s">
+      <c r="F132" s="101">
+        <v>0</v>
+      </c>
+      <c r="G132" s="101">
+        <v>0</v>
+      </c>
+      <c r="H132" s="101" t="s">
         <v>260</v>
       </c>
-      <c r="M129" s="162"/>
-      <c r="N129" s="162"/>
-      <c r="O129" s="162"/>
-      <c r="P129" s="102" t="s">
+      <c r="I132" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="Q129" s="102" t="s">
+      <c r="J132" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="R129" s="102" t="s">
+      <c r="K132" s="101" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="105"/>
-      <c r="D130" s="105"/>
-      <c r="E130" s="105"/>
-      <c r="F130" s="105"/>
-      <c r="G130" s="105"/>
-      <c r="H130" s="105"/>
-      <c r="I130" s="105"/>
-      <c r="J130" s="105"/>
-      <c r="K130" s="105"/>
-      <c r="L130" s="105"/>
-      <c r="M130" s="105"/>
-      <c r="N130" s="105"/>
-      <c r="O130" s="105"/>
-      <c r="P130" s="105"/>
-      <c r="Q130" s="105"/>
-      <c r="R130" s="105"/>
-    </row>
-    <row r="131" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="102">
-        <v>16</v>
-      </c>
-      <c r="D131" s="102">
-        <v>17</v>
-      </c>
-      <c r="E131" s="102">
-        <v>18</v>
-      </c>
-      <c r="F131" s="102">
-        <v>19</v>
-      </c>
-      <c r="G131" s="102">
-        <v>20</v>
-      </c>
-      <c r="H131" s="102">
+      <c r="L132" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="M132" s="97" t="s">
+        <v>265</v>
+      </c>
+      <c r="N132" s="101" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" s="95" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="96"/>
+      <c r="D133" s="96"/>
+      <c r="E133" s="96"/>
+      <c r="F133" s="96"/>
+      <c r="G133" s="96"/>
+      <c r="H133" s="96"/>
+      <c r="I133" s="96"/>
+      <c r="J133" s="96"/>
+      <c r="K133" s="96"/>
+      <c r="L133" s="96"/>
+      <c r="M133" s="96"/>
+      <c r="N133" s="96"/>
+    </row>
+    <row r="134" spans="1:18" s="105" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="C134" s="101">
+        <v>0</v>
+      </c>
+      <c r="D134" s="101">
+        <v>1</v>
+      </c>
+      <c r="E134" s="101">
+        <v>2</v>
+      </c>
+      <c r="F134" s="101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" s="102" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="C135" s="103" t="s">
+        <v>248</v>
+      </c>
+      <c r="D135" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="E135" s="103">
+        <v>11</v>
+      </c>
+      <c r="F135" s="103" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" s="58" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="58">
+        <v>6</v>
+      </c>
+      <c r="B137" s="86" t="s">
+        <v>211</v>
+      </c>
+      <c r="C137" s="59">
+        <v>0</v>
+      </c>
+      <c r="D137" s="59">
+        <v>1</v>
+      </c>
+      <c r="E137" s="59">
+        <v>2</v>
+      </c>
+      <c r="F137" s="59">
+        <v>3</v>
+      </c>
+      <c r="G137" s="59">
+        <v>4</v>
+      </c>
+      <c r="H137" s="59">
+        <v>5</v>
+      </c>
+      <c r="I137" s="59">
+        <v>6</v>
+      </c>
+      <c r="J137" s="59">
+        <v>7</v>
+      </c>
+      <c r="K137" s="59">
+        <v>8</v>
+      </c>
+      <c r="L137" s="59">
+        <v>9</v>
+      </c>
+      <c r="M137" s="59">
+        <v>10</v>
+      </c>
+      <c r="N137" s="59">
+        <v>11</v>
+      </c>
+      <c r="O137" s="59">
+        <v>12</v>
+      </c>
+      <c r="P137" s="59">
+        <v>13</v>
+      </c>
+      <c r="Q137" s="59">
+        <v>14</v>
+      </c>
+      <c r="R137" s="59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C138" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="I131" s="102">
-        <v>22</v>
-      </c>
-      <c r="J131" s="102">
-        <v>23</v>
-      </c>
-      <c r="K131" s="102">
-        <v>24</v>
-      </c>
-      <c r="L131" s="102">
-        <v>25</v>
-      </c>
-      <c r="M131" s="102">
-        <v>26</v>
-      </c>
-      <c r="N131" s="102">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="106"/>
-      <c r="C132" s="163" t="s">
-        <v>264</v>
-      </c>
-      <c r="D132" s="164"/>
-      <c r="E132" s="102" t="s">
-        <v>265</v>
-      </c>
-      <c r="F132" s="102">
+      <c r="D138" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E138" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F138" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="G138" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H138" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I138" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="J138" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="K138" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="L138" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="M138" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="N138" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="O138" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="P138" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q138" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="R138" s="61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C139" s="62"/>
+      <c r="D139" s="62"/>
+      <c r="E139" s="62"/>
+      <c r="F139" s="62"/>
+      <c r="G139" s="62"/>
+      <c r="H139" s="62"/>
+      <c r="I139" s="62"/>
+      <c r="J139" s="62"/>
+      <c r="K139" s="62"/>
+      <c r="L139" s="62"/>
+      <c r="M139" s="62"/>
+      <c r="N139" s="62"/>
+    </row>
+    <row r="140" spans="1:18" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C140" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D140" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F140" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G140" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="H140" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I140" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="J140" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="K140" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="L140" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="M140" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="N140" s="61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C141" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="D141" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E141" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F141" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="G141" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H141" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I141" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J141" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="K141" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="L141" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="M141" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="N141" s="61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="C143" s="59">
         <v>0</v>
       </c>
-      <c r="G132" s="102">
-        <v>0</v>
-      </c>
-      <c r="H132" s="102" t="s">
-        <v>266</v>
-      </c>
-      <c r="I132" s="102" t="s">
-        <v>267</v>
-      </c>
-      <c r="J132" s="102" t="s">
-        <v>268</v>
-      </c>
-      <c r="K132" s="102" t="s">
-        <v>269</v>
-      </c>
-      <c r="L132" s="98" t="s">
-        <v>270</v>
-      </c>
-      <c r="M132" s="98" t="s">
-        <v>271</v>
-      </c>
-      <c r="N132" s="102" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="97"/>
-      <c r="D133" s="97"/>
-      <c r="E133" s="97"/>
-      <c r="F133" s="97"/>
-      <c r="G133" s="97"/>
-      <c r="H133" s="97"/>
-      <c r="I133" s="97"/>
-      <c r="J133" s="97"/>
-      <c r="K133" s="97"/>
-      <c r="L133" s="97"/>
-      <c r="M133" s="97"/>
-      <c r="N133" s="97"/>
-    </row>
-    <row r="134" spans="1:18" s="106" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="C134" s="102">
-        <v>0</v>
-      </c>
-      <c r="D134" s="102">
+      <c r="D143" s="59">
         <v>1</v>
       </c>
-      <c r="E134" s="102">
+      <c r="E143" s="59">
         <v>2</v>
       </c>
-      <c r="F134" s="102">
+      <c r="F143" s="59">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" s="103" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="103" t="s">
-        <v>168</v>
-      </c>
-      <c r="C135" s="104" t="s">
-        <v>254</v>
-      </c>
-      <c r="D135" s="104" t="s">
-        <v>255</v>
-      </c>
-      <c r="E135" s="104">
+      <c r="G143" s="59">
+        <v>4</v>
+      </c>
+      <c r="H143" s="59">
+        <v>5</v>
+      </c>
+      <c r="I143" s="59">
+        <v>6</v>
+      </c>
+      <c r="J143" s="59">
+        <v>7</v>
+      </c>
+      <c r="K143" s="59">
+        <v>8</v>
+      </c>
+      <c r="L143" s="59">
+        <v>9</v>
+      </c>
+      <c r="M143" s="59">
+        <v>10</v>
+      </c>
+      <c r="N143" s="59">
         <v>11</v>
       </c>
-      <c r="F135" s="104" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" s="59" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="59">
-        <v>6</v>
-      </c>
-      <c r="B137" s="87" t="s">
-        <v>217</v>
-      </c>
-      <c r="C137" s="60">
-        <v>0</v>
-      </c>
-      <c r="D137" s="60">
-        <v>1</v>
-      </c>
-      <c r="E137" s="60">
-        <v>2</v>
-      </c>
-      <c r="F137" s="60">
-        <v>3</v>
-      </c>
-      <c r="G137" s="60">
-        <v>4</v>
-      </c>
-      <c r="H137" s="60">
-        <v>5</v>
-      </c>
-      <c r="I137" s="60">
-        <v>6</v>
-      </c>
-      <c r="J137" s="60">
-        <v>7</v>
-      </c>
-      <c r="K137" s="60">
-        <v>8</v>
-      </c>
-      <c r="L137" s="60">
-        <v>9</v>
-      </c>
-      <c r="M137" s="60">
-        <v>10</v>
-      </c>
-      <c r="N137" s="60">
-        <v>11</v>
-      </c>
-      <c r="O137" s="60">
+      <c r="O143" s="59">
         <v>12</v>
       </c>
-      <c r="P137" s="60">
+      <c r="P143" s="59">
         <v>13</v>
       </c>
-      <c r="Q137" s="60">
+      <c r="Q143" s="59">
         <v>14</v>
       </c>
-      <c r="R137" s="60">
+      <c r="R143" s="59">
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:18" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="62" t="s">
+    <row r="144" spans="1:18" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C144" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D138" s="62" t="s">
+      <c r="D144" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="E138" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="F138" s="62" t="s">
+      <c r="E144" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="G138" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="H138" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="I138" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="J138" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="K138" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="L138" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="M138" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="N138" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="O138" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="P138" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q138" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="R138" s="62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="63"/>
-      <c r="D139" s="63"/>
-      <c r="E139" s="63"/>
-      <c r="F139" s="63"/>
-      <c r="G139" s="63"/>
-      <c r="H139" s="63"/>
-      <c r="I139" s="63"/>
-      <c r="J139" s="63"/>
-      <c r="K139" s="63"/>
-      <c r="L139" s="63"/>
-      <c r="M139" s="63"/>
-      <c r="N139" s="63"/>
-    </row>
-    <row r="140" spans="1:18" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C140" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D140" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="E140" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="F140" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="G140" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="H140" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="I140" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="J140" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="K140" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="L140" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="M140" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="N140" s="62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C141" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="D141" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="E141" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="F141" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="G141" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="H141" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="I141" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="J141" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="K141" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="L141" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="M141" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="N141" s="62" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="C143" s="60">
-        <v>0</v>
-      </c>
-      <c r="D143" s="60">
-        <v>1</v>
-      </c>
-      <c r="E143" s="60">
-        <v>2</v>
-      </c>
-      <c r="F143" s="60">
-        <v>3</v>
-      </c>
-      <c r="G143" s="60">
-        <v>4</v>
-      </c>
-      <c r="H143" s="60">
-        <v>5</v>
-      </c>
-      <c r="I143" s="60">
-        <v>6</v>
-      </c>
-      <c r="J143" s="60">
-        <v>7</v>
-      </c>
-      <c r="K143" s="60">
-        <v>8</v>
-      </c>
-      <c r="L143" s="60">
-        <v>9</v>
-      </c>
-      <c r="M143" s="60">
-        <v>10</v>
-      </c>
-      <c r="N143" s="60">
-        <v>11</v>
-      </c>
-      <c r="O143" s="60">
-        <v>12</v>
-      </c>
-      <c r="P143" s="60">
-        <v>13</v>
-      </c>
-      <c r="Q143" s="60">
-        <v>14</v>
-      </c>
-      <c r="R143" s="60">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D144" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="E144" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="F144" s="62" t="s">
+      <c r="F144" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="G144" s="173" t="s">
+      <c r="G144" s="161" t="s">
+        <v>193</v>
+      </c>
+      <c r="H144" s="162"/>
+      <c r="I144" s="162"/>
+      <c r="J144" s="163"/>
+      <c r="K144" s="161" t="s">
         <v>198</v>
       </c>
-      <c r="H144" s="174"/>
-      <c r="I144" s="174"/>
-      <c r="J144" s="175"/>
-      <c r="K144" s="173" t="s">
-        <v>204</v>
-      </c>
-      <c r="L144" s="174"/>
-      <c r="M144" s="174"/>
-      <c r="N144" s="175"/>
-      <c r="O144" s="62" t="s">
-        <v>199</v>
-      </c>
-      <c r="P144" s="62" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q144" s="62" t="s">
-        <v>199</v>
-      </c>
-      <c r="R144" s="60" t="s">
+      <c r="L144" s="162"/>
+      <c r="M144" s="162"/>
+      <c r="N144" s="163"/>
+      <c r="O144" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="P144" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q144" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="R144" s="59" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7961,6 +7974,21 @@
     <row r="150" s="28" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
     <mergeCell ref="G144:J144"/>
     <mergeCell ref="K144:N144"/>
     <mergeCell ref="D23:G23"/>
@@ -7977,21 +8005,6 @@
     <mergeCell ref="L111:O111"/>
     <mergeCell ref="P111:R111"/>
     <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="C132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8001,553 +8014,576 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H29"/>
+  <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.5" style="122" customWidth="1"/>
-    <col min="3" max="7" width="9" style="121"/>
-    <col min="8" max="8" width="15.875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="121" customWidth="1"/>
+    <col min="3" max="7" width="9" style="120"/>
+    <col min="8" max="8" width="15.875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="184" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="128" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="181" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="183"/>
+    </row>
+    <row r="4" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="122" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="123" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="123" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="F4" s="123" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="129" t="s">
+      <c r="G4" s="123" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="178" t="s">
+      <c r="H4" s="72">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="124" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" s="123" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" s="123" t="s">
+        <v>312</v>
+      </c>
+      <c r="G5" s="123" t="s">
+        <v>313</v>
+      </c>
+      <c r="H5" s="72">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="124" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" s="123" t="s">
+        <v>311</v>
+      </c>
+      <c r="F6" s="123" t="s">
+        <v>314</v>
+      </c>
+      <c r="G6" s="123" t="s">
+        <v>314</v>
+      </c>
+      <c r="H6" s="72">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="124" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="123" t="s">
+        <v>314</v>
+      </c>
+      <c r="G7" s="123" t="s">
+        <v>315</v>
+      </c>
+      <c r="H7" s="72">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="124" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="E8" s="123" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" s="123" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" s="123" t="s">
+        <v>316</v>
+      </c>
+      <c r="H8" s="72">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="124" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="123" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" s="123" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" s="123" t="s">
+        <v>316</v>
+      </c>
+      <c r="H9" s="72">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="138" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="124" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" s="123" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" s="123" t="s">
+        <v>314</v>
+      </c>
+      <c r="G10" s="123" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" s="72">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="190" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="188" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="189" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="189" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="189" t="s">
+        <v>314</v>
+      </c>
+      <c r="G11" s="189" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" s="142">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="124" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" s="123" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" s="123" t="s">
+        <v>318</v>
+      </c>
+      <c r="G12" s="123" t="s">
+        <v>319</v>
+      </c>
+      <c r="H12" s="72">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="124" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="123" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" s="123" t="s">
+        <v>317</v>
+      </c>
+      <c r="G13" s="123" t="s">
+        <v>318</v>
+      </c>
+      <c r="H13" s="72">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="124" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="E14" s="123" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14" s="123" t="s">
+        <v>320</v>
+      </c>
+      <c r="G14" s="123" t="s">
+        <v>320</v>
+      </c>
+      <c r="H14" s="72">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="185" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="187"/>
+    </row>
+    <row r="16" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="122" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="123" t="s">
+        <v>283</v>
+      </c>
+      <c r="E16" s="123" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" s="123" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="H16" s="72">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="124" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="123" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" s="123" t="s">
+        <v>321</v>
+      </c>
+      <c r="F17" s="123" t="s">
+        <v>322</v>
+      </c>
+      <c r="G17" s="129"/>
+      <c r="H17" s="72">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="124" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="123" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="123" t="s">
+        <v>321</v>
+      </c>
+      <c r="F18" s="123" t="s">
+        <v>322</v>
+      </c>
+      <c r="G18" s="129"/>
+      <c r="H18" s="72">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="185" t="s">
+        <v>302</v>
+      </c>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="187"/>
+    </row>
+    <row r="20" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="124" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="123" t="s">
+        <v>323</v>
+      </c>
+      <c r="E20" s="123" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="123" t="s">
+        <v>285</v>
+      </c>
+      <c r="G20" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" s="72">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="124" t="s">
+        <v>303</v>
+      </c>
+      <c r="C21" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" s="123" t="s">
+        <v>323</v>
+      </c>
+      <c r="E21" s="123" t="s">
+        <v>284</v>
+      </c>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="124" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="123" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" s="123" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="123" t="s">
+        <v>285</v>
+      </c>
+      <c r="G22" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="H22" s="72">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="124" t="s">
+        <v>305</v>
+      </c>
+      <c r="C23" s="123" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" s="123" t="s">
+        <v>284</v>
+      </c>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="124" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="180"/>
-    </row>
-    <row r="4" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="123" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="124" t="s">
-        <v>289</v>
-      </c>
-      <c r="E4" s="124" t="s">
-        <v>290</v>
-      </c>
-      <c r="F4" s="124" t="s">
-        <v>291</v>
-      </c>
-      <c r="G4" s="124" t="s">
-        <v>292</v>
-      </c>
-      <c r="H4" s="73">
+      <c r="C24" s="123" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="123" t="s">
+        <v>325</v>
+      </c>
+      <c r="E24" s="123" t="s">
+        <v>284</v>
+      </c>
+      <c r="F24" s="123" t="s">
+        <v>285</v>
+      </c>
+      <c r="G24" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="H24" s="72">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="125" t="s">
-        <v>293</v>
-      </c>
-      <c r="C5" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D5" s="124" t="s">
-        <v>316</v>
-      </c>
-      <c r="E5" s="124" t="s">
-        <v>317</v>
-      </c>
-      <c r="F5" s="124" t="s">
-        <v>318</v>
-      </c>
-      <c r="G5" s="124" t="s">
-        <v>319</v>
-      </c>
-      <c r="H5" s="73">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="125" t="s">
-        <v>294</v>
-      </c>
-      <c r="C6" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D6" s="124" t="s">
-        <v>316</v>
-      </c>
-      <c r="E6" s="124" t="s">
-        <v>317</v>
-      </c>
-      <c r="F6" s="124" t="s">
-        <v>320</v>
-      </c>
-      <c r="G6" s="124" t="s">
-        <v>320</v>
-      </c>
-      <c r="H6" s="73">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="125" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D7" s="124" t="s">
-        <v>316</v>
-      </c>
-      <c r="E7" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="F7" s="124" t="s">
-        <v>320</v>
-      </c>
-      <c r="G7" s="124" t="s">
+    <row r="25" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="124" t="s">
+        <v>307</v>
+      </c>
+      <c r="C25" s="123" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="123" t="s">
+        <v>325</v>
+      </c>
+      <c r="E25" s="123" t="s">
+        <v>284</v>
+      </c>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="181" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="182"/>
+      <c r="G26" s="182"/>
+      <c r="H26" s="183"/>
+    </row>
+    <row r="27" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="122" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D27" s="123" t="s">
+        <v>283</v>
+      </c>
+      <c r="E27" s="123" t="s">
+        <v>285</v>
+      </c>
+      <c r="F27" s="123" t="s">
         <v>321</v>
       </c>
-      <c r="H7" s="73">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="C8" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="124" t="s">
-        <v>316</v>
-      </c>
-      <c r="E8" s="124" t="s">
-        <v>317</v>
-      </c>
-      <c r="F8" s="124" t="s">
-        <v>322</v>
-      </c>
-      <c r="G8" s="124" t="s">
-        <v>322</v>
-      </c>
-      <c r="H8" s="73">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="125" t="s">
-        <v>297</v>
-      </c>
-      <c r="C9" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D9" s="124" t="s">
-        <v>316</v>
-      </c>
-      <c r="E9" s="124" t="s">
-        <v>317</v>
-      </c>
-      <c r="F9" s="124" t="s">
-        <v>318</v>
-      </c>
-      <c r="G9" s="124" t="s">
-        <v>322</v>
-      </c>
-      <c r="H9" s="73">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="125" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D10" s="124" t="s">
-        <v>316</v>
-      </c>
-      <c r="E10" s="124" t="s">
-        <v>317</v>
-      </c>
-      <c r="F10" s="124" t="s">
-        <v>320</v>
-      </c>
-      <c r="G10" s="124" t="s">
-        <v>323</v>
-      </c>
-      <c r="H10" s="73">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="125" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="124" t="s">
-        <v>316</v>
-      </c>
-      <c r="E11" s="124" t="s">
-        <v>317</v>
-      </c>
-      <c r="F11" s="124" t="s">
-        <v>324</v>
-      </c>
-      <c r="G11" s="124" t="s">
-        <v>325</v>
-      </c>
-      <c r="H11" s="73">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="125" t="s">
-        <v>300</v>
-      </c>
-      <c r="C12" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D12" s="124" t="s">
-        <v>316</v>
-      </c>
-      <c r="E12" s="124" t="s">
-        <v>317</v>
-      </c>
-      <c r="F12" s="124" t="s">
-        <v>323</v>
-      </c>
-      <c r="G12" s="124" t="s">
-        <v>324</v>
-      </c>
-      <c r="H12" s="73">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="125" t="s">
-        <v>301</v>
-      </c>
-      <c r="C13" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D13" s="124" t="s">
-        <v>316</v>
-      </c>
-      <c r="E13" s="124" t="s">
-        <v>317</v>
-      </c>
-      <c r="F13" s="124" t="s">
+      <c r="G27" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="H27" s="72">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="125" t="s">
+        <v>309</v>
+      </c>
+      <c r="C28" s="126" t="s">
+        <v>282</v>
+      </c>
+      <c r="D28" s="126" t="s">
+        <v>283</v>
+      </c>
+      <c r="E28" s="126" t="s">
+        <v>321</v>
+      </c>
+      <c r="F28" s="126" t="s">
         <v>326</v>
       </c>
-      <c r="G13" s="124" t="s">
-        <v>326</v>
-      </c>
-      <c r="H13" s="73">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="182" t="s">
-        <v>307</v>
-      </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="184"/>
-    </row>
-    <row r="15" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="123" t="s">
-        <v>302</v>
-      </c>
-      <c r="C15" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D15" s="124" t="s">
-        <v>289</v>
-      </c>
-      <c r="E15" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="F15" s="124" t="s">
-        <v>328</v>
-      </c>
-      <c r="G15" s="124" t="s">
-        <v>292</v>
-      </c>
-      <c r="H15" s="73">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="125" t="s">
-        <v>303</v>
-      </c>
-      <c r="C16" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D16" s="124" t="s">
-        <v>289</v>
-      </c>
-      <c r="E16" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="F16" s="124" t="s">
-        <v>328</v>
-      </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="73">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="125" t="s">
-        <v>304</v>
-      </c>
-      <c r="C17" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D17" s="124" t="s">
-        <v>289</v>
-      </c>
-      <c r="E17" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="F17" s="124" t="s">
-        <v>328</v>
-      </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="73">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="182" t="s">
-        <v>308</v>
-      </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="184"/>
-    </row>
-    <row r="19" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="125" t="s">
-        <v>305</v>
-      </c>
-      <c r="C19" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D19" s="124" t="s">
-        <v>329</v>
-      </c>
-      <c r="E19" s="124" t="s">
-        <v>290</v>
-      </c>
-      <c r="F19" s="124" t="s">
-        <v>291</v>
-      </c>
-      <c r="G19" s="124" t="s">
-        <v>292</v>
-      </c>
-      <c r="H19" s="73">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="125" t="s">
-        <v>309</v>
-      </c>
-      <c r="C20" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D20" s="124" t="s">
-        <v>329</v>
-      </c>
-      <c r="E20" s="124" t="s">
-        <v>290</v>
-      </c>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="125" t="s">
-        <v>310</v>
-      </c>
-      <c r="C21" s="124" t="s">
-        <v>329</v>
-      </c>
-      <c r="D21" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="E21" s="124" t="s">
-        <v>290</v>
-      </c>
-      <c r="F21" s="124" t="s">
-        <v>291</v>
-      </c>
-      <c r="G21" s="124" t="s">
-        <v>292</v>
-      </c>
-      <c r="H21" s="73">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="125" t="s">
-        <v>311</v>
-      </c>
-      <c r="C22" s="124" t="s">
-        <v>329</v>
-      </c>
-      <c r="D22" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="E22" s="124" t="s">
-        <v>290</v>
-      </c>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="125" t="s">
-        <v>312</v>
-      </c>
-      <c r="C23" s="124" t="s">
-        <v>330</v>
-      </c>
-      <c r="D23" s="124" t="s">
-        <v>331</v>
-      </c>
-      <c r="E23" s="124" t="s">
-        <v>290</v>
-      </c>
-      <c r="F23" s="124" t="s">
-        <v>291</v>
-      </c>
-      <c r="G23" s="124" t="s">
-        <v>292</v>
-      </c>
-      <c r="H23" s="73">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="125" t="s">
-        <v>313</v>
-      </c>
-      <c r="C24" s="124" t="s">
-        <v>330</v>
-      </c>
-      <c r="D24" s="124" t="s">
-        <v>331</v>
-      </c>
-      <c r="E24" s="124" t="s">
-        <v>290</v>
-      </c>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="178" t="s">
-        <v>314</v>
-      </c>
-      <c r="C25" s="179"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="180"/>
-    </row>
-    <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="123" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D26" s="124" t="s">
-        <v>289</v>
-      </c>
-      <c r="E26" s="124" t="s">
-        <v>291</v>
-      </c>
-      <c r="F26" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="G26" s="124" t="s">
-        <v>292</v>
-      </c>
-      <c r="H26" s="73">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="126" t="s">
-        <v>315</v>
-      </c>
-      <c r="C27" s="127" t="s">
-        <v>288</v>
-      </c>
-      <c r="D27" s="127" t="s">
-        <v>289</v>
-      </c>
-      <c r="E27" s="127" t="s">
-        <v>327</v>
-      </c>
-      <c r="F27" s="127" t="s">
-        <v>332</v>
-      </c>
-      <c r="G27" s="130"/>
-      <c r="H27" s="72">
+      <c r="G28" s="129"/>
+      <c r="H28" s="71">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B19:H19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/相关资料/01 通讯协议/航安LED灯具通讯协议.xlsx
+++ b/相关资料/01 通讯协议/航安LED灯具通讯协议.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.144.11\留言板文件\金肖雅\01 ASCMS 最新资料\01 通讯协议\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="驱动对照表" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="343">
   <si>
     <t>RMS1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,9 +520,6 @@
   </si>
   <si>
     <t>val2</t>
-  </si>
-  <si>
-    <t>Current_ratio1</t>
   </si>
   <si>
     <t>Current_ratio3</t>
@@ -1395,6 +1387,18 @@
   <si>
     <t>8寸警戒灯V2.0
 状态反馈指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current_ratio1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS_IIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shock2(次数)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1978,12 +1982,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2326,6 +2324,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2392,16 +2405,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2445,15 +2458,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2473,7 +2477,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2515,7 +2519,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2550,7 +2554,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2761,22 +2765,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="15.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="39" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
+      <c r="A2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3"/>
@@ -2803,451 +2807,451 @@
       <c r="C6"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
-      <c r="C7" s="159" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="156" t="s">
+      <c r="A7" s="33"/>
+      <c r="C7" s="162" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="159" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="159"/>
+      <c r="H7" s="160" t="s">
+        <v>200</v>
+      </c>
+      <c r="I7" s="157" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="163"/>
+      <c r="D8" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="161"/>
+      <c r="I8" s="158"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="74">
+        <v>1</v>
+      </c>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="76"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="74">
+        <v>2</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="76"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="74">
+        <v>3</v>
+      </c>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="76"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="129" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="130">
+        <v>4</v>
+      </c>
+      <c r="E12" s="130">
+        <v>5</v>
+      </c>
+      <c r="F12" s="86">
+        <v>1</v>
+      </c>
+      <c r="G12" s="92" t="s">
+        <v>327</v>
+      </c>
+      <c r="H12" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" s="141" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="136" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="151" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="154">
+        <v>5</v>
+      </c>
+      <c r="E13" s="154">
+        <v>6</v>
+      </c>
+      <c r="F13" s="86">
+        <v>1</v>
+      </c>
+      <c r="G13" s="92" t="s">
+        <v>329</v>
+      </c>
+      <c r="H13" s="88" t="s">
+        <v>330</v>
+      </c>
+      <c r="I13" s="133" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="131" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="152"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="86">
+        <v>1</v>
+      </c>
+      <c r="G14" s="86">
+        <v>3</v>
+      </c>
+      <c r="H14" s="132" t="s">
+        <v>204</v>
+      </c>
+      <c r="I14" s="133" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="137" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="153"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="138">
+        <v>1</v>
+      </c>
+      <c r="G15" s="138">
+        <v>2</v>
+      </c>
+      <c r="H15" s="139" t="s">
+        <v>204</v>
+      </c>
+      <c r="I15" s="140" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="74">
+        <v>6</v>
+      </c>
+      <c r="E16" s="74">
+        <v>7</v>
+      </c>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="76"/>
+      <c r="K16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="74">
+        <v>7</v>
+      </c>
+      <c r="E17" s="74">
+        <v>8</v>
+      </c>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="18" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="151" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="154">
+        <v>8</v>
+      </c>
+      <c r="E18" s="154">
+        <v>0</v>
+      </c>
+      <c r="F18" s="74">
+        <v>1</v>
+      </c>
+      <c r="G18" s="74">
+        <v>3</v>
+      </c>
+      <c r="H18" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="I18" s="70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" s="107" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="153"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="116">
+        <v>1</v>
+      </c>
+      <c r="G19" s="116">
+        <v>4</v>
+      </c>
+      <c r="H19" s="117" t="s">
+        <v>273</v>
+      </c>
+      <c r="I19" s="106" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="151" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156" t="s">
+      <c r="D20" s="154">
+        <v>8</v>
+      </c>
+      <c r="E20" s="154">
+        <v>4</v>
+      </c>
+      <c r="F20" s="74">
+        <v>1</v>
+      </c>
+      <c r="G20" s="74">
+        <v>1</v>
+      </c>
+      <c r="H20" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" s="136" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="153"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="138">
+        <v>1</v>
+      </c>
+      <c r="G21" s="138">
+        <v>2</v>
+      </c>
+      <c r="H21" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" s="140" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" s="107" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="105">
+        <v>9</v>
+      </c>
+      <c r="E22" s="105">
+        <v>9</v>
+      </c>
+      <c r="F22" s="105">
+        <v>2</v>
+      </c>
+      <c r="G22" s="105">
+        <v>0</v>
+      </c>
+      <c r="H22" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="G7" s="156"/>
-      <c r="H7" s="157" t="s">
+      <c r="I22" s="128" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="74">
+        <v>10</v>
+      </c>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="76"/>
+    </row>
+    <row r="24" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="74">
+        <v>11</v>
+      </c>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="76"/>
+    </row>
+    <row r="25" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="151" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="154">
+        <v>12</v>
+      </c>
+      <c r="E25" s="154">
+        <v>0</v>
+      </c>
+      <c r="F25" s="74">
+        <v>1</v>
+      </c>
+      <c r="G25" s="74">
+        <v>3</v>
+      </c>
+      <c r="H25" s="88" t="s">
+        <v>202</v>
+      </c>
+      <c r="I25" s="90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="153"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="85">
+        <v>1</v>
+      </c>
+      <c r="G26" s="85">
+        <v>2</v>
+      </c>
+      <c r="H26" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="I7" s="154" t="s">
+      <c r="I26" s="90" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="74">
+        <v>12</v>
+      </c>
+      <c r="E27" s="74">
+        <v>3</v>
+      </c>
+      <c r="F27" s="74">
+        <v>1</v>
+      </c>
+      <c r="G27" s="74">
+        <v>0</v>
+      </c>
+      <c r="H27" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="I27" s="90" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="79">
+        <v>13</v>
+      </c>
+      <c r="E28" s="79">
+        <v>2</v>
+      </c>
+      <c r="F28" s="79">
+        <v>1</v>
+      </c>
+      <c r="G28" s="79">
+        <v>0</v>
+      </c>
+      <c r="H28" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" s="69" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="160"/>
-      <c r="D8" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="158"/>
-      <c r="I8" s="155"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="76">
-        <v>1</v>
-      </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="78"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="76">
-        <v>2</v>
-      </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="78"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="76">
-        <v>3</v>
-      </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="78"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="132">
-        <v>4</v>
-      </c>
-      <c r="E12" s="132">
-        <v>5</v>
-      </c>
-      <c r="F12" s="88">
-        <v>1</v>
-      </c>
-      <c r="G12" s="94" t="s">
-        <v>328</v>
-      </c>
-      <c r="H12" s="90" t="s">
-        <v>212</v>
-      </c>
-      <c r="I12" s="143" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="138" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="148" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="151">
-        <v>5</v>
-      </c>
-      <c r="E13" s="151">
-        <v>6</v>
-      </c>
-      <c r="F13" s="88">
-        <v>1</v>
-      </c>
-      <c r="G13" s="94" t="s">
-        <v>330</v>
-      </c>
-      <c r="H13" s="90" t="s">
-        <v>331</v>
-      </c>
-      <c r="I13" s="135" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="133" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="149"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="88">
-        <v>1</v>
-      </c>
-      <c r="G14" s="88">
-        <v>3</v>
-      </c>
-      <c r="H14" s="134" t="s">
-        <v>205</v>
-      </c>
-      <c r="I14" s="135" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="139" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="150"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="140">
-        <v>1</v>
-      </c>
-      <c r="G15" s="140">
-        <v>2</v>
-      </c>
-      <c r="H15" s="141" t="s">
-        <v>205</v>
-      </c>
-      <c r="I15" s="142" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="76">
-        <v>6</v>
-      </c>
-      <c r="E16" s="76">
-        <v>7</v>
-      </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="78"/>
-      <c r="K16" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="76">
-        <v>7</v>
-      </c>
-      <c r="E17" s="76">
-        <v>8</v>
-      </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="78"/>
-    </row>
-    <row r="18" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="151">
-        <v>8</v>
-      </c>
-      <c r="E18" s="151">
-        <v>0</v>
-      </c>
-      <c r="F18" s="76">
-        <v>1</v>
-      </c>
-      <c r="G18" s="76">
-        <v>3</v>
-      </c>
-      <c r="H18" s="90" t="s">
-        <v>202</v>
-      </c>
-      <c r="I18" s="72" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" s="109" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="150"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="118">
-        <v>1</v>
-      </c>
-      <c r="G19" s="118">
-        <v>4</v>
-      </c>
-      <c r="H19" s="119" t="s">
-        <v>274</v>
-      </c>
-      <c r="I19" s="108" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="148" t="s">
-        <v>200</v>
-      </c>
-      <c r="D20" s="151">
-        <v>8</v>
-      </c>
-      <c r="E20" s="151">
-        <v>4</v>
-      </c>
-      <c r="F20" s="76">
-        <v>1</v>
-      </c>
-      <c r="G20" s="76">
-        <v>1</v>
-      </c>
-      <c r="H20" s="90" t="s">
-        <v>206</v>
-      </c>
-      <c r="I20" s="72" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" s="138" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="150"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="140">
-        <v>1</v>
-      </c>
-      <c r="G21" s="140">
-        <v>2</v>
-      </c>
-      <c r="H21" s="141" t="s">
-        <v>202</v>
-      </c>
-      <c r="I21" s="142" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" s="109" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="106" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="107">
-        <v>9</v>
-      </c>
-      <c r="E22" s="107">
-        <v>9</v>
-      </c>
-      <c r="F22" s="107">
-        <v>2</v>
-      </c>
-      <c r="G22" s="107">
-        <v>0</v>
-      </c>
-      <c r="H22" s="107" t="s">
-        <v>205</v>
-      </c>
-      <c r="I22" s="130" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="73" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" s="76">
-        <v>10</v>
-      </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="78"/>
-    </row>
-    <row r="24" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="76">
-        <v>11</v>
-      </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="78"/>
-    </row>
-    <row r="25" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="148" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="151">
-        <v>12</v>
-      </c>
-      <c r="E25" s="151">
-        <v>0</v>
-      </c>
-      <c r="F25" s="76">
-        <v>1</v>
-      </c>
-      <c r="G25" s="76">
-        <v>3</v>
-      </c>
-      <c r="H25" s="90" t="s">
-        <v>203</v>
-      </c>
-      <c r="I25" s="92" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="150"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="87">
-        <v>1</v>
-      </c>
-      <c r="G26" s="87">
-        <v>2</v>
-      </c>
-      <c r="H26" s="90" t="s">
-        <v>202</v>
-      </c>
-      <c r="I26" s="92" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="73" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="76">
-        <v>12</v>
-      </c>
-      <c r="E27" s="76">
-        <v>3</v>
-      </c>
-      <c r="F27" s="76">
-        <v>1</v>
-      </c>
-      <c r="G27" s="76">
-        <v>0</v>
-      </c>
-      <c r="H27" s="90" t="s">
-        <v>202</v>
-      </c>
-      <c r="I27" s="92" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" s="81">
-        <v>13</v>
-      </c>
-      <c r="E28" s="81">
-        <v>2</v>
-      </c>
-      <c r="F28" s="81">
-        <v>1</v>
-      </c>
-      <c r="G28" s="81">
-        <v>0</v>
-      </c>
-      <c r="H28" s="91" t="s">
-        <v>202</v>
-      </c>
-      <c r="I28" s="71" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="36" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="93" t="s">
-        <v>218</v>
+      <c r="C38" s="91" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="93" t="s">
-        <v>216</v>
+      <c r="C39" s="91" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="134" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="136" t="s">
+    <row r="43" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="135"/>
+    </row>
+    <row r="44" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="136"/>
+      <c r="D44" s="37" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="137"/>
-    </row>
-    <row r="44" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="138"/>
-      <c r="D44" s="39" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="45" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3286,8 +3290,8 @@
   </sheetPr>
   <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3295,7 +3299,7 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="17.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="1" bestFit="1" customWidth="1"/>
@@ -3313,7 +3317,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="80" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="9">
@@ -3507,7 +3511,7 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="18"/>
@@ -3528,7 +3532,7 @@
       <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="9">
@@ -3772,14 +3776,14 @@
       <c r="L14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="164" t="s">
+      <c r="M14" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="164"/>
-      <c r="O14" s="164"/>
-      <c r="P14" s="164"/>
+      <c r="N14" s="167"/>
+      <c r="O14" s="167"/>
+      <c r="P14" s="167"/>
       <c r="Q14" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>75</v>
@@ -3819,17 +3823,17 @@
       <c r="L15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="164" t="s">
+      <c r="M15" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="164"/>
+      <c r="N15" s="167"/>
+      <c r="O15" s="167"/>
+      <c r="P15" s="167"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
     <row r="17" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="47" t="s">
         <v>122</v>
       </c>
       <c r="C17" s="18"/>
@@ -3850,7 +3854,7 @@
       <c r="R17" s="18"/>
     </row>
     <row r="18" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="48" t="s">
         <v>121</v>
       </c>
       <c r="C18" s="9">
@@ -4067,14 +4071,14 @@
       <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="164" t="s">
+      <c r="D23" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="110" t="s">
-        <v>277</v>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="108" t="s">
+        <v>276</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>63</v>
@@ -4114,12 +4118,12 @@
       <c r="C24" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="165" t="s">
+      <c r="D24" s="168" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="167"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="170"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -4132,652 +4136,644 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
     </row>
-    <row r="25" spans="2:18" s="98" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="49" t="s">
+    <row r="25" spans="2:18" s="96" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-    </row>
-    <row r="27" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="C27" s="110">
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+    </row>
+    <row r="27" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" s="108">
         <v>0</v>
       </c>
-      <c r="D27" s="110">
+      <c r="D27" s="108">
         <v>1</v>
       </c>
-      <c r="E27" s="110">
+      <c r="E27" s="108">
         <v>2</v>
       </c>
-      <c r="F27" s="110">
+      <c r="F27" s="108">
         <v>3</v>
       </c>
-      <c r="G27" s="110">
+      <c r="G27" s="108">
         <v>4</v>
       </c>
-      <c r="H27" s="110">
+      <c r="H27" s="108">
         <v>5</v>
       </c>
-      <c r="I27" s="110">
+      <c r="I27" s="108">
         <v>6</v>
       </c>
-      <c r="J27" s="110">
+      <c r="J27" s="108">
         <v>7</v>
       </c>
-      <c r="K27" s="110">
+      <c r="K27" s="108">
         <v>8</v>
       </c>
-      <c r="L27" s="110">
+      <c r="L27" s="108">
         <v>9</v>
       </c>
-      <c r="M27" s="110">
+      <c r="M27" s="108">
         <v>10</v>
       </c>
-      <c r="N27" s="110">
+      <c r="N27" s="108">
         <v>11</v>
       </c>
-      <c r="O27" s="110">
+      <c r="O27" s="108">
         <v>12</v>
       </c>
-      <c r="P27" s="110">
+      <c r="P27" s="108">
         <v>13</v>
       </c>
-      <c r="Q27" s="110">
+      <c r="Q27" s="108">
         <v>14</v>
       </c>
-      <c r="R27" s="110">
+      <c r="R27" s="108">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="65" t="s">
+    <row r="28" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="110" t="s">
+      <c r="D28" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="F28" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="110" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="110" t="s">
+      <c r="K29" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="M29" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="O29" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="P29" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q29" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="R29" s="108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="109"/>
+      <c r="R30" s="109"/>
+    </row>
+    <row r="31" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="108">
+        <v>16</v>
+      </c>
+      <c r="D31" s="108">
+        <v>17</v>
+      </c>
+      <c r="E31" s="108">
+        <v>18</v>
+      </c>
+      <c r="F31" s="108">
+        <v>19</v>
+      </c>
+      <c r="G31" s="108">
+        <v>20</v>
+      </c>
+      <c r="H31" s="108">
+        <v>21</v>
+      </c>
+      <c r="I31" s="108">
+        <v>22</v>
+      </c>
+      <c r="J31" s="108">
+        <v>23</v>
+      </c>
+      <c r="K31" s="108">
+        <v>24</v>
+      </c>
+      <c r="L31" s="108">
+        <v>25</v>
+      </c>
+      <c r="M31" s="108">
+        <v>26</v>
+      </c>
+      <c r="N31" s="108">
+        <v>27</v>
+      </c>
+      <c r="O31" s="108">
+        <v>28</v>
+      </c>
+      <c r="P31" s="108">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="108">
+        <v>30</v>
+      </c>
+      <c r="R31" s="108">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="176" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="176"/>
+      <c r="F32" s="176"/>
+      <c r="G32" s="176"/>
+      <c r="H32" s="108" t="s">
+        <v>276</v>
+      </c>
+      <c r="I32" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="108" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="173" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="108"/>
+    </row>
+    <row r="34" spans="2:18" s="97" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="98"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="98"/>
+    </row>
+    <row r="35" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+    </row>
+    <row r="36" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="149">
         <v>0</v>
       </c>
-      <c r="I28" s="110" t="s">
+      <c r="D36" s="149">
+        <v>1</v>
+      </c>
+      <c r="E36" s="149">
         <v>2</v>
       </c>
-      <c r="J28" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="K28" s="110" t="s">
+      <c r="F36" s="149">
+        <v>3</v>
+      </c>
+      <c r="G36" s="149">
         <v>4</v>
       </c>
-      <c r="L28" s="110" t="s">
+      <c r="H36" s="149">
+        <v>5</v>
+      </c>
+      <c r="I36" s="149">
+        <v>6</v>
+      </c>
+      <c r="J36" s="149">
         <v>7</v>
       </c>
-      <c r="M28" s="110" t="s">
+      <c r="K36" s="149">
+        <v>8</v>
+      </c>
+      <c r="L36" s="149">
         <v>9</v>
       </c>
-      <c r="N28" s="110" t="s">
+      <c r="M36" s="149">
+        <v>10</v>
+      </c>
+      <c r="N36" s="149">
+        <v>11</v>
+      </c>
+      <c r="O36" s="149">
         <v>12</v>
       </c>
-      <c r="O28" s="110" t="s">
+      <c r="P36" s="149">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="149">
+        <v>14</v>
+      </c>
+      <c r="R36" s="149">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="149" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="149" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="149" t="s">
+        <v>127</v>
+      </c>
+      <c r="J37" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="149" t="s">
+        <v>140</v>
+      </c>
+      <c r="L37" s="149" t="s">
+        <v>340</v>
+      </c>
+      <c r="M37" s="149" t="s">
+        <v>128</v>
+      </c>
+      <c r="N37" s="149" t="s">
+        <v>138</v>
+      </c>
+      <c r="O37" s="149" t="s">
+        <v>139</v>
+      </c>
+      <c r="P37" s="149" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q37" s="149" t="s">
+        <v>341</v>
+      </c>
+      <c r="R37" s="149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="149"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" s="149" t="s">
+        <v>131</v>
+      </c>
+      <c r="J38" s="149" t="s">
+        <v>99</v>
+      </c>
+      <c r="K38" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="L38" s="149" t="s">
+        <v>132</v>
+      </c>
+      <c r="M38" s="149" t="s">
+        <v>132</v>
+      </c>
+      <c r="N38" s="149" t="s">
+        <v>90</v>
+      </c>
+      <c r="O38" s="149" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q38" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="R38" s="149" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="150"/>
+      <c r="O39" s="150"/>
+      <c r="P39" s="150"/>
+      <c r="Q39" s="150"/>
+      <c r="R39" s="150"/>
+    </row>
+    <row r="40" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="149">
         <v>16</v>
       </c>
-      <c r="P28" s="110" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q28" s="110" t="s">
+      <c r="D40" s="149">
+        <v>17</v>
+      </c>
+      <c r="E40" s="149">
+        <v>18</v>
+      </c>
+      <c r="F40" s="149">
         <v>19</v>
       </c>
-      <c r="R28" s="110" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" s="110" t="s">
-        <v>268</v>
-      </c>
-      <c r="K29" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="L29" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="M29" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="N29" s="110" t="s">
+      <c r="G40" s="149">
+        <v>20</v>
+      </c>
+      <c r="H40" s="149">
+        <v>21</v>
+      </c>
+      <c r="I40" s="149">
+        <v>22</v>
+      </c>
+      <c r="J40" s="149">
+        <v>23</v>
+      </c>
+      <c r="K40" s="149">
+        <v>24</v>
+      </c>
+      <c r="L40" s="149">
+        <v>25</v>
+      </c>
+      <c r="M40" s="149">
+        <v>26</v>
+      </c>
+      <c r="N40" s="149">
+        <v>27</v>
+      </c>
+      <c r="O40" s="149">
+        <v>28</v>
+      </c>
+      <c r="P40" s="149">
+        <v>29</v>
+      </c>
+      <c r="Q40" s="149">
+        <v>30</v>
+      </c>
+      <c r="R40" s="149">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="149" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="149" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="149" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="149" t="s">
+        <v>342</v>
+      </c>
+      <c r="H41" s="149" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="173" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="174"/>
+      <c r="K41" s="174"/>
+      <c r="L41" s="175"/>
+      <c r="M41" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="N41" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="O41" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="P41" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q41" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="R41" s="149" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="149" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="149" t="s">
         <v>93</v>
       </c>
-      <c r="O29" s="110" t="s">
+      <c r="E42" s="149" t="s">
         <v>93</v>
       </c>
-      <c r="P29" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q29" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="R29" s="110" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
-    </row>
-    <row r="31" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="110">
-        <v>16</v>
-      </c>
-      <c r="D31" s="110">
-        <v>17</v>
-      </c>
-      <c r="E31" s="110">
-        <v>18</v>
-      </c>
-      <c r="F31" s="110">
-        <v>19</v>
-      </c>
-      <c r="G31" s="110">
-        <v>20</v>
-      </c>
-      <c r="H31" s="110">
-        <v>21</v>
-      </c>
-      <c r="I31" s="110">
-        <v>22</v>
-      </c>
-      <c r="J31" s="110">
-        <v>23</v>
-      </c>
-      <c r="K31" s="110">
-        <v>24</v>
-      </c>
-      <c r="L31" s="110">
-        <v>25</v>
-      </c>
-      <c r="M31" s="110">
-        <v>26</v>
-      </c>
-      <c r="N31" s="110">
-        <v>27</v>
-      </c>
-      <c r="O31" s="110">
-        <v>28</v>
-      </c>
-      <c r="P31" s="110">
-        <v>29</v>
-      </c>
-      <c r="Q31" s="110">
-        <v>30</v>
-      </c>
-      <c r="R31" s="110">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="170" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="110" t="s">
-        <v>277</v>
-      </c>
-      <c r="I32" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="J32" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="O32" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="P32" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q32" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="110" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="110" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="171" t="s">
+      <c r="F42" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="110"/>
-    </row>
-    <row r="34" spans="2:18" s="99" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
-      <c r="O34" s="100"/>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="100"/>
-      <c r="R34" s="100"/>
-    </row>
-    <row r="35" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-    </row>
-    <row r="36" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="30">
-        <v>0</v>
-      </c>
-      <c r="D36" s="30">
-        <v>1</v>
-      </c>
-      <c r="E36" s="30">
-        <v>2</v>
-      </c>
-      <c r="F36" s="30">
-        <v>3</v>
-      </c>
-      <c r="G36" s="30">
-        <v>4</v>
-      </c>
-      <c r="H36" s="30">
-        <v>5</v>
-      </c>
-      <c r="I36" s="30">
-        <v>6</v>
-      </c>
-      <c r="J36" s="30">
-        <v>7</v>
-      </c>
-      <c r="K36" s="30">
-        <v>8</v>
-      </c>
-      <c r="L36" s="30">
-        <v>9</v>
-      </c>
-      <c r="M36" s="30">
-        <v>10</v>
-      </c>
-      <c r="N36" s="30">
-        <v>11</v>
-      </c>
-      <c r="O36" s="30">
-        <v>12</v>
-      </c>
-      <c r="P36" s="30">
-        <v>13</v>
-      </c>
-      <c r="Q36" s="30">
-        <v>14</v>
-      </c>
-      <c r="R36" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="I37" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="L37" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="M37" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="N37" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="O37" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="P37" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q37" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="R37" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="O38" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="P38" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q38" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="R38" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-    </row>
-    <row r="40" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="30">
-        <v>16</v>
-      </c>
-      <c r="D40" s="30">
-        <v>17</v>
-      </c>
-      <c r="E40" s="30">
-        <v>18</v>
-      </c>
-      <c r="F40" s="30">
-        <v>19</v>
-      </c>
-      <c r="G40" s="30">
-        <v>20</v>
-      </c>
-      <c r="H40" s="30">
-        <v>21</v>
-      </c>
-      <c r="I40" s="30">
-        <v>22</v>
-      </c>
-      <c r="J40" s="30">
-        <v>23</v>
-      </c>
-      <c r="K40" s="30">
-        <v>24</v>
-      </c>
-      <c r="L40" s="30">
-        <v>25</v>
-      </c>
-      <c r="M40" s="30">
-        <v>26</v>
-      </c>
-      <c r="N40" s="30">
-        <v>27</v>
-      </c>
-      <c r="O40" s="30">
-        <v>28</v>
-      </c>
-      <c r="P40" s="30">
-        <v>29</v>
-      </c>
-      <c r="Q40" s="30">
-        <v>30</v>
-      </c>
-      <c r="R40" s="30">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" s="165" t="s">
-        <v>31</v>
-      </c>
-      <c r="M41" s="166"/>
-      <c r="N41" s="166"/>
-      <c r="O41" s="167"/>
-      <c r="P41" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q41" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="R41" s="30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="30" t="s">
+      <c r="G42" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="H42" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="I42" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="J42" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="K42" s="30" t="s">
+      <c r="I42" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="165" t="s">
-        <v>95</v>
-      </c>
-      <c r="M42" s="166"/>
-      <c r="N42" s="166"/>
-      <c r="O42" s="167"/>
-      <c r="P42" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
+      <c r="J42" s="174"/>
+      <c r="K42" s="174"/>
+      <c r="L42" s="175"/>
+      <c r="M42" s="149"/>
+      <c r="N42" s="149"/>
+      <c r="O42" s="149"/>
+      <c r="P42" s="149"/>
+      <c r="Q42" s="149"/>
+      <c r="R42" s="149"/>
     </row>
     <row r="43" spans="2:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C43" s="29"/>
@@ -4798,8 +4794,8 @@
       <c r="R43" s="29"/>
     </row>
     <row r="44" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="49" t="s">
-        <v>142</v>
+      <c r="B44" s="47" t="s">
+        <v>141</v>
       </c>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
@@ -4819,55 +4815,55 @@
       <c r="R44" s="26"/>
     </row>
     <row r="45" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C45" s="30">
         <v>0</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="30">
         <v>1</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="30">
         <v>2</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="30">
         <v>3</v>
       </c>
-      <c r="G45" s="32">
+      <c r="G45" s="30">
         <v>4</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="30">
         <v>5</v>
       </c>
-      <c r="I45" s="32">
+      <c r="I45" s="30">
         <v>6</v>
       </c>
-      <c r="J45" s="32">
+      <c r="J45" s="30">
         <v>7</v>
       </c>
-      <c r="K45" s="32">
+      <c r="K45" s="30">
         <v>8</v>
       </c>
-      <c r="L45" s="32">
+      <c r="L45" s="30">
         <v>9</v>
       </c>
-      <c r="M45" s="32">
+      <c r="M45" s="30">
         <v>10</v>
       </c>
-      <c r="N45" s="32">
+      <c r="N45" s="30">
         <v>11</v>
       </c>
-      <c r="O45" s="32">
+      <c r="O45" s="30">
         <v>12</v>
       </c>
-      <c r="P45" s="32">
+      <c r="P45" s="30">
         <v>13</v>
       </c>
-      <c r="Q45" s="32">
+      <c r="Q45" s="30">
         <v>14</v>
       </c>
-      <c r="R45" s="32">
+      <c r="R45" s="30">
         <v>15</v>
       </c>
     </row>
@@ -4875,7 +4871,7 @@
       <c r="C46" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="25" t="s">
@@ -4884,40 +4880,40 @@
       <c r="F46" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G46" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="H46" s="32" t="s">
+      <c r="G46" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H46" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="32" t="s">
+      <c r="J46" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="K46" s="32" t="s">
+      <c r="K46" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="32" t="s">
+      <c r="L46" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M46" s="32" t="s">
+      <c r="M46" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="N46" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="O46" s="32" t="s">
+      <c r="N46" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="O46" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="P46" s="32" t="s">
+      <c r="P46" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="Q46" s="32" t="s">
+      <c r="Q46" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R46" s="32" t="s">
+      <c r="R46" s="30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4925,30 +4921,30 @@
       <c r="B47" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32" t="s">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="I47" s="32" t="s">
+      <c r="I47" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="J47" s="32" t="s">
+      <c r="J47" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="K47" s="32" t="s">
+      <c r="K47" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="L47" s="32" t="s">
+      <c r="L47" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="M47" s="32" t="s">
+      <c r="M47" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="N47" s="32" t="s">
+      <c r="N47" s="30" t="s">
         <v>90</v>
       </c>
       <c r="O47" s="27" t="s">
@@ -4957,122 +4953,122 @@
       <c r="P47" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="Q47" s="32" t="s">
+      <c r="Q47" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="R47" s="32" t="s">
+      <c r="R47" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
     </row>
     <row r="49" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="32">
+      <c r="C49" s="30">
         <v>16</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="30">
         <v>17</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="30">
         <v>18</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="30">
         <v>19</v>
       </c>
-      <c r="G49" s="32">
+      <c r="G49" s="30">
         <v>20</v>
       </c>
-      <c r="H49" s="32">
+      <c r="H49" s="30">
         <v>21</v>
       </c>
-      <c r="I49" s="32">
+      <c r="I49" s="30">
         <v>22</v>
       </c>
-      <c r="J49" s="32">
+      <c r="J49" s="30">
         <v>23</v>
       </c>
-      <c r="K49" s="32">
+      <c r="K49" s="30">
         <v>24</v>
       </c>
-      <c r="L49" s="32">
+      <c r="L49" s="30">
         <v>25</v>
       </c>
-      <c r="M49" s="32">
+      <c r="M49" s="30">
         <v>26</v>
       </c>
-      <c r="N49" s="32">
+      <c r="N49" s="30">
         <v>27</v>
       </c>
-      <c r="O49" s="32">
+      <c r="O49" s="30">
         <v>28</v>
       </c>
-      <c r="P49" s="32">
+      <c r="P49" s="30">
         <v>29</v>
       </c>
-      <c r="Q49" s="32">
+      <c r="Q49" s="30">
         <v>30</v>
       </c>
-      <c r="R49" s="32">
+      <c r="R49" s="30">
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="F50" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="32" t="s">
+      <c r="G50" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="32" t="s">
+      <c r="H50" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="32" t="s">
+      <c r="I50" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J50" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="K50" s="32" t="s">
+      <c r="J50" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="L50" s="32" t="s">
+      <c r="K50" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="L50" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="164" t="s">
+      <c r="M50" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="N50" s="164"/>
-      <c r="O50" s="164"/>
-      <c r="P50" s="164"/>
-      <c r="Q50" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="R50" s="32" t="s">
+      <c r="N50" s="167"/>
+      <c r="O50" s="167"/>
+      <c r="P50" s="167"/>
+      <c r="Q50" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="R50" s="30" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5080,51 +5076,51 @@
       <c r="B51" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="E51" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="F51" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="G51" s="32" t="s">
+      <c r="G51" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H51" s="32" t="s">
+      <c r="H51" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="I51" s="32" t="s">
+      <c r="I51" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="J51" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="K51" s="32" t="s">
+      <c r="J51" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="K51" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="L51" s="32" t="s">
+      <c r="L51" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="M51" s="164" t="s">
+      <c r="M51" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="N51" s="164"/>
-      <c r="O51" s="164"/>
-      <c r="P51" s="164"/>
-      <c r="Q51" s="32" t="s">
+      <c r="N51" s="167"/>
+      <c r="O51" s="167"/>
+      <c r="P51" s="167"/>
+      <c r="Q51" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="R51" s="32"/>
-    </row>
-    <row r="52" spans="2:18" s="34" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="R51" s="30"/>
+    </row>
+    <row r="52" spans="2:18" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="53" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="49" t="s">
-        <v>148</v>
+      <c r="B53" s="47" t="s">
+        <v>147</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -5144,55 +5140,55 @@
       <c r="R53" s="26"/>
     </row>
     <row r="54" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C54" s="30">
         <v>0</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D54" s="30">
         <v>1</v>
       </c>
-      <c r="E54" s="32">
+      <c r="E54" s="30">
         <v>2</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="30">
         <v>3</v>
       </c>
-      <c r="G54" s="32">
+      <c r="G54" s="30">
         <v>4</v>
       </c>
-      <c r="H54" s="32">
+      <c r="H54" s="30">
         <v>5</v>
       </c>
-      <c r="I54" s="32">
+      <c r="I54" s="30">
         <v>6</v>
       </c>
-      <c r="J54" s="32">
+      <c r="J54" s="30">
         <v>7</v>
       </c>
-      <c r="K54" s="32">
+      <c r="K54" s="30">
         <v>8</v>
       </c>
-      <c r="L54" s="32">
+      <c r="L54" s="30">
         <v>9</v>
       </c>
-      <c r="M54" s="32">
+      <c r="M54" s="30">
         <v>10</v>
       </c>
-      <c r="N54" s="32">
+      <c r="N54" s="30">
         <v>11</v>
       </c>
-      <c r="O54" s="32">
+      <c r="O54" s="30">
         <v>12</v>
       </c>
-      <c r="P54" s="32">
+      <c r="P54" s="30">
         <v>13</v>
       </c>
-      <c r="Q54" s="32">
+      <c r="Q54" s="30">
         <v>14</v>
       </c>
-      <c r="R54" s="32">
+      <c r="R54" s="30">
         <v>15</v>
       </c>
     </row>
@@ -5200,7 +5196,7 @@
       <c r="C55" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="25" t="s">
@@ -5209,40 +5205,40 @@
       <c r="F55" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="32" t="s">
+      <c r="G55" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M55" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N55" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="H55" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I55" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J55" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K55" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L55" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="M55" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="N55" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="O55" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="P55" s="32" t="s">
+      <c r="O55" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="P55" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="Q55" s="32" t="s">
+      <c r="Q55" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="R55" s="32" t="s">
+      <c r="R55" s="30" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5250,21 +5246,21 @@
       <c r="B56" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32" t="s">
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="I56" s="32" t="s">
+      <c r="I56" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="J56" s="32" t="s">
+      <c r="J56" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="K56" s="32" t="s">
+      <c r="K56" s="30" t="s">
         <v>101</v>
       </c>
       <c r="L56" s="27" t="s">
@@ -5273,131 +5269,131 @@
       <c r="M56" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="N56" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="O56" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="P56" s="32" t="s">
+      <c r="N56" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="O56" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="P56" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="Q56" s="32" t="s">
+      <c r="Q56" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="R56" s="32" t="s">
+      <c r="R56" s="30" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="57" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="145"/>
-      <c r="G57" s="145"/>
-      <c r="H57" s="145"/>
-      <c r="I57" s="145"/>
-      <c r="J57" s="145"/>
-      <c r="K57" s="145"/>
-      <c r="L57" s="145"/>
-      <c r="M57" s="145"/>
-      <c r="N57" s="145"/>
-      <c r="O57" s="145"/>
-      <c r="P57" s="145"/>
-      <c r="Q57" s="145"/>
-      <c r="R57" s="145"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="143"/>
+      <c r="G57" s="143"/>
+      <c r="H57" s="143"/>
+      <c r="I57" s="143"/>
+      <c r="J57" s="143"/>
+      <c r="K57" s="143"/>
+      <c r="L57" s="143"/>
+      <c r="M57" s="143"/>
+      <c r="N57" s="143"/>
+      <c r="O57" s="143"/>
+      <c r="P57" s="143"/>
+      <c r="Q57" s="143"/>
+      <c r="R57" s="143"/>
     </row>
     <row r="58" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="144">
+      <c r="C58" s="142">
         <v>16</v>
       </c>
-      <c r="D58" s="144">
+      <c r="D58" s="142">
         <v>17</v>
       </c>
-      <c r="E58" s="144">
+      <c r="E58" s="142">
         <v>18</v>
       </c>
-      <c r="F58" s="144">
+      <c r="F58" s="142">
         <v>19</v>
       </c>
-      <c r="G58" s="144">
+      <c r="G58" s="142">
         <v>20</v>
       </c>
-      <c r="H58" s="144">
+      <c r="H58" s="142">
         <v>21</v>
       </c>
-      <c r="I58" s="144">
+      <c r="I58" s="142">
         <v>22</v>
       </c>
-      <c r="J58" s="144">
+      <c r="J58" s="142">
         <v>23</v>
       </c>
-      <c r="K58" s="144">
+      <c r="K58" s="142">
         <v>24</v>
       </c>
-      <c r="L58" s="144">
+      <c r="L58" s="142">
         <v>25</v>
       </c>
-      <c r="M58" s="144">
+      <c r="M58" s="142">
         <v>26</v>
       </c>
-      <c r="N58" s="144">
+      <c r="N58" s="142">
         <v>27</v>
       </c>
-      <c r="O58" s="144">
+      <c r="O58" s="142">
         <v>28</v>
       </c>
-      <c r="P58" s="144">
+      <c r="P58" s="142">
         <v>29</v>
       </c>
-      <c r="Q58" s="144">
+      <c r="Q58" s="142">
         <v>30</v>
       </c>
-      <c r="R58" s="144">
+      <c r="R58" s="142">
         <v>31</v>
       </c>
     </row>
     <row r="59" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="144" t="s">
+      <c r="C59" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="165" t="s">
+      <c r="D59" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="166"/>
-      <c r="F59" s="166"/>
-      <c r="G59" s="167"/>
-      <c r="H59" s="144" t="s">
-        <v>147</v>
-      </c>
-      <c r="I59" s="144" t="s">
-        <v>163</v>
-      </c>
-      <c r="J59" s="144" t="s">
+      <c r="E59" s="169"/>
+      <c r="F59" s="169"/>
+      <c r="G59" s="170"/>
+      <c r="H59" s="142" t="s">
+        <v>146</v>
+      </c>
+      <c r="I59" s="142" t="s">
+        <v>162</v>
+      </c>
+      <c r="J59" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="K59" s="144" t="s">
+      <c r="K59" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="L59" s="144" t="s">
+      <c r="L59" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="M59" s="144" t="s">
+      <c r="M59" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="N59" s="144" t="s">
+      <c r="N59" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="O59" s="144" t="s">
+      <c r="O59" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="P59" s="144" t="s">
+      <c r="P59" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="Q59" s="144" t="s">
+      <c r="Q59" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="R59" s="144" t="s">
+      <c r="R59" s="142" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5405,969 +5401,969 @@
       <c r="B60" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="144" t="s">
+      <c r="C60" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="165" t="s">
+      <c r="D60" s="168" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="166"/>
-      <c r="F60" s="166"/>
-      <c r="G60" s="167"/>
-      <c r="H60" s="144" t="s">
-        <v>158</v>
-      </c>
-      <c r="I60" s="144" t="s">
-        <v>164</v>
-      </c>
-      <c r="J60" s="144"/>
-      <c r="K60" s="144"/>
-      <c r="L60" s="144"/>
-      <c r="M60" s="144"/>
-      <c r="N60" s="144"/>
-      <c r="O60" s="144"/>
-      <c r="P60" s="144"/>
-      <c r="Q60" s="144"/>
-      <c r="R60" s="144"/>
-    </row>
-    <row r="61" spans="2:18" s="39" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="64"/>
-      <c r="L62" s="64"/>
-      <c r="M62" s="64"/>
-      <c r="N62" s="64"/>
-      <c r="O62" s="64"/>
-      <c r="P62" s="64"/>
-      <c r="Q62" s="64"/>
-      <c r="R62" s="64"/>
-    </row>
-    <row r="63" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="50" t="s">
-        <v>339</v>
-      </c>
-      <c r="C63" s="146">
+      <c r="E60" s="169"/>
+      <c r="F60" s="169"/>
+      <c r="G60" s="170"/>
+      <c r="H60" s="142" t="s">
+        <v>157</v>
+      </c>
+      <c r="I60" s="142" t="s">
+        <v>163</v>
+      </c>
+      <c r="J60" s="142"/>
+      <c r="K60" s="142"/>
+      <c r="L60" s="142"/>
+      <c r="M60" s="142"/>
+      <c r="N60" s="142"/>
+      <c r="O60" s="142"/>
+      <c r="P60" s="142"/>
+      <c r="Q60" s="142"/>
+      <c r="R60" s="142"/>
+    </row>
+    <row r="61" spans="2:18" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="62"/>
+      <c r="O62" s="62"/>
+      <c r="P62" s="62"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="62"/>
+    </row>
+    <row r="63" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="C63" s="144">
         <v>0</v>
       </c>
-      <c r="D63" s="146">
+      <c r="D63" s="144">
         <v>1</v>
       </c>
-      <c r="E63" s="146">
+      <c r="E63" s="144">
         <v>2</v>
       </c>
-      <c r="F63" s="146">
+      <c r="F63" s="144">
         <v>3</v>
       </c>
-      <c r="G63" s="146">
+      <c r="G63" s="144">
         <v>4</v>
       </c>
-      <c r="H63" s="146">
+      <c r="H63" s="144">
         <v>5</v>
       </c>
-      <c r="I63" s="146">
+      <c r="I63" s="144">
         <v>6</v>
       </c>
-      <c r="J63" s="146">
+      <c r="J63" s="144">
         <v>7</v>
       </c>
-      <c r="K63" s="146">
+      <c r="K63" s="144">
         <v>8</v>
       </c>
-      <c r="L63" s="146">
+      <c r="L63" s="144">
         <v>9</v>
       </c>
-      <c r="M63" s="146">
+      <c r="M63" s="144">
         <v>10</v>
       </c>
-      <c r="N63" s="146">
+      <c r="N63" s="144">
         <v>11</v>
       </c>
-      <c r="O63" s="146">
+      <c r="O63" s="144">
         <v>12</v>
       </c>
-      <c r="P63" s="146">
+      <c r="P63" s="144">
         <v>13</v>
       </c>
-      <c r="Q63" s="146">
+      <c r="Q63" s="144">
         <v>14</v>
       </c>
-      <c r="R63" s="146">
+      <c r="R63" s="144">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="65" t="s">
+    <row r="64" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="146" t="s">
+      <c r="D64" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="F64" s="65" t="s">
+      <c r="E64" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="F64" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="146" t="s">
+      <c r="G64" s="144" t="s">
+        <v>142</v>
+      </c>
+      <c r="H64" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" s="144" t="s">
+        <v>2</v>
+      </c>
+      <c r="J64" s="144" t="s">
+        <v>140</v>
+      </c>
+      <c r="K64" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="L64" s="144" t="s">
+        <v>7</v>
+      </c>
+      <c r="M64" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="N64" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="H64" s="146" t="s">
+      <c r="O64" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="P64" s="144" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q64" s="144" t="s">
+        <v>19</v>
+      </c>
+      <c r="R64" s="144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="144"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
+      <c r="G65" s="144"/>
+      <c r="H65" s="144" t="s">
+        <v>99</v>
+      </c>
+      <c r="I65" s="144" t="s">
+        <v>86</v>
+      </c>
+      <c r="J65" s="144" t="s">
+        <v>88</v>
+      </c>
+      <c r="K65" s="144" t="s">
+        <v>90</v>
+      </c>
+      <c r="L65" s="144" t="s">
+        <v>92</v>
+      </c>
+      <c r="M65" s="144" t="s">
+        <v>92</v>
+      </c>
+      <c r="N65" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="O65" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="P65" s="144" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q65" s="144" t="s">
+        <v>88</v>
+      </c>
+      <c r="R65" s="144" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="145"/>
+      <c r="D66" s="145"/>
+      <c r="E66" s="145"/>
+      <c r="F66" s="145"/>
+      <c r="G66" s="145"/>
+      <c r="H66" s="145"/>
+      <c r="I66" s="145"/>
+      <c r="J66" s="145"/>
+      <c r="K66" s="145"/>
+      <c r="L66" s="145"/>
+      <c r="M66" s="145"/>
+      <c r="N66" s="145"/>
+      <c r="O66" s="145"/>
+      <c r="P66" s="145"/>
+      <c r="Q66" s="145"/>
+      <c r="R66" s="145"/>
+    </row>
+    <row r="67" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="144">
+        <v>16</v>
+      </c>
+      <c r="D67" s="144">
+        <v>17</v>
+      </c>
+      <c r="E67" s="144">
+        <v>18</v>
+      </c>
+      <c r="F67" s="144">
+        <v>19</v>
+      </c>
+      <c r="G67" s="144">
+        <v>20</v>
+      </c>
+      <c r="H67" s="144">
+        <v>21</v>
+      </c>
+      <c r="I67" s="144">
+        <v>22</v>
+      </c>
+      <c r="J67" s="144">
+        <v>23</v>
+      </c>
+      <c r="K67" s="144">
+        <v>24</v>
+      </c>
+      <c r="L67" s="144">
+        <v>25</v>
+      </c>
+      <c r="M67" s="144">
+        <v>26</v>
+      </c>
+      <c r="N67" s="144">
+        <v>27</v>
+      </c>
+      <c r="O67" s="144">
+        <v>28</v>
+      </c>
+      <c r="P67" s="144">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="144">
+        <v>30</v>
+      </c>
+      <c r="R67" s="144">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="173" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="174"/>
+      <c r="F68" s="174"/>
+      <c r="G68" s="175"/>
+      <c r="H68" s="144" t="s">
+        <v>146</v>
+      </c>
+      <c r="I68" s="144" t="s">
+        <v>162</v>
+      </c>
+      <c r="J68" s="144" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="144" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="144" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="144" t="s">
+        <v>23</v>
+      </c>
+      <c r="N68" s="144" t="s">
+        <v>23</v>
+      </c>
+      <c r="O68" s="144" t="s">
+        <v>23</v>
+      </c>
+      <c r="P68" s="144" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q68" s="144" t="s">
+        <v>23</v>
+      </c>
+      <c r="R68" s="144" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="144" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="173" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="174"/>
+      <c r="F69" s="174"/>
+      <c r="G69" s="175"/>
+      <c r="H69" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="I69" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="J69" s="144"/>
+      <c r="K69" s="144"/>
+      <c r="L69" s="144"/>
+      <c r="M69" s="144"/>
+      <c r="N69" s="144"/>
+      <c r="O69" s="144"/>
+      <c r="P69" s="144"/>
+      <c r="Q69" s="144"/>
+      <c r="R69" s="144"/>
+    </row>
+    <row r="70" spans="2:18" s="45" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="2:18" s="45" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="62"/>
+      <c r="O72" s="62"/>
+      <c r="P72" s="62"/>
+      <c r="Q72" s="62"/>
+      <c r="R72" s="62"/>
+    </row>
+    <row r="73" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="83">
         <v>0</v>
       </c>
-      <c r="I64" s="146" t="s">
+      <c r="D73" s="83">
+        <v>1</v>
+      </c>
+      <c r="E73" s="83">
         <v>2</v>
       </c>
-      <c r="J64" s="146" t="s">
-        <v>141</v>
-      </c>
-      <c r="K64" s="146" t="s">
+      <c r="F73" s="83">
+        <v>3</v>
+      </c>
+      <c r="G73" s="83">
         <v>4</v>
       </c>
-      <c r="L64" s="146" t="s">
+      <c r="H73" s="83">
+        <v>5</v>
+      </c>
+      <c r="I73" s="83">
+        <v>6</v>
+      </c>
+      <c r="J73" s="83">
         <v>7</v>
       </c>
-      <c r="M64" s="146" t="s">
+      <c r="K73" s="83">
+        <v>8</v>
+      </c>
+      <c r="L73" s="83">
         <v>9</v>
       </c>
-      <c r="N64" s="146" t="s">
-        <v>144</v>
-      </c>
-      <c r="O64" s="146" t="s">
-        <v>146</v>
-      </c>
-      <c r="P64" s="146" t="s">
+      <c r="M73" s="83">
+        <v>10</v>
+      </c>
+      <c r="N73" s="83">
+        <v>11</v>
+      </c>
+      <c r="O73" s="83">
+        <v>12</v>
+      </c>
+      <c r="P73" s="83">
         <v>13</v>
       </c>
-      <c r="Q64" s="146" t="s">
+      <c r="Q73" s="83">
+        <v>14</v>
+      </c>
+      <c r="R73" s="83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="G74" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="H74" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="I74" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="J74" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="K74" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="L74" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="M74" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="N74" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="O74" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="P74" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q74" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="R74" s="83" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="I75" s="83">
+        <v>0</v>
+      </c>
+      <c r="J75" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="K75" s="83">
+        <v>0</v>
+      </c>
+      <c r="L75" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="M75" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="N75" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="O75" s="83">
+        <v>0</v>
+      </c>
+      <c r="P75" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q75" s="83">
+        <v>0</v>
+      </c>
+      <c r="R75" s="83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="64"/>
+      <c r="K76" s="64"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="64"/>
+      <c r="N76" s="64"/>
+      <c r="O76" s="64"/>
+      <c r="P76" s="64"/>
+      <c r="Q76" s="64"/>
+      <c r="R76" s="64"/>
+    </row>
+    <row r="77" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="83">
+        <v>16</v>
+      </c>
+      <c r="D77" s="83">
+        <v>17</v>
+      </c>
+      <c r="E77" s="83">
+        <v>18</v>
+      </c>
+      <c r="F77" s="83">
         <v>19</v>
       </c>
-      <c r="R64" s="146" t="s">
+      <c r="G77" s="83">
+        <v>20</v>
+      </c>
+      <c r="H77" s="83">
+        <v>21</v>
+      </c>
+      <c r="I77" s="83">
+        <v>22</v>
+      </c>
+      <c r="J77" s="83">
+        <v>23</v>
+      </c>
+      <c r="K77" s="83">
+        <v>24</v>
+      </c>
+      <c r="L77" s="83">
+        <v>25</v>
+      </c>
+      <c r="M77" s="83">
+        <v>26</v>
+      </c>
+      <c r="N77" s="83">
+        <v>27</v>
+      </c>
+      <c r="O77" s="83">
+        <v>28</v>
+      </c>
+      <c r="P77" s="83">
+        <v>29</v>
+      </c>
+      <c r="Q77" s="83">
+        <v>30</v>
+      </c>
+      <c r="R77" s="83">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="176" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="176"/>
+      <c r="F78" s="176"/>
+      <c r="G78" s="176"/>
+      <c r="H78" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="I78" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="J78" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="N78" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="O78" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="P78" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q78" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="R78" s="83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" s="173" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="174"/>
+      <c r="F79" s="174"/>
+      <c r="G79" s="175"/>
+      <c r="H79" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="I79" s="83"/>
+      <c r="J79" s="83"/>
+      <c r="K79" s="83"/>
+      <c r="L79" s="83"/>
+      <c r="M79" s="83"/>
+      <c r="N79" s="83"/>
+      <c r="O79" s="83"/>
+      <c r="P79" s="83"/>
+      <c r="Q79" s="83"/>
+      <c r="R79" s="83"/>
+    </row>
+    <row r="80" spans="2:18" s="93" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="94"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="94"/>
+      <c r="F80" s="94"/>
+      <c r="G80" s="94"/>
+      <c r="H80" s="94"/>
+      <c r="I80" s="94"/>
+      <c r="J80" s="94"/>
+      <c r="K80" s="94"/>
+      <c r="L80" s="94"/>
+      <c r="M80" s="94"/>
+      <c r="N80" s="94"/>
+      <c r="O80" s="94"/>
+      <c r="P80" s="94"/>
+      <c r="Q80" s="94"/>
+      <c r="R80" s="94"/>
+    </row>
+    <row r="81" spans="1:18" s="110" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C81" s="111"/>
+      <c r="D81" s="111"/>
+      <c r="E81" s="111"/>
+      <c r="F81" s="111"/>
+      <c r="G81" s="111"/>
+      <c r="H81" s="111"/>
+      <c r="I81" s="111"/>
+      <c r="J81" s="111"/>
+      <c r="K81" s="111"/>
+      <c r="L81" s="111"/>
+      <c r="M81" s="111"/>
+      <c r="N81" s="111"/>
+      <c r="O81" s="111"/>
+      <c r="P81" s="111"/>
+      <c r="Q81" s="111"/>
+      <c r="R81" s="111"/>
+    </row>
+    <row r="82" spans="1:18" s="110" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" s="112">
+        <v>0</v>
+      </c>
+      <c r="D82" s="112">
+        <v>1</v>
+      </c>
+      <c r="E82" s="112">
+        <v>2</v>
+      </c>
+      <c r="F82" s="112">
+        <v>3</v>
+      </c>
+      <c r="G82" s="112">
+        <v>4</v>
+      </c>
+      <c r="H82" s="112">
+        <v>5</v>
+      </c>
+      <c r="I82" s="112">
+        <v>6</v>
+      </c>
+      <c r="J82" s="112">
+        <v>7</v>
+      </c>
+      <c r="K82" s="112">
+        <v>8</v>
+      </c>
+      <c r="L82" s="112">
+        <v>9</v>
+      </c>
+      <c r="M82" s="112">
+        <v>10</v>
+      </c>
+      <c r="N82" s="112">
+        <v>11</v>
+      </c>
+      <c r="O82" s="112">
+        <v>12</v>
+      </c>
+      <c r="P82" s="112">
+        <v>13</v>
+      </c>
+      <c r="Q82" s="112">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="146"/>
-      <c r="D65" s="146"/>
-      <c r="E65" s="146"/>
-      <c r="F65" s="146"/>
-      <c r="G65" s="146"/>
-      <c r="H65" s="146" t="s">
-        <v>99</v>
-      </c>
-      <c r="I65" s="146" t="s">
-        <v>86</v>
-      </c>
-      <c r="J65" s="146" t="s">
-        <v>88</v>
-      </c>
-      <c r="K65" s="146" t="s">
-        <v>90</v>
-      </c>
-      <c r="L65" s="146" t="s">
-        <v>92</v>
-      </c>
-      <c r="M65" s="146" t="s">
-        <v>92</v>
-      </c>
-      <c r="N65" s="146" t="s">
-        <v>95</v>
-      </c>
-      <c r="O65" s="146" t="s">
-        <v>95</v>
-      </c>
-      <c r="P65" s="146" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q65" s="146" t="s">
-        <v>88</v>
-      </c>
-      <c r="R65" s="146" t="s">
+      <c r="R82" s="112">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" s="110" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="113" t="s">
+        <v>222</v>
+      </c>
+      <c r="D83" s="112" t="s">
+        <v>223</v>
+      </c>
+      <c r="E83" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F83" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="G83" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="H83" s="112" t="s">
+        <v>226</v>
+      </c>
+      <c r="I83" s="112" t="s">
+        <v>275</v>
+      </c>
+      <c r="J83" s="112" t="s">
+        <v>227</v>
+      </c>
+      <c r="K83" s="112" t="s">
+        <v>228</v>
+      </c>
+      <c r="L83" s="112" t="s">
+        <v>229</v>
+      </c>
+      <c r="M83" s="112" t="s">
+        <v>230</v>
+      </c>
+      <c r="N83" s="112" t="s">
+        <v>231</v>
+      </c>
+      <c r="O83" s="112" t="s">
+        <v>232</v>
+      </c>
+      <c r="P83" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q83" s="112" t="s">
+        <v>234</v>
+      </c>
+      <c r="R83" s="112" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" s="110" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="110" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" s="112"/>
+      <c r="D84" s="112"/>
+      <c r="E84" s="112"/>
+      <c r="F84" s="112"/>
+      <c r="G84" s="112"/>
+      <c r="H84" s="112" t="s">
+        <v>237</v>
+      </c>
+      <c r="I84" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="J84" s="112" t="s">
+        <v>239</v>
+      </c>
+      <c r="K84" s="112" t="s">
+        <v>240</v>
+      </c>
+      <c r="L84" s="112" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="147"/>
-      <c r="D66" s="147"/>
-      <c r="E66" s="147"/>
-      <c r="F66" s="147"/>
-      <c r="G66" s="147"/>
-      <c r="H66" s="147"/>
-      <c r="I66" s="147"/>
-      <c r="J66" s="147"/>
-      <c r="K66" s="147"/>
-      <c r="L66" s="147"/>
-      <c r="M66" s="147"/>
-      <c r="N66" s="147"/>
-      <c r="O66" s="147"/>
-      <c r="P66" s="147"/>
-      <c r="Q66" s="147"/>
-      <c r="R66" s="147"/>
-    </row>
-    <row r="67" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="146">
+      <c r="M84" s="112" t="s">
+        <v>240</v>
+      </c>
+      <c r="N84" s="112" t="s">
+        <v>240</v>
+      </c>
+      <c r="O84" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="P84" s="112" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q84" s="112" t="s">
+        <v>240</v>
+      </c>
+      <c r="R84" s="112" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" s="110" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="114"/>
+      <c r="D85" s="114"/>
+      <c r="E85" s="114"/>
+      <c r="F85" s="114"/>
+      <c r="G85" s="114"/>
+      <c r="H85" s="114"/>
+      <c r="I85" s="114"/>
+      <c r="J85" s="114"/>
+      <c r="K85" s="114"/>
+      <c r="L85" s="114"/>
+      <c r="M85" s="114"/>
+      <c r="N85" s="114"/>
+      <c r="O85" s="114"/>
+      <c r="P85" s="114"/>
+      <c r="Q85" s="114"/>
+      <c r="R85" s="114"/>
+    </row>
+    <row r="86" spans="1:18" s="115" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="112">
         <v>16</v>
       </c>
-      <c r="D67" s="146">
+      <c r="D86" s="112">
         <v>17</v>
       </c>
-      <c r="E67" s="146">
+      <c r="E86" s="112">
         <v>18</v>
       </c>
-      <c r="F67" s="146">
+      <c r="F86" s="112">
         <v>19</v>
       </c>
-      <c r="G67" s="146">
+      <c r="G86" s="112">
         <v>20</v>
       </c>
-      <c r="H67" s="146">
+      <c r="H86" s="112">
         <v>21</v>
       </c>
-      <c r="I67" s="146">
+      <c r="I86" s="112">
         <v>22</v>
       </c>
-      <c r="J67" s="146">
+      <c r="J86" s="112">
         <v>23</v>
       </c>
-      <c r="K67" s="146">
+      <c r="K86" s="112">
         <v>24</v>
       </c>
-      <c r="L67" s="146">
+      <c r="L86" s="112">
         <v>25</v>
       </c>
-      <c r="M67" s="146">
+      <c r="M86" s="112">
         <v>26</v>
       </c>
-      <c r="N67" s="146">
+      <c r="N86" s="112">
         <v>27</v>
       </c>
-      <c r="O67" s="146">
+      <c r="O86" s="112">
         <v>28</v>
       </c>
-      <c r="P67" s="146">
+      <c r="P86" s="112">
         <v>29</v>
       </c>
-      <c r="Q67" s="146">
+      <c r="Q86" s="112">
         <v>30</v>
       </c>
-      <c r="R67" s="146">
+      <c r="R86" s="112">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="146" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="172"/>
-      <c r="F68" s="172"/>
-      <c r="G68" s="173"/>
-      <c r="H68" s="146" t="s">
-        <v>147</v>
-      </c>
-      <c r="I68" s="146" t="s">
-        <v>163</v>
-      </c>
-      <c r="J68" s="146" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68" s="146" t="s">
-        <v>23</v>
-      </c>
-      <c r="L68" s="146" t="s">
-        <v>23</v>
-      </c>
-      <c r="M68" s="146" t="s">
-        <v>23</v>
-      </c>
-      <c r="N68" s="146" t="s">
-        <v>23</v>
-      </c>
-      <c r="O68" s="146" t="s">
-        <v>23</v>
-      </c>
-      <c r="P68" s="146" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q68" s="146" t="s">
-        <v>23</v>
-      </c>
-      <c r="R68" s="146" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="2:18" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="146" t="s">
+    <row r="87" spans="1:18" s="115" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="112" t="s">
+        <v>242</v>
+      </c>
+      <c r="D87" s="177" t="s">
+        <v>243</v>
+      </c>
+      <c r="E87" s="177"/>
+      <c r="F87" s="177"/>
+      <c r="G87" s="177"/>
+      <c r="H87" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="I87" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="J87" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="K87" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="L87" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="M87" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="N87" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="O87" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="P87" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q87" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="R87" s="112" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" s="115" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="171" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="172"/>
-      <c r="F69" s="172"/>
-      <c r="G69" s="173"/>
-      <c r="H69" s="146" t="s">
-        <v>95</v>
-      </c>
-      <c r="I69" s="146" t="s">
-        <v>95</v>
-      </c>
-      <c r="J69" s="146"/>
-      <c r="K69" s="146"/>
-      <c r="L69" s="146"/>
-      <c r="M69" s="146"/>
-      <c r="N69" s="146"/>
-      <c r="O69" s="146"/>
-      <c r="P69" s="146"/>
-      <c r="Q69" s="146"/>
-      <c r="R69" s="146"/>
-    </row>
-    <row r="70" spans="2:18" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="2:18" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="64"/>
-      <c r="K72" s="64"/>
-      <c r="L72" s="64"/>
-      <c r="M72" s="64"/>
-      <c r="N72" s="64"/>
-      <c r="O72" s="64"/>
-      <c r="P72" s="64"/>
-      <c r="Q72" s="64"/>
-      <c r="R72" s="64"/>
-    </row>
-    <row r="73" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="85">
-        <v>0</v>
-      </c>
-      <c r="D73" s="85">
-        <v>1</v>
-      </c>
-      <c r="E73" s="85">
-        <v>2</v>
-      </c>
-      <c r="F73" s="85">
-        <v>3</v>
-      </c>
-      <c r="G73" s="85">
-        <v>4</v>
-      </c>
-      <c r="H73" s="85">
-        <v>5</v>
-      </c>
-      <c r="I73" s="85">
-        <v>6</v>
-      </c>
-      <c r="J73" s="85">
-        <v>7</v>
-      </c>
-      <c r="K73" s="85">
-        <v>8</v>
-      </c>
-      <c r="L73" s="85">
-        <v>9</v>
-      </c>
-      <c r="M73" s="85">
-        <v>10</v>
-      </c>
-      <c r="N73" s="85">
-        <v>11</v>
-      </c>
-      <c r="O73" s="85">
-        <v>12</v>
-      </c>
-      <c r="P73" s="85">
-        <v>13</v>
-      </c>
-      <c r="Q73" s="85">
-        <v>14</v>
-      </c>
-      <c r="R73" s="85">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="F74" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="G74" s="85" t="s">
-        <v>210</v>
-      </c>
-      <c r="H74" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="I74" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="J74" s="85" t="s">
-        <v>139</v>
-      </c>
-      <c r="K74" s="85" t="s">
-        <v>140</v>
-      </c>
-      <c r="L74" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="M74" s="85" t="s">
-        <v>141</v>
-      </c>
-      <c r="N74" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="O74" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="P74" s="85" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q74" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="R74" s="85" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="I75" s="85">
-        <v>0</v>
-      </c>
-      <c r="J75" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="K75" s="85">
-        <v>0</v>
-      </c>
-      <c r="L75" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="M75" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="N75" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="O75" s="85">
-        <v>0</v>
-      </c>
-      <c r="P75" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q75" s="85">
-        <v>0</v>
-      </c>
-      <c r="R75" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="2:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="66"/>
-      <c r="M76" s="66"/>
-      <c r="N76" s="66"/>
-      <c r="O76" s="66"/>
-      <c r="P76" s="66"/>
-      <c r="Q76" s="66"/>
-      <c r="R76" s="66"/>
-    </row>
-    <row r="77" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="85">
-        <v>16</v>
-      </c>
-      <c r="D77" s="85">
-        <v>17</v>
-      </c>
-      <c r="E77" s="85">
-        <v>18</v>
-      </c>
-      <c r="F77" s="85">
-        <v>19</v>
-      </c>
-      <c r="G77" s="85">
-        <v>20</v>
-      </c>
-      <c r="H77" s="85">
-        <v>21</v>
-      </c>
-      <c r="I77" s="85">
-        <v>22</v>
-      </c>
-      <c r="J77" s="85">
-        <v>23</v>
-      </c>
-      <c r="K77" s="85">
-        <v>24</v>
-      </c>
-      <c r="L77" s="85">
-        <v>25</v>
-      </c>
-      <c r="M77" s="85">
-        <v>26</v>
-      </c>
-      <c r="N77" s="85">
-        <v>27</v>
-      </c>
-      <c r="O77" s="85">
-        <v>28</v>
-      </c>
-      <c r="P77" s="85">
-        <v>29</v>
-      </c>
-      <c r="Q77" s="85">
-        <v>30</v>
-      </c>
-      <c r="R77" s="85">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="170" t="s">
-        <v>31</v>
-      </c>
-      <c r="E78" s="170"/>
-      <c r="F78" s="170"/>
-      <c r="G78" s="170"/>
-      <c r="H78" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="I78" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="J78" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K78" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="L78" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="M78" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="N78" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="O78" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="P78" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q78" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="R78" s="85" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" s="171" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79" s="172"/>
-      <c r="F79" s="172"/>
-      <c r="G79" s="173"/>
-      <c r="H79" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="I79" s="85"/>
-      <c r="J79" s="85"/>
-      <c r="K79" s="85"/>
-      <c r="L79" s="85"/>
-      <c r="M79" s="85"/>
-      <c r="N79" s="85"/>
-      <c r="O79" s="85"/>
-      <c r="P79" s="85"/>
-      <c r="Q79" s="85"/>
-      <c r="R79" s="85"/>
-    </row>
-    <row r="80" spans="2:18" s="95" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="96"/>
-      <c r="D80" s="96"/>
-      <c r="E80" s="96"/>
-      <c r="F80" s="96"/>
-      <c r="G80" s="96"/>
-      <c r="H80" s="96"/>
-      <c r="I80" s="96"/>
-      <c r="J80" s="96"/>
-      <c r="K80" s="96"/>
-      <c r="L80" s="96"/>
-      <c r="M80" s="96"/>
-      <c r="N80" s="96"/>
-      <c r="O80" s="96"/>
-      <c r="P80" s="96"/>
-      <c r="Q80" s="96"/>
-      <c r="R80" s="96"/>
-    </row>
-    <row r="81" spans="1:18" s="112" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="112" t="s">
-        <v>221</v>
-      </c>
-      <c r="C81" s="113"/>
-      <c r="D81" s="113"/>
-      <c r="E81" s="113"/>
-      <c r="F81" s="113"/>
-      <c r="G81" s="113"/>
-      <c r="H81" s="113"/>
-      <c r="I81" s="113"/>
-      <c r="J81" s="113"/>
-      <c r="K81" s="113"/>
-      <c r="L81" s="113"/>
-      <c r="M81" s="113"/>
-      <c r="N81" s="113"/>
-      <c r="O81" s="113"/>
-      <c r="P81" s="113"/>
-      <c r="Q81" s="113"/>
-      <c r="R81" s="113"/>
-    </row>
-    <row r="82" spans="1:18" s="112" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="112" t="s">
-        <v>222</v>
-      </c>
-      <c r="C82" s="114">
-        <v>0</v>
-      </c>
-      <c r="D82" s="114">
-        <v>1</v>
-      </c>
-      <c r="E82" s="114">
-        <v>2</v>
-      </c>
-      <c r="F82" s="114">
-        <v>3</v>
-      </c>
-      <c r="G82" s="114">
-        <v>4</v>
-      </c>
-      <c r="H82" s="114">
-        <v>5</v>
-      </c>
-      <c r="I82" s="114">
-        <v>6</v>
-      </c>
-      <c r="J82" s="114">
-        <v>7</v>
-      </c>
-      <c r="K82" s="114">
-        <v>8</v>
-      </c>
-      <c r="L82" s="114">
-        <v>9</v>
-      </c>
-      <c r="M82" s="114">
-        <v>10</v>
-      </c>
-      <c r="N82" s="114">
-        <v>11</v>
-      </c>
-      <c r="O82" s="114">
-        <v>12</v>
-      </c>
-      <c r="P82" s="114">
-        <v>13</v>
-      </c>
-      <c r="Q82" s="114">
-        <v>14</v>
-      </c>
-      <c r="R82" s="114">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" s="112" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="115" t="s">
-        <v>223</v>
-      </c>
-      <c r="D83" s="114" t="s">
-        <v>224</v>
-      </c>
-      <c r="E83" s="115" t="s">
-        <v>225</v>
-      </c>
-      <c r="F83" s="115" t="s">
-        <v>226</v>
-      </c>
-      <c r="G83" s="114" t="s">
-        <v>226</v>
-      </c>
-      <c r="H83" s="114" t="s">
-        <v>227</v>
-      </c>
-      <c r="I83" s="114" t="s">
-        <v>276</v>
-      </c>
-      <c r="J83" s="114" t="s">
-        <v>228</v>
-      </c>
-      <c r="K83" s="114" t="s">
-        <v>229</v>
-      </c>
-      <c r="L83" s="114" t="s">
-        <v>230</v>
-      </c>
-      <c r="M83" s="114" t="s">
-        <v>231</v>
-      </c>
-      <c r="N83" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="O83" s="114" t="s">
-        <v>233</v>
-      </c>
-      <c r="P83" s="114" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q83" s="114" t="s">
-        <v>235</v>
-      </c>
-      <c r="R83" s="114" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" s="112" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="112" t="s">
-        <v>237</v>
-      </c>
-      <c r="C84" s="114"/>
-      <c r="D84" s="114"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
-      <c r="G84" s="114"/>
-      <c r="H84" s="114" t="s">
-        <v>238</v>
-      </c>
-      <c r="I84" s="114" t="s">
-        <v>239</v>
-      </c>
-      <c r="J84" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="K84" s="114" t="s">
+      <c r="D88" s="178" t="s">
         <v>241</v>
       </c>
-      <c r="L84" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="M84" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="N84" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="O84" s="114" t="s">
-        <v>242</v>
-      </c>
-      <c r="P84" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q84" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="R84" s="114" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" s="112" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="116"/>
-      <c r="D85" s="116"/>
-      <c r="E85" s="116"/>
-      <c r="F85" s="116"/>
-      <c r="G85" s="116"/>
-      <c r="H85" s="116"/>
-      <c r="I85" s="116"/>
-      <c r="J85" s="116"/>
-      <c r="K85" s="116"/>
-      <c r="L85" s="116"/>
-      <c r="M85" s="116"/>
-      <c r="N85" s="116"/>
-      <c r="O85" s="116"/>
-      <c r="P85" s="116"/>
-      <c r="Q85" s="116"/>
-      <c r="R85" s="116"/>
-    </row>
-    <row r="86" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="114">
-        <v>16</v>
-      </c>
-      <c r="D86" s="114">
-        <v>17</v>
-      </c>
-      <c r="E86" s="114">
-        <v>18</v>
-      </c>
-      <c r="F86" s="114">
-        <v>19</v>
-      </c>
-      <c r="G86" s="114">
-        <v>20</v>
-      </c>
-      <c r="H86" s="114">
-        <v>21</v>
-      </c>
-      <c r="I86" s="114">
-        <v>22</v>
-      </c>
-      <c r="J86" s="114">
-        <v>23</v>
-      </c>
-      <c r="K86" s="114">
-        <v>24</v>
-      </c>
-      <c r="L86" s="114">
-        <v>25</v>
-      </c>
-      <c r="M86" s="114">
-        <v>26</v>
-      </c>
-      <c r="N86" s="114">
-        <v>27</v>
-      </c>
-      <c r="O86" s="114">
-        <v>28</v>
-      </c>
-      <c r="P86" s="114">
-        <v>29</v>
-      </c>
-      <c r="Q86" s="114">
-        <v>30</v>
-      </c>
-      <c r="R86" s="114">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="114" t="s">
-        <v>243</v>
-      </c>
-      <c r="D87" s="174" t="s">
-        <v>244</v>
-      </c>
-      <c r="E87" s="174"/>
-      <c r="F87" s="174"/>
-      <c r="G87" s="174"/>
-      <c r="H87" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="I87" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="J87" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="K87" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="L87" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="M87" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="N87" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="O87" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="P87" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q87" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="R87" s="114" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="117" t="s">
-        <v>237</v>
-      </c>
-      <c r="C88" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" s="175" t="s">
-        <v>242</v>
-      </c>
-      <c r="E88" s="176"/>
-      <c r="F88" s="176"/>
-      <c r="G88" s="177"/>
-      <c r="H88" s="114"/>
-      <c r="I88" s="114"/>
-      <c r="J88" s="114"/>
-      <c r="K88" s="114"/>
-      <c r="L88" s="114"/>
-      <c r="M88" s="114"/>
-      <c r="N88" s="114"/>
-      <c r="O88" s="114"/>
-      <c r="P88" s="114"/>
-      <c r="Q88" s="114"/>
-      <c r="R88" s="114"/>
+      <c r="E88" s="179"/>
+      <c r="F88" s="179"/>
+      <c r="G88" s="180"/>
+      <c r="H88" s="112"/>
+      <c r="I88" s="112"/>
+      <c r="J88" s="112"/>
+      <c r="K88" s="112"/>
+      <c r="L88" s="112"/>
+      <c r="M88" s="112"/>
+      <c r="N88" s="112"/>
+      <c r="O88" s="112"/>
+      <c r="P88" s="112"/>
+      <c r="Q88" s="112"/>
+      <c r="R88" s="112"/>
     </row>
     <row r="89" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C89" s="29"/>
@@ -6409,8 +6405,8 @@
       <c r="A91" s="7">
         <v>2</v>
       </c>
-      <c r="B91" s="83" t="s">
-        <v>159</v>
+      <c r="B91" s="81" t="s">
+        <v>158</v>
       </c>
       <c r="C91" s="11">
         <v>0</v>
@@ -6603,7 +6599,7 @@
     </row>
     <row r="97" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B97" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="11">
         <v>0</v>
@@ -6655,7 +6651,7 @@
       </c>
     </row>
     <row r="98" spans="1:18" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="40" t="s">
+      <c r="B98" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C98" s="12" t="s">
@@ -6753,11 +6749,11 @@
       <c r="E101" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F101" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="G101" s="57" t="s">
-        <v>187</v>
+      <c r="F101" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="G101" s="55" t="s">
+        <v>186</v>
       </c>
       <c r="H101" s="12" t="s">
         <v>23</v>
@@ -6769,19 +6765,19 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="67" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="68"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="68"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="68"/>
-      <c r="H102" s="68"/>
-      <c r="I102" s="68"/>
-      <c r="J102" s="68"/>
+    <row r="102" spans="1:18" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="66"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="66"/>
+      <c r="I102" s="66"/>
+      <c r="J102" s="66"/>
     </row>
     <row r="103" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B103" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C103" s="11">
         <v>0</v>
@@ -6834,7 +6830,7 @@
     </row>
     <row r="104" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B104" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>21</v>
@@ -6931,17 +6927,17 @@
       <c r="E107" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F107" s="41" t="s">
-        <v>149</v>
+      <c r="F107" s="39" t="s">
+        <v>148</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J107" s="12" t="s">
         <v>56</v>
@@ -6951,28 +6947,28 @@
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
-      <c r="F108" s="56"/>
+      <c r="F108" s="54"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
       <c r="I108" s="20"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="43"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="44"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="43"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="43"/>
+    <row r="109" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
     </row>
     <row r="110" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="5">
         <v>3</v>
       </c>
-      <c r="B110" s="82" t="s">
-        <v>161</v>
+      <c r="B110" s="80" t="s">
+        <v>160</v>
       </c>
       <c r="C110" s="13">
         <v>0</v>
@@ -7024,8 +7020,8 @@
       </c>
     </row>
     <row r="111" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="82" t="s">
-        <v>160</v>
+      <c r="B111" s="80" t="s">
+        <v>159</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>64</v>
@@ -7042,23 +7038,23 @@
       <c r="G111" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H111" s="168" t="s">
+      <c r="H111" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="I111" s="168"/>
-      <c r="J111" s="168"/>
-      <c r="K111" s="168"/>
-      <c r="L111" s="168" t="s">
+      <c r="I111" s="171"/>
+      <c r="J111" s="171"/>
+      <c r="K111" s="171"/>
+      <c r="L111" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="M111" s="168"/>
-      <c r="N111" s="168"/>
-      <c r="O111" s="168"/>
-      <c r="P111" s="168" t="s">
+      <c r="M111" s="171"/>
+      <c r="N111" s="171"/>
+      <c r="O111" s="171"/>
+      <c r="P111" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="Q111" s="168"/>
-      <c r="R111" s="168"/>
+      <c r="Q111" s="171"/>
+      <c r="R111" s="171"/>
     </row>
     <row r="112" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C112" s="15"/>
@@ -7117,185 +7113,185 @@
       </c>
     </row>
     <row r="114" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="45"/>
-      <c r="C114" s="38" t="s">
+      <c r="B114" s="43"/>
+      <c r="C114" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D114" s="169" t="s">
+      <c r="D114" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="E114" s="169"/>
-      <c r="F114" s="169"/>
-      <c r="G114" s="169"/>
-      <c r="H114" s="38" t="s">
+      <c r="E114" s="172"/>
+      <c r="F114" s="172"/>
+      <c r="G114" s="172"/>
+      <c r="H114" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I114" s="38" t="s">
+      <c r="I114" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="J114" s="38" t="s">
+      <c r="J114" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="K114" s="38" t="s">
+      <c r="K114" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="L114" s="97" t="s">
-        <v>192</v>
-      </c>
-      <c r="M114" s="97" t="s">
+      <c r="L114" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="N114" s="38" t="s">
+      <c r="M114" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="N114" s="36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="54"/>
-      <c r="C115" s="47"/>
-      <c r="D115" s="47"/>
-      <c r="E115" s="47"/>
-      <c r="F115" s="47"/>
-      <c r="G115" s="47"/>
-      <c r="H115" s="47"/>
-      <c r="I115" s="47"/>
-      <c r="J115" s="47"/>
-      <c r="K115" s="47"/>
-      <c r="L115" s="47"/>
-      <c r="M115" s="47"/>
-      <c r="N115" s="47"/>
+    <row r="115" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="52"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="45"/>
+      <c r="E115" s="45"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="45"/>
+      <c r="I115" s="45"/>
+      <c r="J115" s="45"/>
+      <c r="K115" s="45"/>
+      <c r="L115" s="45"/>
+      <c r="M115" s="45"/>
+      <c r="N115" s="45"/>
     </row>
     <row r="116" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B116" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C116" s="53">
+        <v>160</v>
+      </c>
+      <c r="C116" s="51">
         <v>0</v>
       </c>
-      <c r="D116" s="53">
+      <c r="D116" s="51">
         <v>1</v>
       </c>
-      <c r="E116" s="53">
+      <c r="E116" s="51">
         <v>2</v>
       </c>
-      <c r="F116" s="53">
+      <c r="F116" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B117" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C117" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C117" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D117" s="52">
+      <c r="D117" s="50">
         <v>55</v>
       </c>
-      <c r="E117" s="52">
+      <c r="E117" s="50">
         <v>11</v>
       </c>
-      <c r="F117" s="52" t="s">
+      <c r="F117" s="50" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="55"/>
-      <c r="D118" s="55"/>
-      <c r="E118" s="55"/>
-      <c r="F118" s="55"/>
+    <row r="118" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="53"/>
+      <c r="D118" s="53"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="53"/>
     </row>
     <row r="119" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="5">
         <v>4</v>
       </c>
-      <c r="B119" s="83" t="s">
+      <c r="B119" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C119" s="36">
+        <v>0</v>
+      </c>
+      <c r="D119" s="36">
+        <v>1</v>
+      </c>
+      <c r="E119" s="36">
+        <v>2</v>
+      </c>
+      <c r="F119" s="36">
+        <v>3</v>
+      </c>
+      <c r="G119" s="36">
+        <v>4</v>
+      </c>
+      <c r="H119" s="36">
+        <v>5</v>
+      </c>
+      <c r="I119" s="36">
+        <v>6</v>
+      </c>
+      <c r="J119" s="36">
+        <v>7</v>
+      </c>
+      <c r="K119" s="36">
+        <v>8</v>
+      </c>
+      <c r="L119" s="36">
+        <v>9</v>
+      </c>
+      <c r="M119" s="36">
+        <v>10</v>
+      </c>
+      <c r="N119" s="36">
+        <v>11</v>
+      </c>
+      <c r="O119" s="36">
+        <v>12</v>
+      </c>
+      <c r="P119" s="36">
+        <v>13</v>
+      </c>
+      <c r="Q119" s="36">
+        <v>14</v>
+      </c>
+      <c r="R119" s="36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="C119" s="38">
-        <v>0</v>
-      </c>
-      <c r="D119" s="38">
-        <v>1</v>
-      </c>
-      <c r="E119" s="38">
-        <v>2</v>
-      </c>
-      <c r="F119" s="38">
-        <v>3</v>
-      </c>
-      <c r="G119" s="38">
-        <v>4</v>
-      </c>
-      <c r="H119" s="38">
-        <v>5</v>
-      </c>
-      <c r="I119" s="38">
-        <v>6</v>
-      </c>
-      <c r="J119" s="38">
-        <v>7</v>
-      </c>
-      <c r="K119" s="38">
-        <v>8</v>
-      </c>
-      <c r="L119" s="38">
-        <v>9</v>
-      </c>
-      <c r="M119" s="38">
-        <v>10</v>
-      </c>
-      <c r="N119" s="38">
-        <v>11</v>
-      </c>
-      <c r="O119" s="38">
-        <v>12</v>
-      </c>
-      <c r="P119" s="38">
-        <v>13</v>
-      </c>
-      <c r="Q119" s="38">
-        <v>14</v>
-      </c>
-      <c r="R119" s="38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="84" t="s">
+      <c r="C120" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C120" s="37" t="s">
+      <c r="D120" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D120" s="37" t="s">
+      <c r="E120" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F120" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G120" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H120" s="171" t="s">
+        <v>65</v>
+      </c>
+      <c r="I120" s="171"/>
+      <c r="J120" s="171"/>
+      <c r="K120" s="171"/>
+      <c r="L120" s="171" t="s">
         <v>153</v>
       </c>
-      <c r="E120" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F120" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G120" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H120" s="168" t="s">
-        <v>65</v>
-      </c>
-      <c r="I120" s="168"/>
-      <c r="J120" s="168"/>
-      <c r="K120" s="168"/>
-      <c r="L120" s="168" t="s">
-        <v>154</v>
-      </c>
-      <c r="M120" s="168"/>
-      <c r="N120" s="168"/>
-      <c r="O120" s="168"/>
-      <c r="P120" s="168" t="s">
+      <c r="M120" s="171"/>
+      <c r="N120" s="171"/>
+      <c r="O120" s="171"/>
+      <c r="P120" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="Q120" s="168"/>
-      <c r="R120" s="168"/>
+      <c r="Q120" s="171"/>
+      <c r="R120" s="171"/>
     </row>
     <row r="121" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C121" s="15"/>
@@ -7316,92 +7312,92 @@
       <c r="R121" s="15"/>
     </row>
     <row r="122" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="36">
+      <c r="C122" s="34">
         <v>16</v>
       </c>
-      <c r="D122" s="36">
+      <c r="D122" s="34">
         <v>17</v>
       </c>
-      <c r="E122" s="36">
+      <c r="E122" s="34">
         <v>18</v>
       </c>
-      <c r="F122" s="36">
+      <c r="F122" s="34">
         <v>19</v>
       </c>
-      <c r="G122" s="36">
+      <c r="G122" s="34">
         <v>20</v>
       </c>
-      <c r="H122" s="36">
+      <c r="H122" s="34">
         <v>21</v>
       </c>
-      <c r="I122" s="36">
+      <c r="I122" s="34">
         <v>22</v>
       </c>
-      <c r="J122" s="36">
+      <c r="J122" s="34">
         <v>23</v>
       </c>
-      <c r="K122" s="36">
+      <c r="K122" s="34">
         <v>24</v>
       </c>
-      <c r="L122" s="36">
+      <c r="L122" s="34">
         <v>25</v>
       </c>
-      <c r="M122" s="36">
+      <c r="M122" s="34">
         <v>26</v>
       </c>
-      <c r="N122" s="36">
+      <c r="N122" s="34">
         <v>27</v>
       </c>
     </row>
     <row r="123" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="36" t="s">
+      <c r="C123" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D123" s="169" t="s">
+      <c r="D123" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="169"/>
-      <c r="F123" s="169"/>
-      <c r="G123" s="169"/>
-      <c r="H123" s="36" t="s">
+      <c r="E123" s="172"/>
+      <c r="F123" s="172"/>
+      <c r="G123" s="172"/>
+      <c r="H123" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I123" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="J123" s="36" t="s">
+      <c r="I123" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="J123" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="K123" s="36" t="s">
+      <c r="K123" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="L123" s="36" t="s">
+      <c r="L123" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="M123" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="M123" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="N123" s="36" t="s">
+      <c r="N123" s="34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="124" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="47"/>
-      <c r="H124" s="47"/>
-      <c r="I124" s="47"/>
-      <c r="J124" s="47"/>
-      <c r="K124" s="47"/>
-      <c r="L124" s="47"/>
-      <c r="M124" s="47"/>
-      <c r="N124" s="47"/>
+    <row r="124" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="46"/>
+      <c r="D124" s="46"/>
+      <c r="E124" s="46"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="45"/>
+      <c r="I124" s="45"/>
+      <c r="J124" s="45"/>
+      <c r="K124" s="45"/>
+      <c r="L124" s="45"/>
+      <c r="M124" s="45"/>
+      <c r="N124" s="45"/>
     </row>
     <row r="125" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="45" t="s">
-        <v>150</v>
+      <c r="B125" s="43" t="s">
+        <v>149</v>
       </c>
       <c r="C125" s="13">
         <v>0</v>
@@ -7421,10 +7417,10 @@
         <v>73</v>
       </c>
       <c r="C126" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D126" s="14" t="s">
         <v>169</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>170</v>
       </c>
       <c r="E126" s="14">
         <v>11</v>
@@ -7433,536 +7429,536 @@
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="46"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="43"/>
-      <c r="E127" s="43"/>
-      <c r="F127" s="43"/>
-    </row>
-    <row r="128" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="45">
+    <row r="127" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="44"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="41"/>
+    </row>
+    <row r="128" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="43">
         <v>5</v>
       </c>
-      <c r="B128" s="83" t="s">
+      <c r="B128" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="C128" s="99">
+        <v>0</v>
+      </c>
+      <c r="D128" s="99">
+        <v>1</v>
+      </c>
+      <c r="E128" s="99">
+        <v>2</v>
+      </c>
+      <c r="F128" s="99">
+        <v>3</v>
+      </c>
+      <c r="G128" s="99">
+        <v>4</v>
+      </c>
+      <c r="H128" s="99">
+        <v>5</v>
+      </c>
+      <c r="I128" s="99">
+        <v>6</v>
+      </c>
+      <c r="J128" s="99">
+        <v>7</v>
+      </c>
+      <c r="K128" s="99">
+        <v>8</v>
+      </c>
+      <c r="L128" s="99">
+        <v>9</v>
+      </c>
+      <c r="M128" s="99">
+        <v>10</v>
+      </c>
+      <c r="N128" s="99">
+        <v>11</v>
+      </c>
+      <c r="O128" s="99">
+        <v>12</v>
+      </c>
+      <c r="P128" s="99">
+        <v>13</v>
+      </c>
+      <c r="Q128" s="99">
+        <v>14</v>
+      </c>
+      <c r="R128" s="99">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" s="100" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="C129" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="D129" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="E129" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="F129" s="101" t="s">
+        <v>250</v>
+      </c>
+      <c r="G129" s="101" t="s">
+        <v>251</v>
+      </c>
+      <c r="H129" s="181" t="s">
+        <v>252</v>
+      </c>
+      <c r="I129" s="181"/>
+      <c r="J129" s="181"/>
+      <c r="K129" s="181"/>
+      <c r="L129" s="181" t="s">
+        <v>253</v>
+      </c>
+      <c r="M129" s="181"/>
+      <c r="N129" s="181"/>
+      <c r="O129" s="181"/>
+      <c r="P129" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q129" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="R129" s="99" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="102"/>
+      <c r="D130" s="102"/>
+      <c r="E130" s="102"/>
+      <c r="F130" s="102"/>
+      <c r="G130" s="102"/>
+      <c r="H130" s="102"/>
+      <c r="I130" s="102"/>
+      <c r="J130" s="102"/>
+      <c r="K130" s="102"/>
+      <c r="L130" s="102"/>
+      <c r="M130" s="102"/>
+      <c r="N130" s="102"/>
+      <c r="O130" s="102"/>
+      <c r="P130" s="102"/>
+      <c r="Q130" s="102"/>
+      <c r="R130" s="102"/>
+    </row>
+    <row r="131" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="99">
+        <v>16</v>
+      </c>
+      <c r="D131" s="99">
+        <v>17</v>
+      </c>
+      <c r="E131" s="99">
+        <v>18</v>
+      </c>
+      <c r="F131" s="99">
+        <v>19</v>
+      </c>
+      <c r="G131" s="99">
+        <v>20</v>
+      </c>
+      <c r="H131" s="99">
+        <v>21</v>
+      </c>
+      <c r="I131" s="99">
+        <v>22</v>
+      </c>
+      <c r="J131" s="99">
+        <v>23</v>
+      </c>
+      <c r="K131" s="99">
+        <v>24</v>
+      </c>
+      <c r="L131" s="99">
+        <v>25</v>
+      </c>
+      <c r="M131" s="99">
+        <v>26</v>
+      </c>
+      <c r="N131" s="99">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="103"/>
+      <c r="C132" s="182" t="s">
+        <v>257</v>
+      </c>
+      <c r="D132" s="183"/>
+      <c r="E132" s="99" t="s">
+        <v>258</v>
+      </c>
+      <c r="F132" s="99">
+        <v>0</v>
+      </c>
+      <c r="G132" s="99">
+        <v>0</v>
+      </c>
+      <c r="H132" s="99" t="s">
+        <v>259</v>
+      </c>
+      <c r="I132" s="99" t="s">
+        <v>260</v>
+      </c>
+      <c r="J132" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="K132" s="99" t="s">
+        <v>262</v>
+      </c>
+      <c r="L132" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="M132" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="N132" s="99" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" s="93" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="94"/>
+      <c r="D133" s="94"/>
+      <c r="E133" s="94"/>
+      <c r="F133" s="94"/>
+      <c r="G133" s="94"/>
+      <c r="H133" s="94"/>
+      <c r="I133" s="94"/>
+      <c r="J133" s="94"/>
+      <c r="K133" s="94"/>
+      <c r="L133" s="94"/>
+      <c r="M133" s="94"/>
+      <c r="N133" s="94"/>
+    </row>
+    <row r="134" spans="1:18" s="103" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="103" t="s">
         <v>270</v>
       </c>
-      <c r="C128" s="101">
+      <c r="C134" s="99">
         <v>0</v>
       </c>
-      <c r="D128" s="101">
+      <c r="D134" s="99">
         <v>1</v>
       </c>
-      <c r="E128" s="101">
+      <c r="E134" s="99">
         <v>2</v>
       </c>
-      <c r="F128" s="101">
+      <c r="F134" s="99">
         <v>3</v>
       </c>
-      <c r="G128" s="101">
+    </row>
+    <row r="135" spans="1:18" s="100" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="D135" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="E135" s="101">
+        <v>11</v>
+      </c>
+      <c r="F135" s="101" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="56">
+        <v>6</v>
+      </c>
+      <c r="B137" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="C137" s="57">
+        <v>0</v>
+      </c>
+      <c r="D137" s="57">
+        <v>1</v>
+      </c>
+      <c r="E137" s="57">
+        <v>2</v>
+      </c>
+      <c r="F137" s="57">
+        <v>3</v>
+      </c>
+      <c r="G137" s="57">
         <v>4</v>
       </c>
-      <c r="H128" s="101">
+      <c r="H137" s="57">
         <v>5</v>
       </c>
-      <c r="I128" s="101">
+      <c r="I137" s="57">
         <v>6</v>
       </c>
-      <c r="J128" s="101">
+      <c r="J137" s="57">
         <v>7</v>
       </c>
-      <c r="K128" s="101">
+      <c r="K137" s="57">
         <v>8</v>
       </c>
-      <c r="L128" s="101">
+      <c r="L137" s="57">
         <v>9</v>
       </c>
-      <c r="M128" s="101">
+      <c r="M137" s="57">
         <v>10</v>
       </c>
-      <c r="N128" s="101">
+      <c r="N137" s="57">
         <v>11</v>
       </c>
-      <c r="O128" s="101">
+      <c r="O137" s="57">
         <v>12</v>
       </c>
-      <c r="P128" s="101">
+      <c r="P137" s="57">
         <v>13</v>
       </c>
-      <c r="Q128" s="101">
+      <c r="Q137" s="57">
         <v>14</v>
       </c>
-      <c r="R128" s="101">
+      <c r="R137" s="57">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:18" s="102" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="83" t="s">
-        <v>247</v>
-      </c>
-      <c r="C129" s="103" t="s">
-        <v>248</v>
-      </c>
-      <c r="D129" s="103" t="s">
-        <v>249</v>
-      </c>
-      <c r="E129" s="103" t="s">
-        <v>250</v>
-      </c>
-      <c r="F129" s="103" t="s">
-        <v>251</v>
-      </c>
-      <c r="G129" s="103" t="s">
-        <v>252</v>
-      </c>
-      <c r="H129" s="178" t="s">
-        <v>253</v>
-      </c>
-      <c r="I129" s="178"/>
-      <c r="J129" s="178"/>
-      <c r="K129" s="178"/>
-      <c r="L129" s="178" t="s">
-        <v>254</v>
-      </c>
-      <c r="M129" s="178"/>
-      <c r="N129" s="178"/>
-      <c r="O129" s="178"/>
-      <c r="P129" s="101" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q129" s="101" t="s">
-        <v>256</v>
-      </c>
-      <c r="R129" s="101" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="104"/>
-      <c r="D130" s="104"/>
-      <c r="E130" s="104"/>
-      <c r="F130" s="104"/>
-      <c r="G130" s="104"/>
-      <c r="H130" s="104"/>
-      <c r="I130" s="104"/>
-      <c r="J130" s="104"/>
-      <c r="K130" s="104"/>
-      <c r="L130" s="104"/>
-      <c r="M130" s="104"/>
-      <c r="N130" s="104"/>
-      <c r="O130" s="104"/>
-      <c r="P130" s="104"/>
-      <c r="Q130" s="104"/>
-      <c r="R130" s="104"/>
-    </row>
-    <row r="131" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="101">
-        <v>16</v>
-      </c>
-      <c r="D131" s="101">
-        <v>17</v>
-      </c>
-      <c r="E131" s="101">
-        <v>18</v>
-      </c>
-      <c r="F131" s="101">
-        <v>19</v>
-      </c>
-      <c r="G131" s="101">
-        <v>20</v>
-      </c>
-      <c r="H131" s="101">
+    <row r="138" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C138" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I131" s="101">
-        <v>22</v>
-      </c>
-      <c r="J131" s="101">
-        <v>23</v>
-      </c>
-      <c r="K131" s="101">
-        <v>24</v>
-      </c>
-      <c r="L131" s="101">
-        <v>25</v>
-      </c>
-      <c r="M131" s="101">
-        <v>26</v>
-      </c>
-      <c r="N131" s="101">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="105"/>
-      <c r="C132" s="179" t="s">
-        <v>258</v>
-      </c>
-      <c r="D132" s="180"/>
-      <c r="E132" s="101" t="s">
-        <v>259</v>
-      </c>
-      <c r="F132" s="101">
+      <c r="D138" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E138" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="F138" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="G138" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H138" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="I138" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="J138" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="K138" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="L138" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="M138" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="N138" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O138" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="P138" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q138" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="R138" s="59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C139" s="60"/>
+      <c r="D139" s="60"/>
+      <c r="E139" s="60"/>
+      <c r="F139" s="60"/>
+      <c r="G139" s="60"/>
+      <c r="H139" s="60"/>
+      <c r="I139" s="60"/>
+      <c r="J139" s="60"/>
+      <c r="K139" s="60"/>
+      <c r="L139" s="60"/>
+      <c r="M139" s="60"/>
+      <c r="N139" s="60"/>
+    </row>
+    <row r="140" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C140" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D140" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F140" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="G140" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="H140" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="I140" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="J140" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="K140" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="L140" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="M140" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="N140" s="59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C141" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D141" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E141" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F141" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="G141" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="H141" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="I141" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J141" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="K141" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="L141" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="M141" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="N141" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="C143" s="57">
         <v>0</v>
       </c>
-      <c r="G132" s="101">
-        <v>0</v>
-      </c>
-      <c r="H132" s="101" t="s">
-        <v>260</v>
-      </c>
-      <c r="I132" s="101" t="s">
-        <v>261</v>
-      </c>
-      <c r="J132" s="101" t="s">
-        <v>262</v>
-      </c>
-      <c r="K132" s="101" t="s">
-        <v>263</v>
-      </c>
-      <c r="L132" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="M132" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="N132" s="101" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" s="95" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="96"/>
-      <c r="D133" s="96"/>
-      <c r="E133" s="96"/>
-      <c r="F133" s="96"/>
-      <c r="G133" s="96"/>
-      <c r="H133" s="96"/>
-      <c r="I133" s="96"/>
-      <c r="J133" s="96"/>
-      <c r="K133" s="96"/>
-      <c r="L133" s="96"/>
-      <c r="M133" s="96"/>
-      <c r="N133" s="96"/>
-    </row>
-    <row r="134" spans="1:18" s="105" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="105" t="s">
-        <v>271</v>
-      </c>
-      <c r="C134" s="101">
-        <v>0</v>
-      </c>
-      <c r="D134" s="101">
+      <c r="D143" s="57">
         <v>1</v>
       </c>
-      <c r="E134" s="101">
+      <c r="E143" s="57">
         <v>2</v>
       </c>
-      <c r="F134" s="101">
+      <c r="F143" s="57">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" s="102" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="102" t="s">
-        <v>168</v>
-      </c>
-      <c r="C135" s="103" t="s">
-        <v>248</v>
-      </c>
-      <c r="D135" s="103" t="s">
-        <v>249</v>
-      </c>
-      <c r="E135" s="103">
+      <c r="G143" s="57">
+        <v>4</v>
+      </c>
+      <c r="H143" s="57">
+        <v>5</v>
+      </c>
+      <c r="I143" s="57">
+        <v>6</v>
+      </c>
+      <c r="J143" s="57">
+        <v>7</v>
+      </c>
+      <c r="K143" s="57">
+        <v>8</v>
+      </c>
+      <c r="L143" s="57">
+        <v>9</v>
+      </c>
+      <c r="M143" s="57">
+        <v>10</v>
+      </c>
+      <c r="N143" s="57">
         <v>11</v>
       </c>
-      <c r="F135" s="103" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" s="58" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="58">
-        <v>6</v>
-      </c>
-      <c r="B137" s="86" t="s">
-        <v>211</v>
-      </c>
-      <c r="C137" s="59">
-        <v>0</v>
-      </c>
-      <c r="D137" s="59">
-        <v>1</v>
-      </c>
-      <c r="E137" s="59">
-        <v>2</v>
-      </c>
-      <c r="F137" s="59">
-        <v>3</v>
-      </c>
-      <c r="G137" s="59">
-        <v>4</v>
-      </c>
-      <c r="H137" s="59">
-        <v>5</v>
-      </c>
-      <c r="I137" s="59">
-        <v>6</v>
-      </c>
-      <c r="J137" s="59">
-        <v>7</v>
-      </c>
-      <c r="K137" s="59">
-        <v>8</v>
-      </c>
-      <c r="L137" s="59">
-        <v>9</v>
-      </c>
-      <c r="M137" s="59">
-        <v>10</v>
-      </c>
-      <c r="N137" s="59">
-        <v>11</v>
-      </c>
-      <c r="O137" s="59">
+      <c r="O143" s="57">
         <v>12</v>
       </c>
-      <c r="P137" s="59">
+      <c r="P143" s="57">
         <v>13</v>
       </c>
-      <c r="Q137" s="59">
+      <c r="Q143" s="57">
         <v>14</v>
       </c>
-      <c r="R137" s="59">
+      <c r="R143" s="57">
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:18" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="61" t="s">
+    <row r="144" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C144" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D138" s="61" t="s">
+      <c r="D144" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E138" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="F138" s="61" t="s">
+      <c r="E144" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="G138" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="H138" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="I138" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="J138" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="K138" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="L138" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="M138" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="N138" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="O138" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="P138" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q138" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="R138" s="61" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="62"/>
-      <c r="D139" s="62"/>
-      <c r="E139" s="62"/>
-      <c r="F139" s="62"/>
-      <c r="G139" s="62"/>
-      <c r="H139" s="62"/>
-      <c r="I139" s="62"/>
-      <c r="J139" s="62"/>
-      <c r="K139" s="62"/>
-      <c r="L139" s="62"/>
-      <c r="M139" s="62"/>
-      <c r="N139" s="62"/>
-    </row>
-    <row r="140" spans="1:18" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C140" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="D140" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E140" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="F140" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="G140" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="H140" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="I140" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="J140" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="K140" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="L140" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="M140" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="N140" s="61" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C141" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="D141" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E141" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="F141" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="G141" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H141" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="I141" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J141" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="K141" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="L141" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="M141" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="N141" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="63" t="s">
+      <c r="F144" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="G144" s="164" t="s">
+        <v>192</v>
+      </c>
+      <c r="H144" s="165"/>
+      <c r="I144" s="165"/>
+      <c r="J144" s="166"/>
+      <c r="K144" s="164" t="s">
         <v>197</v>
       </c>
-      <c r="C143" s="59">
-        <v>0</v>
-      </c>
-      <c r="D143" s="59">
-        <v>1</v>
-      </c>
-      <c r="E143" s="59">
-        <v>2</v>
-      </c>
-      <c r="F143" s="59">
-        <v>3</v>
-      </c>
-      <c r="G143" s="59">
-        <v>4</v>
-      </c>
-      <c r="H143" s="59">
-        <v>5</v>
-      </c>
-      <c r="I143" s="59">
-        <v>6</v>
-      </c>
-      <c r="J143" s="59">
-        <v>7</v>
-      </c>
-      <c r="K143" s="59">
-        <v>8</v>
-      </c>
-      <c r="L143" s="59">
-        <v>9</v>
-      </c>
-      <c r="M143" s="59">
-        <v>10</v>
-      </c>
-      <c r="N143" s="59">
-        <v>11</v>
-      </c>
-      <c r="O143" s="59">
-        <v>12</v>
-      </c>
-      <c r="P143" s="59">
-        <v>13</v>
-      </c>
-      <c r="Q143" s="59">
-        <v>14</v>
-      </c>
-      <c r="R143" s="59">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="D144" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="E144" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="F144" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G144" s="161" t="s">
+      <c r="L144" s="165"/>
+      <c r="M144" s="165"/>
+      <c r="N144" s="166"/>
+      <c r="O144" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="H144" s="162"/>
-      <c r="I144" s="162"/>
-      <c r="J144" s="163"/>
-      <c r="K144" s="161" t="s">
-        <v>198</v>
-      </c>
-      <c r="L144" s="162"/>
-      <c r="M144" s="162"/>
-      <c r="N144" s="163"/>
-      <c r="O144" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="P144" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q144" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="R144" s="59" t="s">
+      <c r="P144" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q144" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="R144" s="57" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7984,11 +7980,11 @@
     <mergeCell ref="D69:G69"/>
     <mergeCell ref="M14:P14"/>
     <mergeCell ref="M15:P15"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L42:O42"/>
     <mergeCell ref="M50:P50"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="D33:G33"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
     <mergeCell ref="G144:J144"/>
     <mergeCell ref="K144:N144"/>
     <mergeCell ref="D23:G23"/>
@@ -8017,561 +8013,561 @@
   <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C8" sqref="C8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.5" style="121" customWidth="1"/>
-    <col min="3" max="7" width="9" style="120"/>
-    <col min="8" max="8" width="15.875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="119" customWidth="1"/>
+    <col min="3" max="7" width="9" style="118"/>
+    <col min="8" max="8" width="15.875" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="125" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="187" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="184" t="s">
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="126" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="128" t="s">
+    </row>
+    <row r="3" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="184" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="186"/>
+    </row>
+    <row r="4" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="120" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="181" t="s">
+      <c r="C4" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="121" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" s="121" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" s="70">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="121" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="121" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="121" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="121" t="s">
+        <v>312</v>
+      </c>
+      <c r="H5" s="70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="122" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="121" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="121" t="s">
+        <v>310</v>
+      </c>
+      <c r="F6" s="121" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="121" t="s">
+        <v>313</v>
+      </c>
+      <c r="H6" s="70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="122" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="121" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="121" t="s">
+        <v>313</v>
+      </c>
+      <c r="G7" s="121" t="s">
+        <v>314</v>
+      </c>
+      <c r="H7" s="70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="122" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="121" t="s">
+        <v>310</v>
+      </c>
+      <c r="F8" s="121" t="s">
+        <v>315</v>
+      </c>
+      <c r="G8" s="121" t="s">
+        <v>315</v>
+      </c>
+      <c r="H8" s="70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="121" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" s="121" t="s">
+        <v>310</v>
+      </c>
+      <c r="F9" s="121" t="s">
+        <v>311</v>
+      </c>
+      <c r="G9" s="121" t="s">
+        <v>315</v>
+      </c>
+      <c r="H9" s="70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="136" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="122" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" s="121" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="121" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" s="121" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" s="70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="148" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="146" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="147" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="147" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="147" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" s="147" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" s="140">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="122" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" s="121" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" s="121" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="121" t="s">
+        <v>317</v>
+      </c>
+      <c r="G12" s="121" t="s">
+        <v>318</v>
+      </c>
+      <c r="H12" s="70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="122" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="121" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>310</v>
+      </c>
+      <c r="F13" s="121" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" s="121" t="s">
+        <v>317</v>
+      </c>
+      <c r="H13" s="70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" s="121" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" s="121" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" s="121" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" s="121" t="s">
+        <v>319</v>
+      </c>
+      <c r="H14" s="70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="188" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="183"/>
-    </row>
-    <row r="4" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="122" t="s">
+      <c r="C15" s="189"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="190"/>
+    </row>
+    <row r="16" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="D16" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="E16" s="121" t="s">
+        <v>320</v>
+      </c>
+      <c r="F16" s="121" t="s">
+        <v>321</v>
+      </c>
+      <c r="G16" s="121" t="s">
+        <v>285</v>
+      </c>
+      <c r="H16" s="70">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="122" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="121" t="s">
+        <v>320</v>
+      </c>
+      <c r="F17" s="121" t="s">
+        <v>321</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="70">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="122" t="s">
+        <v>297</v>
+      </c>
+      <c r="C18" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18" s="121" t="s">
+        <v>320</v>
+      </c>
+      <c r="F18" s="121" t="s">
+        <v>321</v>
+      </c>
+      <c r="G18" s="127"/>
+      <c r="H18" s="70">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="188" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="189"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="190"/>
+    </row>
+    <row r="20" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="122" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D20" s="121" t="s">
+        <v>322</v>
+      </c>
+      <c r="E20" s="121" t="s">
         <v>283</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="F20" s="121" t="s">
         <v>284</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="G20" s="121" t="s">
         <v>285</v>
       </c>
-      <c r="G4" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="H4" s="72">
+      <c r="H20" s="70">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="124" t="s">
-        <v>287</v>
-      </c>
-      <c r="C5" s="123" t="s">
+    <row r="21" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="122" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" s="121" t="s">
+        <v>322</v>
+      </c>
+      <c r="E21" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="122" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="121" t="s">
+        <v>322</v>
+      </c>
+      <c r="D22" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="E22" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="F22" s="121" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="121" t="s">
+        <v>285</v>
+      </c>
+      <c r="H22" s="70">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="121" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="122" t="s">
+        <v>305</v>
+      </c>
+      <c r="C24" s="121" t="s">
+        <v>323</v>
+      </c>
+      <c r="D24" s="121" t="s">
+        <v>324</v>
+      </c>
+      <c r="E24" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="F24" s="121" t="s">
+        <v>284</v>
+      </c>
+      <c r="G24" s="121" t="s">
+        <v>285</v>
+      </c>
+      <c r="H24" s="70">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="122" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" s="121" t="s">
+        <v>323</v>
+      </c>
+      <c r="D25" s="121" t="s">
+        <v>324</v>
+      </c>
+      <c r="E25" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="184" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="185"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="186"/>
+    </row>
+    <row r="27" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="120" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="123" t="s">
-        <v>310</v>
-      </c>
-      <c r="E5" s="123" t="s">
-        <v>311</v>
-      </c>
-      <c r="F5" s="123" t="s">
-        <v>312</v>
-      </c>
-      <c r="G5" s="123" t="s">
-        <v>313</v>
-      </c>
-      <c r="H5" s="72">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6" s="123" t="s">
+      <c r="E27" s="121" t="s">
+        <v>284</v>
+      </c>
+      <c r="F27" s="121" t="s">
+        <v>320</v>
+      </c>
+      <c r="G27" s="121" t="s">
+        <v>285</v>
+      </c>
+      <c r="H27" s="70">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="123" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" s="124" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="123" t="s">
-        <v>310</v>
-      </c>
-      <c r="E6" s="123" t="s">
-        <v>311</v>
-      </c>
-      <c r="F6" s="123" t="s">
-        <v>314</v>
-      </c>
-      <c r="G6" s="123" t="s">
-        <v>314</v>
-      </c>
-      <c r="H6" s="72">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="124" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="123" t="s">
-        <v>310</v>
-      </c>
-      <c r="E7" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="F7" s="123" t="s">
-        <v>314</v>
-      </c>
-      <c r="G7" s="123" t="s">
-        <v>315</v>
-      </c>
-      <c r="H7" s="72">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="124" t="s">
-        <v>290</v>
-      </c>
-      <c r="C8" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="123" t="s">
-        <v>310</v>
-      </c>
-      <c r="E8" s="123" t="s">
-        <v>311</v>
-      </c>
-      <c r="F8" s="123" t="s">
-        <v>316</v>
-      </c>
-      <c r="G8" s="123" t="s">
-        <v>316</v>
-      </c>
-      <c r="H8" s="72">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="124" t="s">
-        <v>291</v>
-      </c>
-      <c r="C9" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="123" t="s">
-        <v>310</v>
-      </c>
-      <c r="E9" s="123" t="s">
-        <v>311</v>
-      </c>
-      <c r="F9" s="123" t="s">
-        <v>312</v>
-      </c>
-      <c r="G9" s="123" t="s">
-        <v>316</v>
-      </c>
-      <c r="H9" s="72">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" s="138" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="124" t="s">
-        <v>292</v>
-      </c>
-      <c r="C10" s="123" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="123" t="s">
-        <v>310</v>
-      </c>
-      <c r="E10" s="123" t="s">
-        <v>311</v>
-      </c>
-      <c r="F10" s="123" t="s">
-        <v>314</v>
-      </c>
-      <c r="G10" s="123" t="s">
-        <v>317</v>
-      </c>
-      <c r="H10" s="72">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" s="190" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="188" t="s">
-        <v>340</v>
-      </c>
-      <c r="C11" s="189" t="s">
-        <v>282</v>
-      </c>
-      <c r="D11" s="189" t="s">
-        <v>310</v>
-      </c>
-      <c r="E11" s="189" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="189" t="s">
-        <v>314</v>
-      </c>
-      <c r="G11" s="189" t="s">
-        <v>317</v>
-      </c>
-      <c r="H11" s="142">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="C12" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="D12" s="123" t="s">
-        <v>310</v>
-      </c>
-      <c r="E12" s="123" t="s">
-        <v>311</v>
-      </c>
-      <c r="F12" s="123" t="s">
-        <v>318</v>
-      </c>
-      <c r="G12" s="123" t="s">
-        <v>319</v>
-      </c>
-      <c r="H12" s="72">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="124" t="s">
-        <v>294</v>
-      </c>
-      <c r="C13" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="D13" s="123" t="s">
-        <v>310</v>
-      </c>
-      <c r="E13" s="123" t="s">
-        <v>311</v>
-      </c>
-      <c r="F13" s="123" t="s">
-        <v>317</v>
-      </c>
-      <c r="G13" s="123" t="s">
-        <v>318</v>
-      </c>
-      <c r="H13" s="72">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="124" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="D14" s="123" t="s">
-        <v>310</v>
-      </c>
-      <c r="E14" s="123" t="s">
-        <v>311</v>
-      </c>
-      <c r="F14" s="123" t="s">
+      <c r="E28" s="124" t="s">
         <v>320</v>
       </c>
-      <c r="G14" s="123" t="s">
-        <v>320</v>
-      </c>
-      <c r="H14" s="72">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="185" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="187"/>
-    </row>
-    <row r="16" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="122" t="s">
-        <v>296</v>
-      </c>
-      <c r="C16" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="D16" s="123" t="s">
-        <v>283</v>
-      </c>
-      <c r="E16" s="123" t="s">
-        <v>321</v>
-      </c>
-      <c r="F16" s="123" t="s">
-        <v>322</v>
-      </c>
-      <c r="G16" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="H16" s="72">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="124" t="s">
-        <v>297</v>
-      </c>
-      <c r="C17" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="D17" s="123" t="s">
-        <v>283</v>
-      </c>
-      <c r="E17" s="123" t="s">
-        <v>321</v>
-      </c>
-      <c r="F17" s="123" t="s">
-        <v>322</v>
-      </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="72">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="124" t="s">
-        <v>298</v>
-      </c>
-      <c r="C18" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="D18" s="123" t="s">
-        <v>283</v>
-      </c>
-      <c r="E18" s="123" t="s">
-        <v>321</v>
-      </c>
-      <c r="F18" s="123" t="s">
-        <v>322</v>
-      </c>
-      <c r="G18" s="129"/>
-      <c r="H18" s="72">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="185" t="s">
-        <v>302</v>
-      </c>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="187"/>
-    </row>
-    <row r="20" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="124" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="D20" s="123" t="s">
-        <v>323</v>
-      </c>
-      <c r="E20" s="123" t="s">
-        <v>284</v>
-      </c>
-      <c r="F20" s="123" t="s">
-        <v>285</v>
-      </c>
-      <c r="G20" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="H20" s="72">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="124" t="s">
-        <v>303</v>
-      </c>
-      <c r="C21" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="D21" s="123" t="s">
-        <v>323</v>
-      </c>
-      <c r="E21" s="123" t="s">
-        <v>284</v>
-      </c>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="124" t="s">
-        <v>304</v>
-      </c>
-      <c r="C22" s="123" t="s">
-        <v>323</v>
-      </c>
-      <c r="D22" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="E22" s="123" t="s">
-        <v>284</v>
-      </c>
-      <c r="F22" s="123" t="s">
-        <v>285</v>
-      </c>
-      <c r="G22" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="H22" s="72">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="124" t="s">
-        <v>305</v>
-      </c>
-      <c r="C23" s="123" t="s">
-        <v>323</v>
-      </c>
-      <c r="D23" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="E23" s="123" t="s">
-        <v>284</v>
-      </c>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="124" t="s">
-        <v>306</v>
-      </c>
-      <c r="C24" s="123" t="s">
-        <v>324</v>
-      </c>
-      <c r="D24" s="123" t="s">
+      <c r="F28" s="124" t="s">
         <v>325</v>
       </c>
-      <c r="E24" s="123" t="s">
-        <v>284</v>
-      </c>
-      <c r="F24" s="123" t="s">
-        <v>285</v>
-      </c>
-      <c r="G24" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="H24" s="72">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="124" t="s">
-        <v>307</v>
-      </c>
-      <c r="C25" s="123" t="s">
-        <v>324</v>
-      </c>
-      <c r="D25" s="123" t="s">
-        <v>325</v>
-      </c>
-      <c r="E25" s="123" t="s">
-        <v>284</v>
-      </c>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="181" t="s">
-        <v>308</v>
-      </c>
-      <c r="C26" s="182"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="182"/>
-      <c r="F26" s="182"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="183"/>
-    </row>
-    <row r="27" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="122" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="D27" s="123" t="s">
-        <v>283</v>
-      </c>
-      <c r="E27" s="123" t="s">
-        <v>285</v>
-      </c>
-      <c r="F27" s="123" t="s">
-        <v>321</v>
-      </c>
-      <c r="G27" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="H27" s="72">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="125" t="s">
-        <v>309</v>
-      </c>
-      <c r="C28" s="126" t="s">
-        <v>282</v>
-      </c>
-      <c r="D28" s="126" t="s">
-        <v>283</v>
-      </c>
-      <c r="E28" s="126" t="s">
-        <v>321</v>
-      </c>
-      <c r="F28" s="126" t="s">
-        <v>326</v>
-      </c>
-      <c r="G28" s="129"/>
-      <c r="H28" s="71">
+      <c r="G28" s="127"/>
+      <c r="H28" s="69">
         <v>16</v>
       </c>
     </row>

--- a/相关资料/01 通讯协议/航安LED灯具通讯协议.xlsx
+++ b/相关资料/01 通讯协议/航安LED灯具通讯协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="驱动对照表" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="344">
   <si>
     <t>RMS1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1399,6 +1399,10 @@
   </si>
   <si>
     <t>shock2(次数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2120,9 +2124,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2151,9 +2152,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2339,22 +2337,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2378,6 +2382,42 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2387,9 +2427,6 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2403,39 +2440,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2765,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2853,7 +2857,7 @@
       <c r="E9" s="77"/>
       <c r="F9" s="77"/>
       <c r="G9" s="77"/>
-      <c r="H9" s="87"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="76"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2866,7 +2870,7 @@
       <c r="E10" s="77"/>
       <c r="F10" s="77"/>
       <c r="G10" s="77"/>
-      <c r="H10" s="87"/>
+      <c r="H10" s="86"/>
       <c r="I10" s="76"/>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2879,86 +2883,86 @@
       <c r="E11" s="77"/>
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
-      <c r="H11" s="87"/>
+      <c r="H11" s="86"/>
       <c r="I11" s="76"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="130">
+      <c r="D12" s="128">
         <v>4</v>
       </c>
-      <c r="E12" s="130">
+      <c r="E12" s="128">
         <v>5</v>
       </c>
-      <c r="F12" s="86">
+      <c r="F12" s="85">
         <v>1</v>
       </c>
-      <c r="G12" s="92" t="s">
+      <c r="G12" s="90" t="s">
         <v>327</v>
       </c>
-      <c r="H12" s="88" t="s">
+      <c r="H12" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="I12" s="141" t="s">
+      <c r="I12" s="139" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="136" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" s="134" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="151" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="154">
+      <c r="D13" s="153">
         <v>5</v>
       </c>
-      <c r="E13" s="154">
+      <c r="E13" s="153">
         <v>6</v>
       </c>
-      <c r="F13" s="86">
+      <c r="F13" s="85">
         <v>1</v>
       </c>
-      <c r="G13" s="92" t="s">
+      <c r="G13" s="90" t="s">
         <v>329</v>
       </c>
-      <c r="H13" s="88" t="s">
+      <c r="H13" s="87" t="s">
         <v>330</v>
       </c>
-      <c r="I13" s="133" t="s">
+      <c r="I13" s="131" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="131" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="152"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="86">
+    <row r="14" spans="1:11" s="129" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="155"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="85">
         <v>1</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G14" s="85">
         <v>3</v>
       </c>
-      <c r="H14" s="132" t="s">
+      <c r="H14" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="I14" s="133" t="s">
+      <c r="I14" s="131" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="137" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="153"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="138">
+    <row r="15" spans="1:11" s="135" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="152"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="136">
         <v>1</v>
       </c>
-      <c r="G15" s="138">
+      <c r="G15" s="136">
         <v>2</v>
       </c>
-      <c r="H15" s="139" t="s">
+      <c r="H15" s="137" t="s">
         <v>204</v>
       </c>
-      <c r="I15" s="140" t="s">
+      <c r="I15" s="138" t="s">
         <v>332</v>
       </c>
     </row>
@@ -2974,7 +2978,7 @@
       </c>
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
-      <c r="H16" s="87"/>
+      <c r="H16" s="86"/>
       <c r="I16" s="76"/>
       <c r="K16" t="s">
         <v>328</v>
@@ -2992,17 +2996,17 @@
       </c>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
-      <c r="H17" s="87"/>
+      <c r="H17" s="86"/>
       <c r="I17" s="76"/>
     </row>
     <row r="18" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="154">
+      <c r="D18" s="153">
         <v>8</v>
       </c>
-      <c r="E18" s="154">
+      <c r="E18" s="153">
         <v>0</v>
       </c>
       <c r="F18" s="74">
@@ -3011,27 +3015,27 @@
       <c r="G18" s="74">
         <v>3</v>
       </c>
-      <c r="H18" s="88" t="s">
+      <c r="H18" s="87" t="s">
         <v>201</v>
       </c>
       <c r="I18" s="70" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="3:9" s="107" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="153"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="116">
+    <row r="19" spans="3:9" s="105" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="152"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="114">
         <v>1</v>
       </c>
-      <c r="G19" s="116">
+      <c r="G19" s="114">
         <v>4</v>
       </c>
-      <c r="H19" s="117" t="s">
+      <c r="H19" s="115" t="s">
         <v>273</v>
       </c>
-      <c r="I19" s="106" t="s">
+      <c r="I19" s="104" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3039,10 +3043,10 @@
       <c r="C20" s="151" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="154">
+      <c r="D20" s="153">
         <v>8</v>
       </c>
-      <c r="E20" s="154">
+      <c r="E20" s="153">
         <v>4</v>
       </c>
       <c r="F20" s="74">
@@ -3051,50 +3055,50 @@
       <c r="G20" s="74">
         <v>1</v>
       </c>
-      <c r="H20" s="88" t="s">
+      <c r="H20" s="87" t="s">
         <v>205</v>
       </c>
       <c r="I20" s="70" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="3:9" s="136" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="153"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="138">
+    <row r="21" spans="3:9" s="134" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="152"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="136">
         <v>1</v>
       </c>
-      <c r="G21" s="138">
+      <c r="G21" s="136">
         <v>2</v>
       </c>
-      <c r="H21" s="139" t="s">
+      <c r="H21" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="I21" s="140" t="s">
+      <c r="I21" s="138" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="3:9" s="107" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="104" t="s">
+    <row r="22" spans="3:9" s="105" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="105">
+      <c r="D22" s="103">
         <v>9</v>
       </c>
-      <c r="E22" s="105">
+      <c r="E22" s="103">
         <v>9</v>
       </c>
-      <c r="F22" s="105">
+      <c r="F22" s="103">
         <v>2</v>
       </c>
-      <c r="G22" s="105">
+      <c r="G22" s="103">
         <v>0</v>
       </c>
-      <c r="H22" s="105" t="s">
+      <c r="H22" s="103" t="s">
         <v>204</v>
       </c>
-      <c r="I22" s="128" t="s">
+      <c r="I22" s="126" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3108,7 +3112,7 @@
       <c r="E23" s="77"/>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
-      <c r="H23" s="87"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="76"/>
     </row>
     <row r="24" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3121,17 +3125,17 @@
       <c r="E24" s="77"/>
       <c r="F24" s="77"/>
       <c r="G24" s="77"/>
-      <c r="H24" s="87"/>
+      <c r="H24" s="86"/>
       <c r="I24" s="76"/>
     </row>
     <row r="25" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="151" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="154">
+      <c r="D25" s="153">
         <v>12</v>
       </c>
-      <c r="E25" s="154">
+      <c r="E25" s="153">
         <v>0</v>
       </c>
       <c r="F25" s="74">
@@ -3140,27 +3144,27 @@
       <c r="G25" s="74">
         <v>3</v>
       </c>
-      <c r="H25" s="88" t="s">
+      <c r="H25" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="I25" s="90" t="s">
+      <c r="I25" s="88" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="153"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="85">
+      <c r="C26" s="152"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="84">
         <v>1</v>
       </c>
-      <c r="G26" s="85">
+      <c r="G26" s="84">
         <v>2</v>
       </c>
-      <c r="H26" s="88" t="s">
+      <c r="H26" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="90" t="s">
+      <c r="I26" s="88" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3180,31 +3184,31 @@
       <c r="G27" s="74">
         <v>0</v>
       </c>
-      <c r="H27" s="88" t="s">
+      <c r="H27" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="I27" s="90" t="s">
+      <c r="I27" s="88" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="28" spans="3:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="79">
+      <c r="D28" s="78">
         <v>13</v>
       </c>
-      <c r="E28" s="79">
+      <c r="E28" s="78">
         <v>2</v>
       </c>
-      <c r="F28" s="79">
+      <c r="F28" s="78">
         <v>1</v>
       </c>
-      <c r="G28" s="79">
-        <v>0</v>
-      </c>
-      <c r="H28" s="89" t="s">
-        <v>201</v>
+      <c r="G28" s="78">
+        <v>3</v>
+      </c>
+      <c r="H28" s="149" t="s">
+        <v>343</v>
       </c>
       <c r="I28" s="69" t="s">
         <v>213</v>
@@ -3221,12 +3225,12 @@
       </c>
     </row>
     <row r="38" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="89" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="91" t="s">
+      <c r="C39" s="89" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3241,15 +3245,15 @@
       </c>
     </row>
     <row r="42" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="134" t="s">
+      <c r="C42" s="132" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="43" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="135"/>
+      <c r="C43" s="133"/>
     </row>
     <row r="44" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="136"/>
+      <c r="C44" s="134"/>
       <c r="D44" s="37" t="s">
         <v>337</v>
       </c>
@@ -3259,6 +3263,14 @@
     <row r="47" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
@@ -3268,14 +3280,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3290,8 +3294,8 @@
   </sheetPr>
   <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD42"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3317,7 +3321,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="9">
@@ -3776,12 +3780,12 @@
       <c r="L14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="167" t="s">
+      <c r="M14" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="167"/>
-      <c r="O14" s="167"/>
-      <c r="P14" s="167"/>
+      <c r="N14" s="175"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="175"/>
       <c r="Q14" s="27" t="s">
         <v>276</v>
       </c>
@@ -3823,12 +3827,12 @@
       <c r="L15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="167" t="s">
+      <c r="M15" s="175" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="167"/>
-      <c r="O15" s="167"/>
-      <c r="P15" s="167"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="175"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
@@ -4071,13 +4075,13 @@
       <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="167" t="s">
+      <c r="D23" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="108" t="s">
+      <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="106" t="s">
         <v>276</v>
       </c>
       <c r="I23" s="9" t="s">
@@ -4118,12 +4122,12 @@
       <c r="C24" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="168" t="s">
+      <c r="D24" s="179" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="170"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="181"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -4136,7 +4140,7 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
     </row>
-    <row r="25" spans="2:18" s="96" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:18" s="94" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="47" t="s">
         <v>122</v>
@@ -4162,52 +4166,52 @@
       <c r="B27" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="C27" s="108">
+      <c r="C27" s="106">
         <v>0</v>
       </c>
-      <c r="D27" s="108">
+      <c r="D27" s="106">
         <v>1</v>
       </c>
-      <c r="E27" s="108">
+      <c r="E27" s="106">
         <v>2</v>
       </c>
-      <c r="F27" s="108">
+      <c r="F27" s="106">
         <v>3</v>
       </c>
-      <c r="G27" s="108">
+      <c r="G27" s="106">
         <v>4</v>
       </c>
-      <c r="H27" s="108">
+      <c r="H27" s="106">
         <v>5</v>
       </c>
-      <c r="I27" s="108">
+      <c r="I27" s="106">
         <v>6</v>
       </c>
-      <c r="J27" s="108">
+      <c r="J27" s="106">
         <v>7</v>
       </c>
-      <c r="K27" s="108">
+      <c r="K27" s="106">
         <v>8</v>
       </c>
-      <c r="L27" s="108">
+      <c r="L27" s="106">
         <v>9</v>
       </c>
-      <c r="M27" s="108">
+      <c r="M27" s="106">
         <v>10</v>
       </c>
-      <c r="N27" s="108">
+      <c r="N27" s="106">
         <v>11</v>
       </c>
-      <c r="O27" s="108">
+      <c r="O27" s="106">
         <v>12</v>
       </c>
-      <c r="P27" s="108">
+      <c r="P27" s="106">
         <v>13</v>
       </c>
-      <c r="Q27" s="108">
+      <c r="Q27" s="106">
         <v>14</v>
       </c>
-      <c r="R27" s="108">
+      <c r="R27" s="106">
         <v>15</v>
       </c>
     </row>
@@ -4215,7 +4219,7 @@
       <c r="C28" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="108" t="s">
+      <c r="D28" s="106" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="63" t="s">
@@ -4224,40 +4228,40 @@
       <c r="F28" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="108" t="s">
+      <c r="G28" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="108" t="s">
+      <c r="H28" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="108" t="s">
+      <c r="I28" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="J28" s="108" t="s">
+      <c r="J28" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="K28" s="108" t="s">
+      <c r="K28" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="108" t="s">
+      <c r="L28" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="M28" s="108" t="s">
+      <c r="M28" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="108" t="s">
+      <c r="N28" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="O28" s="108" t="s">
+      <c r="O28" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="P28" s="108" t="s">
+      <c r="P28" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="Q28" s="108" t="s">
+      <c r="Q28" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="R28" s="108" t="s">
+      <c r="R28" s="106" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4265,154 +4269,154 @@
       <c r="B29" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108" t="s">
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="108" t="s">
+      <c r="I29" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="J29" s="108" t="s">
+      <c r="J29" s="106" t="s">
         <v>267</v>
       </c>
-      <c r="K29" s="108" t="s">
+      <c r="K29" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="L29" s="108" t="s">
+      <c r="L29" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="108" t="s">
+      <c r="M29" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="N29" s="108" t="s">
+      <c r="N29" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="O29" s="108" t="s">
+      <c r="O29" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="P29" s="108" t="s">
+      <c r="P29" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="Q29" s="108" t="s">
+      <c r="Q29" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="R29" s="108" t="s">
+      <c r="R29" s="106" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="109"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
     </row>
     <row r="31" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="108">
+      <c r="C31" s="106">
         <v>16</v>
       </c>
-      <c r="D31" s="108">
+      <c r="D31" s="106">
         <v>17</v>
       </c>
-      <c r="E31" s="108">
+      <c r="E31" s="106">
         <v>18</v>
       </c>
-      <c r="F31" s="108">
+      <c r="F31" s="106">
         <v>19</v>
       </c>
-      <c r="G31" s="108">
+      <c r="G31" s="106">
         <v>20</v>
       </c>
-      <c r="H31" s="108">
+      <c r="H31" s="106">
         <v>21</v>
       </c>
-      <c r="I31" s="108">
+      <c r="I31" s="106">
         <v>22</v>
       </c>
-      <c r="J31" s="108">
+      <c r="J31" s="106">
         <v>23</v>
       </c>
-      <c r="K31" s="108">
+      <c r="K31" s="106">
         <v>24</v>
       </c>
-      <c r="L31" s="108">
+      <c r="L31" s="106">
         <v>25</v>
       </c>
-      <c r="M31" s="108">
+      <c r="M31" s="106">
         <v>26</v>
       </c>
-      <c r="N31" s="108">
+      <c r="N31" s="106">
         <v>27</v>
       </c>
-      <c r="O31" s="108">
+      <c r="O31" s="106">
         <v>28</v>
       </c>
-      <c r="P31" s="108">
+      <c r="P31" s="106">
         <v>29</v>
       </c>
-      <c r="Q31" s="108">
+      <c r="Q31" s="106">
         <v>30</v>
       </c>
-      <c r="R31" s="108">
+      <c r="R31" s="106">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="108" t="s">
+      <c r="C32" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="176" t="s">
+      <c r="D32" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="108" t="s">
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="106" t="s">
         <v>276</v>
       </c>
       <c r="I32" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="J32" s="108" t="s">
+      <c r="J32" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="108" t="s">
+      <c r="K32" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="108" t="s">
+      <c r="L32" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="M32" s="108" t="s">
+      <c r="M32" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="108" t="s">
+      <c r="N32" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="108" t="s">
+      <c r="O32" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="P32" s="108" t="s">
+      <c r="P32" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="Q32" s="108" t="s">
+      <c r="Q32" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="R32" s="108" t="s">
+      <c r="R32" s="106" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4420,46 +4424,46 @@
       <c r="B33" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="173" t="s">
+      <c r="D33" s="172" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="174"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="175"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="174"/>
       <c r="H33" s="63"/>
       <c r="I33" s="63" t="s">
         <v>272</v>
       </c>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="108"/>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="108"/>
-      <c r="R33" s="108"/>
-    </row>
-    <row r="34" spans="2:18" s="97" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="98"/>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="98"/>
-      <c r="R34" s="98"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="106"/>
+      <c r="R33" s="106"/>
+    </row>
+    <row r="34" spans="2:18" s="95" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="96"/>
+      <c r="Q34" s="96"/>
+      <c r="R34" s="96"/>
     </row>
     <row r="35" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="47" t="s">
@@ -4486,52 +4490,52 @@
       <c r="B36" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="149">
+      <c r="C36" s="147">
         <v>0</v>
       </c>
-      <c r="D36" s="149">
+      <c r="D36" s="147">
         <v>1</v>
       </c>
-      <c r="E36" s="149">
+      <c r="E36" s="147">
         <v>2</v>
       </c>
-      <c r="F36" s="149">
+      <c r="F36" s="147">
         <v>3</v>
       </c>
-      <c r="G36" s="149">
+      <c r="G36" s="147">
         <v>4</v>
       </c>
-      <c r="H36" s="149">
+      <c r="H36" s="147">
         <v>5</v>
       </c>
-      <c r="I36" s="149">
+      <c r="I36" s="147">
         <v>6</v>
       </c>
-      <c r="J36" s="149">
+      <c r="J36" s="147">
         <v>7</v>
       </c>
-      <c r="K36" s="149">
+      <c r="K36" s="147">
         <v>8</v>
       </c>
-      <c r="L36" s="149">
+      <c r="L36" s="147">
         <v>9</v>
       </c>
-      <c r="M36" s="149">
+      <c r="M36" s="147">
         <v>10</v>
       </c>
-      <c r="N36" s="149">
+      <c r="N36" s="147">
         <v>11</v>
       </c>
-      <c r="O36" s="149">
+      <c r="O36" s="147">
         <v>12</v>
       </c>
-      <c r="P36" s="149">
+      <c r="P36" s="147">
         <v>13</v>
       </c>
-      <c r="Q36" s="149">
+      <c r="Q36" s="147">
         <v>14</v>
       </c>
-      <c r="R36" s="149">
+      <c r="R36" s="147">
         <v>15</v>
       </c>
     </row>
@@ -4539,7 +4543,7 @@
       <c r="C37" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="149" t="s">
+      <c r="D37" s="147" t="s">
         <v>124</v>
       </c>
       <c r="E37" s="63" t="s">
@@ -4548,40 +4552,40 @@
       <c r="F37" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="G37" s="149" t="s">
+      <c r="G37" s="147" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="149" t="s">
+      <c r="H37" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="I37" s="149" t="s">
+      <c r="I37" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="J37" s="149" t="s">
+      <c r="J37" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="K37" s="149" t="s">
+      <c r="K37" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="L37" s="149" t="s">
+      <c r="L37" s="147" t="s">
         <v>340</v>
       </c>
-      <c r="M37" s="149" t="s">
+      <c r="M37" s="147" t="s">
         <v>128</v>
       </c>
-      <c r="N37" s="149" t="s">
+      <c r="N37" s="147" t="s">
         <v>138</v>
       </c>
-      <c r="O37" s="149" t="s">
+      <c r="O37" s="147" t="s">
         <v>139</v>
       </c>
-      <c r="P37" s="149" t="s">
+      <c r="P37" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="149" t="s">
+      <c r="Q37" s="147" t="s">
         <v>341</v>
       </c>
-      <c r="R37" s="149" t="s">
+      <c r="R37" s="147" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4589,154 +4593,154 @@
       <c r="B38" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="149"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149" t="s">
+      <c r="C38" s="147"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="I38" s="149" t="s">
+      <c r="I38" s="147" t="s">
         <v>131</v>
       </c>
-      <c r="J38" s="149" t="s">
+      <c r="J38" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="K38" s="149" t="s">
+      <c r="K38" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="L38" s="149" t="s">
+      <c r="L38" s="147" t="s">
         <v>132</v>
       </c>
-      <c r="M38" s="149" t="s">
+      <c r="M38" s="147" t="s">
         <v>132</v>
       </c>
-      <c r="N38" s="149" t="s">
+      <c r="N38" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="O38" s="149" t="s">
+      <c r="O38" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="P38" s="149" t="s">
+      <c r="P38" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="Q38" s="149" t="s">
+      <c r="Q38" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="R38" s="149" t="s">
+      <c r="R38" s="147" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="39" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
-      <c r="N39" s="150"/>
-      <c r="O39" s="150"/>
-      <c r="P39" s="150"/>
-      <c r="Q39" s="150"/>
-      <c r="R39" s="150"/>
+      <c r="C39" s="148"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
+      <c r="N39" s="148"/>
+      <c r="O39" s="148"/>
+      <c r="P39" s="148"/>
+      <c r="Q39" s="148"/>
+      <c r="R39" s="148"/>
     </row>
     <row r="40" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="149">
+      <c r="C40" s="147">
         <v>16</v>
       </c>
-      <c r="D40" s="149">
+      <c r="D40" s="147">
         <v>17</v>
       </c>
-      <c r="E40" s="149">
+      <c r="E40" s="147">
         <v>18</v>
       </c>
-      <c r="F40" s="149">
+      <c r="F40" s="147">
         <v>19</v>
       </c>
-      <c r="G40" s="149">
+      <c r="G40" s="147">
         <v>20</v>
       </c>
-      <c r="H40" s="149">
+      <c r="H40" s="147">
         <v>21</v>
       </c>
-      <c r="I40" s="149">
+      <c r="I40" s="147">
         <v>22</v>
       </c>
-      <c r="J40" s="149">
+      <c r="J40" s="147">
         <v>23</v>
       </c>
-      <c r="K40" s="149">
+      <c r="K40" s="147">
         <v>24</v>
       </c>
-      <c r="L40" s="149">
+      <c r="L40" s="147">
         <v>25</v>
       </c>
-      <c r="M40" s="149">
+      <c r="M40" s="147">
         <v>26</v>
       </c>
-      <c r="N40" s="149">
+      <c r="N40" s="147">
         <v>27</v>
       </c>
-      <c r="O40" s="149">
+      <c r="O40" s="147">
         <v>28</v>
       </c>
-      <c r="P40" s="149">
+      <c r="P40" s="147">
         <v>29</v>
       </c>
-      <c r="Q40" s="149">
+      <c r="Q40" s="147">
         <v>30</v>
       </c>
-      <c r="R40" s="149">
+      <c r="R40" s="147">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="149" t="s">
+      <c r="C41" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="149" t="s">
+      <c r="D41" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="149" t="s">
+      <c r="E41" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="149" t="s">
+      <c r="F41" s="147" t="s">
         <v>187</v>
       </c>
-      <c r="G41" s="149" t="s">
+      <c r="G41" s="147" t="s">
         <v>342</v>
       </c>
-      <c r="H41" s="149" t="s">
+      <c r="H41" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="173" t="s">
+      <c r="I41" s="172" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="174"/>
-      <c r="K41" s="174"/>
-      <c r="L41" s="175"/>
-      <c r="M41" s="149" t="s">
+      <c r="J41" s="173"/>
+      <c r="K41" s="173"/>
+      <c r="L41" s="174"/>
+      <c r="M41" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="N41" s="149" t="s">
+      <c r="N41" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="O41" s="149" t="s">
+      <c r="O41" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="P41" s="149" t="s">
+      <c r="P41" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="Q41" s="149" t="s">
+      <c r="Q41" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="R41" s="149" t="s">
+      <c r="R41" s="147" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4744,36 +4748,36 @@
       <c r="B42" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="149" t="s">
+      <c r="C42" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="149" t="s">
+      <c r="D42" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="149" t="s">
+      <c r="E42" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="149" t="s">
+      <c r="F42" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="149" t="s">
+      <c r="G42" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="H42" s="149" t="s">
+      <c r="H42" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="I42" s="173" t="s">
+      <c r="I42" s="172" t="s">
         <v>95</v>
       </c>
-      <c r="J42" s="174"/>
-      <c r="K42" s="174"/>
-      <c r="L42" s="175"/>
-      <c r="M42" s="149"/>
-      <c r="N42" s="149"/>
-      <c r="O42" s="149"/>
-      <c r="P42" s="149"/>
-      <c r="Q42" s="149"/>
-      <c r="R42" s="149"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="174"/>
+      <c r="M42" s="147"/>
+      <c r="N42" s="147"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="147"/>
+      <c r="Q42" s="147"/>
+      <c r="R42" s="147"/>
     </row>
     <row r="43" spans="2:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C43" s="29"/>
@@ -5059,12 +5063,12 @@
       <c r="L50" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="167" t="s">
+      <c r="M50" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="N50" s="167"/>
-      <c r="O50" s="167"/>
-      <c r="P50" s="167"/>
+      <c r="N50" s="175"/>
+      <c r="O50" s="175"/>
+      <c r="P50" s="175"/>
       <c r="Q50" s="30" t="s">
         <v>139</v>
       </c>
@@ -5106,12 +5110,12 @@
       <c r="L51" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="M51" s="167" t="s">
+      <c r="M51" s="175" t="s">
         <v>95</v>
       </c>
-      <c r="N51" s="167"/>
-      <c r="O51" s="167"/>
-      <c r="P51" s="167"/>
+      <c r="N51" s="175"/>
+      <c r="O51" s="175"/>
+      <c r="P51" s="175"/>
       <c r="Q51" s="30" t="s">
         <v>90</v>
       </c>
@@ -5286,114 +5290,114 @@
       </c>
     </row>
     <row r="57" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="143"/>
-      <c r="D57" s="143"/>
-      <c r="E57" s="143"/>
-      <c r="F57" s="143"/>
-      <c r="G57" s="143"/>
-      <c r="H57" s="143"/>
-      <c r="I57" s="143"/>
-      <c r="J57" s="143"/>
-      <c r="K57" s="143"/>
-      <c r="L57" s="143"/>
-      <c r="M57" s="143"/>
-      <c r="N57" s="143"/>
-      <c r="O57" s="143"/>
-      <c r="P57" s="143"/>
-      <c r="Q57" s="143"/>
-      <c r="R57" s="143"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="141"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="141"/>
+      <c r="H57" s="141"/>
+      <c r="I57" s="141"/>
+      <c r="J57" s="141"/>
+      <c r="K57" s="141"/>
+      <c r="L57" s="141"/>
+      <c r="M57" s="141"/>
+      <c r="N57" s="141"/>
+      <c r="O57" s="141"/>
+      <c r="P57" s="141"/>
+      <c r="Q57" s="141"/>
+      <c r="R57" s="141"/>
     </row>
     <row r="58" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="142">
+      <c r="C58" s="140">
         <v>16</v>
       </c>
-      <c r="D58" s="142">
+      <c r="D58" s="140">
         <v>17</v>
       </c>
-      <c r="E58" s="142">
+      <c r="E58" s="140">
         <v>18</v>
       </c>
-      <c r="F58" s="142">
+      <c r="F58" s="140">
         <v>19</v>
       </c>
-      <c r="G58" s="142">
+      <c r="G58" s="140">
         <v>20</v>
       </c>
-      <c r="H58" s="142">
+      <c r="H58" s="140">
         <v>21</v>
       </c>
-      <c r="I58" s="142">
+      <c r="I58" s="140">
         <v>22</v>
       </c>
-      <c r="J58" s="142">
+      <c r="J58" s="140">
         <v>23</v>
       </c>
-      <c r="K58" s="142">
+      <c r="K58" s="140">
         <v>24</v>
       </c>
-      <c r="L58" s="142">
+      <c r="L58" s="140">
         <v>25</v>
       </c>
-      <c r="M58" s="142">
+      <c r="M58" s="140">
         <v>26</v>
       </c>
-      <c r="N58" s="142">
+      <c r="N58" s="140">
         <v>27</v>
       </c>
-      <c r="O58" s="142">
+      <c r="O58" s="140">
         <v>28</v>
       </c>
-      <c r="P58" s="142">
+      <c r="P58" s="140">
         <v>29</v>
       </c>
-      <c r="Q58" s="142">
+      <c r="Q58" s="140">
         <v>30</v>
       </c>
-      <c r="R58" s="142">
+      <c r="R58" s="140">
         <v>31</v>
       </c>
     </row>
     <row r="59" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="142" t="s">
+      <c r="C59" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="168" t="s">
+      <c r="D59" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="169"/>
-      <c r="F59" s="169"/>
-      <c r="G59" s="170"/>
-      <c r="H59" s="142" t="s">
+      <c r="E59" s="180"/>
+      <c r="F59" s="180"/>
+      <c r="G59" s="181"/>
+      <c r="H59" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="I59" s="142" t="s">
+      <c r="I59" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="J59" s="142" t="s">
+      <c r="J59" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="K59" s="142" t="s">
+      <c r="K59" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="L59" s="142" t="s">
+      <c r="L59" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="M59" s="142" t="s">
+      <c r="M59" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="N59" s="142" t="s">
+      <c r="N59" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="O59" s="142" t="s">
+      <c r="O59" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="P59" s="142" t="s">
+      <c r="P59" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="Q59" s="142" t="s">
+      <c r="Q59" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="R59" s="142" t="s">
+      <c r="R59" s="140" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5401,30 +5405,30 @@
       <c r="B60" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="142" t="s">
+      <c r="C60" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="168" t="s">
+      <c r="D60" s="179" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="169"/>
-      <c r="F60" s="169"/>
-      <c r="G60" s="170"/>
-      <c r="H60" s="142" t="s">
+      <c r="E60" s="180"/>
+      <c r="F60" s="180"/>
+      <c r="G60" s="181"/>
+      <c r="H60" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="I60" s="142" t="s">
+      <c r="I60" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="J60" s="142"/>
-      <c r="K60" s="142"/>
-      <c r="L60" s="142"/>
-      <c r="M60" s="142"/>
-      <c r="N60" s="142"/>
-      <c r="O60" s="142"/>
-      <c r="P60" s="142"/>
-      <c r="Q60" s="142"/>
-      <c r="R60" s="142"/>
+      <c r="J60" s="140"/>
+      <c r="K60" s="140"/>
+      <c r="L60" s="140"/>
+      <c r="M60" s="140"/>
+      <c r="N60" s="140"/>
+      <c r="O60" s="140"/>
+      <c r="P60" s="140"/>
+      <c r="Q60" s="140"/>
+      <c r="R60" s="140"/>
     </row>
     <row r="61" spans="2:18" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
@@ -5452,52 +5456,52 @@
       <c r="B63" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="C63" s="144">
+      <c r="C63" s="142">
         <v>0</v>
       </c>
-      <c r="D63" s="144">
+      <c r="D63" s="142">
         <v>1</v>
       </c>
-      <c r="E63" s="144">
+      <c r="E63" s="142">
         <v>2</v>
       </c>
-      <c r="F63" s="144">
+      <c r="F63" s="142">
         <v>3</v>
       </c>
-      <c r="G63" s="144">
+      <c r="G63" s="142">
         <v>4</v>
       </c>
-      <c r="H63" s="144">
+      <c r="H63" s="142">
         <v>5</v>
       </c>
-      <c r="I63" s="144">
+      <c r="I63" s="142">
         <v>6</v>
       </c>
-      <c r="J63" s="144">
+      <c r="J63" s="142">
         <v>7</v>
       </c>
-      <c r="K63" s="144">
+      <c r="K63" s="142">
         <v>8</v>
       </c>
-      <c r="L63" s="144">
+      <c r="L63" s="142">
         <v>9</v>
       </c>
-      <c r="M63" s="144">
+      <c r="M63" s="142">
         <v>10</v>
       </c>
-      <c r="N63" s="144">
+      <c r="N63" s="142">
         <v>11</v>
       </c>
-      <c r="O63" s="144">
+      <c r="O63" s="142">
         <v>12</v>
       </c>
-      <c r="P63" s="144">
+      <c r="P63" s="142">
         <v>13</v>
       </c>
-      <c r="Q63" s="144">
+      <c r="Q63" s="142">
         <v>14</v>
       </c>
-      <c r="R63" s="144">
+      <c r="R63" s="142">
         <v>15</v>
       </c>
     </row>
@@ -5505,7 +5509,7 @@
       <c r="C64" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="144" t="s">
+      <c r="D64" s="142" t="s">
         <v>22</v>
       </c>
       <c r="E64" s="63" t="s">
@@ -5514,40 +5518,40 @@
       <c r="F64" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="144" t="s">
+      <c r="G64" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="H64" s="144" t="s">
+      <c r="H64" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="I64" s="144" t="s">
+      <c r="I64" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="J64" s="144" t="s">
+      <c r="J64" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="K64" s="144" t="s">
+      <c r="K64" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="L64" s="144" t="s">
+      <c r="L64" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="M64" s="144" t="s">
+      <c r="M64" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="N64" s="144" t="s">
+      <c r="N64" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="O64" s="144" t="s">
+      <c r="O64" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="P64" s="144" t="s">
+      <c r="P64" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="Q64" s="144" t="s">
+      <c r="Q64" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="R64" s="144" t="s">
+      <c r="R64" s="142" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5555,154 +5559,154 @@
       <c r="B65" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="144"/>
-      <c r="D65" s="144"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="144"/>
-      <c r="G65" s="144"/>
-      <c r="H65" s="144" t="s">
+      <c r="C65" s="142"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="142"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="I65" s="144" t="s">
+      <c r="I65" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="J65" s="144" t="s">
+      <c r="J65" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="K65" s="144" t="s">
+      <c r="K65" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="L65" s="144" t="s">
+      <c r="L65" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="M65" s="144" t="s">
+      <c r="M65" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="N65" s="144" t="s">
+      <c r="N65" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="O65" s="144" t="s">
+      <c r="O65" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="P65" s="144" t="s">
+      <c r="P65" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="Q65" s="144" t="s">
+      <c r="Q65" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="R65" s="144" t="s">
+      <c r="R65" s="142" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="66" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="145"/>
-      <c r="D66" s="145"/>
-      <c r="E66" s="145"/>
-      <c r="F66" s="145"/>
-      <c r="G66" s="145"/>
-      <c r="H66" s="145"/>
-      <c r="I66" s="145"/>
-      <c r="J66" s="145"/>
-      <c r="K66" s="145"/>
-      <c r="L66" s="145"/>
-      <c r="M66" s="145"/>
-      <c r="N66" s="145"/>
-      <c r="O66" s="145"/>
-      <c r="P66" s="145"/>
-      <c r="Q66" s="145"/>
-      <c r="R66" s="145"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="143"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="143"/>
+      <c r="G66" s="143"/>
+      <c r="H66" s="143"/>
+      <c r="I66" s="143"/>
+      <c r="J66" s="143"/>
+      <c r="K66" s="143"/>
+      <c r="L66" s="143"/>
+      <c r="M66" s="143"/>
+      <c r="N66" s="143"/>
+      <c r="O66" s="143"/>
+      <c r="P66" s="143"/>
+      <c r="Q66" s="143"/>
+      <c r="R66" s="143"/>
     </row>
     <row r="67" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="144">
+      <c r="C67" s="142">
         <v>16</v>
       </c>
-      <c r="D67" s="144">
+      <c r="D67" s="142">
         <v>17</v>
       </c>
-      <c r="E67" s="144">
+      <c r="E67" s="142">
         <v>18</v>
       </c>
-      <c r="F67" s="144">
+      <c r="F67" s="142">
         <v>19</v>
       </c>
-      <c r="G67" s="144">
+      <c r="G67" s="142">
         <v>20</v>
       </c>
-      <c r="H67" s="144">
+      <c r="H67" s="142">
         <v>21</v>
       </c>
-      <c r="I67" s="144">
+      <c r="I67" s="142">
         <v>22</v>
       </c>
-      <c r="J67" s="144">
+      <c r="J67" s="142">
         <v>23</v>
       </c>
-      <c r="K67" s="144">
+      <c r="K67" s="142">
         <v>24</v>
       </c>
-      <c r="L67" s="144">
+      <c r="L67" s="142">
         <v>25</v>
       </c>
-      <c r="M67" s="144">
+      <c r="M67" s="142">
         <v>26</v>
       </c>
-      <c r="N67" s="144">
+      <c r="N67" s="142">
         <v>27</v>
       </c>
-      <c r="O67" s="144">
+      <c r="O67" s="142">
         <v>28</v>
       </c>
-      <c r="P67" s="144">
+      <c r="P67" s="142">
         <v>29</v>
       </c>
-      <c r="Q67" s="144">
+      <c r="Q67" s="142">
         <v>30</v>
       </c>
-      <c r="R67" s="144">
+      <c r="R67" s="142">
         <v>31</v>
       </c>
     </row>
     <row r="68" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="144" t="s">
+      <c r="C68" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="173" t="s">
+      <c r="D68" s="172" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="174"/>
-      <c r="F68" s="174"/>
-      <c r="G68" s="175"/>
-      <c r="H68" s="144" t="s">
+      <c r="E68" s="173"/>
+      <c r="F68" s="173"/>
+      <c r="G68" s="174"/>
+      <c r="H68" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="I68" s="144" t="s">
+      <c r="I68" s="142" t="s">
         <v>162</v>
       </c>
-      <c r="J68" s="144" t="s">
+      <c r="J68" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="K68" s="144" t="s">
+      <c r="K68" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="L68" s="144" t="s">
+      <c r="L68" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="M68" s="144" t="s">
+      <c r="M68" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="N68" s="144" t="s">
+      <c r="N68" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="O68" s="144" t="s">
+      <c r="O68" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="P68" s="144" t="s">
+      <c r="P68" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="Q68" s="144" t="s">
+      <c r="Q68" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="R68" s="144" t="s">
+      <c r="R68" s="142" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5710,30 +5714,30 @@
       <c r="B69" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C69" s="144" t="s">
+      <c r="C69" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="173" t="s">
+      <c r="D69" s="172" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="174"/>
-      <c r="F69" s="174"/>
-      <c r="G69" s="175"/>
-      <c r="H69" s="144" t="s">
+      <c r="E69" s="173"/>
+      <c r="F69" s="173"/>
+      <c r="G69" s="174"/>
+      <c r="H69" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="I69" s="144" t="s">
+      <c r="I69" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="J69" s="144"/>
-      <c r="K69" s="144"/>
-      <c r="L69" s="144"/>
-      <c r="M69" s="144"/>
-      <c r="N69" s="144"/>
-      <c r="O69" s="144"/>
-      <c r="P69" s="144"/>
-      <c r="Q69" s="144"/>
-      <c r="R69" s="144"/>
+      <c r="J69" s="142"/>
+      <c r="K69" s="142"/>
+      <c r="L69" s="142"/>
+      <c r="M69" s="142"/>
+      <c r="N69" s="142"/>
+      <c r="O69" s="142"/>
+      <c r="P69" s="142"/>
+      <c r="Q69" s="142"/>
+      <c r="R69" s="142"/>
     </row>
     <row r="70" spans="2:18" s="45" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="71" spans="2:18" s="45" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5762,52 +5766,52 @@
       <c r="B73" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="83">
+      <c r="C73" s="82">
         <v>0</v>
       </c>
-      <c r="D73" s="83">
+      <c r="D73" s="82">
         <v>1</v>
       </c>
-      <c r="E73" s="83">
+      <c r="E73" s="82">
         <v>2</v>
       </c>
-      <c r="F73" s="83">
+      <c r="F73" s="82">
         <v>3</v>
       </c>
-      <c r="G73" s="83">
+      <c r="G73" s="82">
         <v>4</v>
       </c>
-      <c r="H73" s="83">
+      <c r="H73" s="82">
         <v>5</v>
       </c>
-      <c r="I73" s="83">
+      <c r="I73" s="82">
         <v>6</v>
       </c>
-      <c r="J73" s="83">
+      <c r="J73" s="82">
         <v>7</v>
       </c>
-      <c r="K73" s="83">
+      <c r="K73" s="82">
         <v>8</v>
       </c>
-      <c r="L73" s="83">
+      <c r="L73" s="82">
         <v>9</v>
       </c>
-      <c r="M73" s="83">
+      <c r="M73" s="82">
         <v>10</v>
       </c>
-      <c r="N73" s="83">
+      <c r="N73" s="82">
         <v>11</v>
       </c>
-      <c r="O73" s="83">
+      <c r="O73" s="82">
         <v>12</v>
       </c>
-      <c r="P73" s="83">
+      <c r="P73" s="82">
         <v>13</v>
       </c>
-      <c r="Q73" s="83">
+      <c r="Q73" s="82">
         <v>14</v>
       </c>
-      <c r="R73" s="83">
+      <c r="R73" s="82">
         <v>15</v>
       </c>
     </row>
@@ -5815,7 +5819,7 @@
       <c r="C74" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="83" t="s">
+      <c r="D74" s="82" t="s">
         <v>22</v>
       </c>
       <c r="E74" s="63" t="s">
@@ -5824,40 +5828,40 @@
       <c r="F74" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="G74" s="83" t="s">
+      <c r="G74" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="H74" s="83" t="s">
+      <c r="H74" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="I74" s="83" t="s">
+      <c r="I74" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="J74" s="83" t="s">
+      <c r="J74" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="K74" s="83" t="s">
+      <c r="K74" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="L74" s="83" t="s">
+      <c r="L74" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="M74" s="83" t="s">
+      <c r="M74" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="N74" s="83" t="s">
+      <c r="N74" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="O74" s="83" t="s">
+      <c r="O74" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="P74" s="83" t="s">
+      <c r="P74" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="Q74" s="83" t="s">
+      <c r="Q74" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="R74" s="83" t="s">
+      <c r="R74" s="82" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5865,42 +5869,42 @@
       <c r="B75" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="83"/>
-      <c r="H75" s="83" t="s">
+      <c r="C75" s="82"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="82"/>
+      <c r="H75" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="I75" s="83">
+      <c r="I75" s="82">
         <v>0</v>
       </c>
-      <c r="J75" s="83" t="s">
+      <c r="J75" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="K75" s="83">
+      <c r="K75" s="82">
         <v>0</v>
       </c>
-      <c r="L75" s="83" t="s">
+      <c r="L75" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="M75" s="83" t="s">
+      <c r="M75" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="N75" s="83" t="s">
+      <c r="N75" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="O75" s="83">
+      <c r="O75" s="82">
         <v>0</v>
       </c>
-      <c r="P75" s="83" t="s">
+      <c r="P75" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="Q75" s="83">
+      <c r="Q75" s="82">
         <v>0</v>
       </c>
-      <c r="R75" s="83" t="s">
+      <c r="R75" s="82" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5923,96 +5927,96 @@
       <c r="R76" s="64"/>
     </row>
     <row r="77" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>16</v>
       </c>
-      <c r="D77" s="83">
+      <c r="D77" s="82">
         <v>17</v>
       </c>
-      <c r="E77" s="83">
+      <c r="E77" s="82">
         <v>18</v>
       </c>
-      <c r="F77" s="83">
+      <c r="F77" s="82">
         <v>19</v>
       </c>
-      <c r="G77" s="83">
+      <c r="G77" s="82">
         <v>20</v>
       </c>
-      <c r="H77" s="83">
+      <c r="H77" s="82">
         <v>21</v>
       </c>
-      <c r="I77" s="83">
+      <c r="I77" s="82">
         <v>22</v>
       </c>
-      <c r="J77" s="83">
+      <c r="J77" s="82">
         <v>23</v>
       </c>
-      <c r="K77" s="83">
+      <c r="K77" s="82">
         <v>24</v>
       </c>
-      <c r="L77" s="83">
+      <c r="L77" s="82">
         <v>25</v>
       </c>
-      <c r="M77" s="83">
+      <c r="M77" s="82">
         <v>26</v>
       </c>
-      <c r="N77" s="83">
+      <c r="N77" s="82">
         <v>27</v>
       </c>
-      <c r="O77" s="83">
+      <c r="O77" s="82">
         <v>28</v>
       </c>
-      <c r="P77" s="83">
+      <c r="P77" s="82">
         <v>29</v>
       </c>
-      <c r="Q77" s="83">
+      <c r="Q77" s="82">
         <v>30</v>
       </c>
-      <c r="R77" s="83">
+      <c r="R77" s="82">
         <v>31</v>
       </c>
     </row>
     <row r="78" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="83" t="s">
+      <c r="C78" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="176" t="s">
+      <c r="D78" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="176"/>
-      <c r="F78" s="176"/>
-      <c r="G78" s="176"/>
-      <c r="H78" s="83" t="s">
+      <c r="E78" s="171"/>
+      <c r="F78" s="171"/>
+      <c r="G78" s="171"/>
+      <c r="H78" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="I78" s="83" t="s">
+      <c r="I78" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="J78" s="83" t="s">
+      <c r="J78" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="K78" s="83" t="s">
+      <c r="K78" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="L78" s="83" t="s">
+      <c r="L78" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="M78" s="83" t="s">
+      <c r="M78" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="N78" s="83" t="s">
+      <c r="N78" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="O78" s="83" t="s">
+      <c r="O78" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="P78" s="83" t="s">
+      <c r="P78" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="Q78" s="83" t="s">
+      <c r="Q78" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="R78" s="83" t="s">
+      <c r="R78" s="82" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6020,350 +6024,350 @@
       <c r="B79" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="83" t="s">
+      <c r="C79" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="173" t="s">
+      <c r="D79" s="172" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="174"/>
-      <c r="F79" s="174"/>
-      <c r="G79" s="175"/>
-      <c r="H79" s="83" t="s">
+      <c r="E79" s="173"/>
+      <c r="F79" s="173"/>
+      <c r="G79" s="174"/>
+      <c r="H79" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="I79" s="83"/>
-      <c r="J79" s="83"/>
-      <c r="K79" s="83"/>
-      <c r="L79" s="83"/>
-      <c r="M79" s="83"/>
-      <c r="N79" s="83"/>
-      <c r="O79" s="83"/>
-      <c r="P79" s="83"/>
-      <c r="Q79" s="83"/>
-      <c r="R79" s="83"/>
-    </row>
-    <row r="80" spans="2:18" s="93" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="94"/>
-      <c r="D80" s="94"/>
-      <c r="E80" s="94"/>
-      <c r="F80" s="94"/>
-      <c r="G80" s="94"/>
-      <c r="H80" s="94"/>
-      <c r="I80" s="94"/>
-      <c r="J80" s="94"/>
-      <c r="K80" s="94"/>
-      <c r="L80" s="94"/>
-      <c r="M80" s="94"/>
-      <c r="N80" s="94"/>
-      <c r="O80" s="94"/>
-      <c r="P80" s="94"/>
-      <c r="Q80" s="94"/>
-      <c r="R80" s="94"/>
-    </row>
-    <row r="81" spans="1:18" s="110" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="110" t="s">
+      <c r="I79" s="82"/>
+      <c r="J79" s="82"/>
+      <c r="K79" s="82"/>
+      <c r="L79" s="82"/>
+      <c r="M79" s="82"/>
+      <c r="N79" s="82"/>
+      <c r="O79" s="82"/>
+      <c r="P79" s="82"/>
+      <c r="Q79" s="82"/>
+      <c r="R79" s="82"/>
+    </row>
+    <row r="80" spans="2:18" s="91" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="92"/>
+      <c r="G80" s="92"/>
+      <c r="H80" s="92"/>
+      <c r="I80" s="92"/>
+      <c r="J80" s="92"/>
+      <c r="K80" s="92"/>
+      <c r="L80" s="92"/>
+      <c r="M80" s="92"/>
+      <c r="N80" s="92"/>
+      <c r="O80" s="92"/>
+      <c r="P80" s="92"/>
+      <c r="Q80" s="92"/>
+      <c r="R80" s="92"/>
+    </row>
+    <row r="81" spans="1:18" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="C81" s="111"/>
-      <c r="D81" s="111"/>
-      <c r="E81" s="111"/>
-      <c r="F81" s="111"/>
-      <c r="G81" s="111"/>
-      <c r="H81" s="111"/>
-      <c r="I81" s="111"/>
-      <c r="J81" s="111"/>
-      <c r="K81" s="111"/>
-      <c r="L81" s="111"/>
-      <c r="M81" s="111"/>
-      <c r="N81" s="111"/>
-      <c r="O81" s="111"/>
-      <c r="P81" s="111"/>
-      <c r="Q81" s="111"/>
-      <c r="R81" s="111"/>
-    </row>
-    <row r="82" spans="1:18" s="110" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="110" t="s">
+      <c r="C81" s="109"/>
+      <c r="D81" s="109"/>
+      <c r="E81" s="109"/>
+      <c r="F81" s="109"/>
+      <c r="G81" s="109"/>
+      <c r="H81" s="109"/>
+      <c r="I81" s="109"/>
+      <c r="J81" s="109"/>
+      <c r="K81" s="109"/>
+      <c r="L81" s="109"/>
+      <c r="M81" s="109"/>
+      <c r="N81" s="109"/>
+      <c r="O81" s="109"/>
+      <c r="P81" s="109"/>
+      <c r="Q81" s="109"/>
+      <c r="R81" s="109"/>
+    </row>
+    <row r="82" spans="1:18" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C82" s="112">
+      <c r="C82" s="110">
         <v>0</v>
       </c>
-      <c r="D82" s="112">
+      <c r="D82" s="110">
         <v>1</v>
       </c>
-      <c r="E82" s="112">
+      <c r="E82" s="110">
         <v>2</v>
       </c>
-      <c r="F82" s="112">
+      <c r="F82" s="110">
         <v>3</v>
       </c>
-      <c r="G82" s="112">
+      <c r="G82" s="110">
         <v>4</v>
       </c>
-      <c r="H82" s="112">
+      <c r="H82" s="110">
         <v>5</v>
       </c>
-      <c r="I82" s="112">
+      <c r="I82" s="110">
         <v>6</v>
       </c>
-      <c r="J82" s="112">
+      <c r="J82" s="110">
         <v>7</v>
       </c>
-      <c r="K82" s="112">
+      <c r="K82" s="110">
         <v>8</v>
       </c>
-      <c r="L82" s="112">
+      <c r="L82" s="110">
         <v>9</v>
       </c>
-      <c r="M82" s="112">
+      <c r="M82" s="110">
         <v>10</v>
       </c>
-      <c r="N82" s="112">
+      <c r="N82" s="110">
         <v>11</v>
       </c>
-      <c r="O82" s="112">
+      <c r="O82" s="110">
         <v>12</v>
       </c>
-      <c r="P82" s="112">
+      <c r="P82" s="110">
         <v>13</v>
       </c>
-      <c r="Q82" s="112">
+      <c r="Q82" s="110">
         <v>14</v>
       </c>
-      <c r="R82" s="112">
+      <c r="R82" s="110">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="110" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="113" t="s">
+    <row r="83" spans="1:18" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="111" t="s">
         <v>222</v>
       </c>
-      <c r="D83" s="112" t="s">
+      <c r="D83" s="110" t="s">
         <v>223</v>
       </c>
-      <c r="E83" s="113" t="s">
+      <c r="E83" s="111" t="s">
         <v>224</v>
       </c>
-      <c r="F83" s="113" t="s">
+      <c r="F83" s="111" t="s">
         <v>225</v>
       </c>
-      <c r="G83" s="112" t="s">
+      <c r="G83" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="H83" s="112" t="s">
+      <c r="H83" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="I83" s="112" t="s">
+      <c r="I83" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="J83" s="112" t="s">
+      <c r="J83" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="K83" s="112" t="s">
+      <c r="K83" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="L83" s="112" t="s">
+      <c r="L83" s="110" t="s">
         <v>229</v>
       </c>
-      <c r="M83" s="112" t="s">
+      <c r="M83" s="110" t="s">
         <v>230</v>
       </c>
-      <c r="N83" s="112" t="s">
+      <c r="N83" s="110" t="s">
         <v>231</v>
       </c>
-      <c r="O83" s="112" t="s">
+      <c r="O83" s="110" t="s">
         <v>232</v>
       </c>
-      <c r="P83" s="112" t="s">
+      <c r="P83" s="110" t="s">
         <v>233</v>
       </c>
-      <c r="Q83" s="112" t="s">
+      <c r="Q83" s="110" t="s">
         <v>234</v>
       </c>
-      <c r="R83" s="112" t="s">
+      <c r="R83" s="110" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:18" s="110" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="110" t="s">
+    <row r="84" spans="1:18" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="108" t="s">
         <v>236</v>
       </c>
-      <c r="C84" s="112"/>
-      <c r="D84" s="112"/>
-      <c r="E84" s="112"/>
-      <c r="F84" s="112"/>
-      <c r="G84" s="112"/>
-      <c r="H84" s="112" t="s">
+      <c r="C84" s="110"/>
+      <c r="D84" s="110"/>
+      <c r="E84" s="110"/>
+      <c r="F84" s="110"/>
+      <c r="G84" s="110"/>
+      <c r="H84" s="110" t="s">
         <v>237</v>
       </c>
-      <c r="I84" s="112" t="s">
+      <c r="I84" s="110" t="s">
         <v>238</v>
       </c>
-      <c r="J84" s="112" t="s">
+      <c r="J84" s="110" t="s">
         <v>239</v>
       </c>
-      <c r="K84" s="112" t="s">
+      <c r="K84" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="L84" s="112" t="s">
+      <c r="L84" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="M84" s="112" t="s">
+      <c r="M84" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="N84" s="112" t="s">
+      <c r="N84" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="O84" s="112" t="s">
+      <c r="O84" s="110" t="s">
         <v>241</v>
       </c>
-      <c r="P84" s="112" t="s">
+      <c r="P84" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="Q84" s="112" t="s">
+      <c r="Q84" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="R84" s="112" t="s">
+      <c r="R84" s="110" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="110" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="114"/>
-      <c r="D85" s="114"/>
-      <c r="E85" s="114"/>
-      <c r="F85" s="114"/>
-      <c r="G85" s="114"/>
-      <c r="H85" s="114"/>
-      <c r="I85" s="114"/>
-      <c r="J85" s="114"/>
-      <c r="K85" s="114"/>
-      <c r="L85" s="114"/>
-      <c r="M85" s="114"/>
-      <c r="N85" s="114"/>
-      <c r="O85" s="114"/>
-      <c r="P85" s="114"/>
-      <c r="Q85" s="114"/>
-      <c r="R85" s="114"/>
-    </row>
-    <row r="86" spans="1:18" s="115" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="112">
+    <row r="85" spans="1:18" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="112"/>
+      <c r="D85" s="112"/>
+      <c r="E85" s="112"/>
+      <c r="F85" s="112"/>
+      <c r="G85" s="112"/>
+      <c r="H85" s="112"/>
+      <c r="I85" s="112"/>
+      <c r="J85" s="112"/>
+      <c r="K85" s="112"/>
+      <c r="L85" s="112"/>
+      <c r="M85" s="112"/>
+      <c r="N85" s="112"/>
+      <c r="O85" s="112"/>
+      <c r="P85" s="112"/>
+      <c r="Q85" s="112"/>
+      <c r="R85" s="112"/>
+    </row>
+    <row r="86" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="110">
         <v>16</v>
       </c>
-      <c r="D86" s="112">
+      <c r="D86" s="110">
         <v>17</v>
       </c>
-      <c r="E86" s="112">
+      <c r="E86" s="110">
         <v>18</v>
       </c>
-      <c r="F86" s="112">
+      <c r="F86" s="110">
         <v>19</v>
       </c>
-      <c r="G86" s="112">
+      <c r="G86" s="110">
         <v>20</v>
       </c>
-      <c r="H86" s="112">
+      <c r="H86" s="110">
         <v>21</v>
       </c>
-      <c r="I86" s="112">
+      <c r="I86" s="110">
         <v>22</v>
       </c>
-      <c r="J86" s="112">
+      <c r="J86" s="110">
         <v>23</v>
       </c>
-      <c r="K86" s="112">
+      <c r="K86" s="110">
         <v>24</v>
       </c>
-      <c r="L86" s="112">
+      <c r="L86" s="110">
         <v>25</v>
       </c>
-      <c r="M86" s="112">
+      <c r="M86" s="110">
         <v>26</v>
       </c>
-      <c r="N86" s="112">
+      <c r="N86" s="110">
         <v>27</v>
       </c>
-      <c r="O86" s="112">
+      <c r="O86" s="110">
         <v>28</v>
       </c>
-      <c r="P86" s="112">
+      <c r="P86" s="110">
         <v>29</v>
       </c>
-      <c r="Q86" s="112">
+      <c r="Q86" s="110">
         <v>30</v>
       </c>
-      <c r="R86" s="112">
+      <c r="R86" s="110">
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:18" s="115" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="112" t="s">
+    <row r="87" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="110" t="s">
         <v>242</v>
       </c>
-      <c r="D87" s="177" t="s">
+      <c r="D87" s="164" t="s">
         <v>243</v>
       </c>
-      <c r="E87" s="177"/>
-      <c r="F87" s="177"/>
-      <c r="G87" s="177"/>
-      <c r="H87" s="112" t="s">
+      <c r="E87" s="164"/>
+      <c r="F87" s="164"/>
+      <c r="G87" s="164"/>
+      <c r="H87" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="I87" s="112" t="s">
+      <c r="I87" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="J87" s="112" t="s">
+      <c r="J87" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="K87" s="112" t="s">
+      <c r="K87" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="L87" s="112" t="s">
+      <c r="L87" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="M87" s="112" t="s">
+      <c r="M87" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="N87" s="112" t="s">
+      <c r="N87" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="O87" s="112" t="s">
+      <c r="O87" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="P87" s="112" t="s">
+      <c r="P87" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="Q87" s="112" t="s">
+      <c r="Q87" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="R87" s="112" t="s">
+      <c r="R87" s="110" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="115" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="115" t="s">
+    <row r="88" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="113" t="s">
         <v>236</v>
       </c>
-      <c r="C88" s="112" t="s">
+      <c r="C88" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="178" t="s">
+      <c r="D88" s="165" t="s">
         <v>241</v>
       </c>
-      <c r="E88" s="179"/>
-      <c r="F88" s="179"/>
-      <c r="G88" s="180"/>
-      <c r="H88" s="112"/>
-      <c r="I88" s="112"/>
-      <c r="J88" s="112"/>
-      <c r="K88" s="112"/>
-      <c r="L88" s="112"/>
-      <c r="M88" s="112"/>
-      <c r="N88" s="112"/>
-      <c r="O88" s="112"/>
-      <c r="P88" s="112"/>
-      <c r="Q88" s="112"/>
-      <c r="R88" s="112"/>
+      <c r="E88" s="166"/>
+      <c r="F88" s="166"/>
+      <c r="G88" s="167"/>
+      <c r="H88" s="110"/>
+      <c r="I88" s="110"/>
+      <c r="J88" s="110"/>
+      <c r="K88" s="110"/>
+      <c r="L88" s="110"/>
+      <c r="M88" s="110"/>
+      <c r="N88" s="110"/>
+      <c r="O88" s="110"/>
+      <c r="P88" s="110"/>
+      <c r="Q88" s="110"/>
+      <c r="R88" s="110"/>
     </row>
     <row r="89" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C89" s="29"/>
@@ -6405,7 +6409,7 @@
       <c r="A91" s="7">
         <v>2</v>
       </c>
-      <c r="B91" s="81" t="s">
+      <c r="B91" s="80" t="s">
         <v>158</v>
       </c>
       <c r="C91" s="11">
@@ -6967,7 +6971,7 @@
       <c r="A110" s="5">
         <v>3</v>
       </c>
-      <c r="B110" s="80" t="s">
+      <c r="B110" s="79" t="s">
         <v>160</v>
       </c>
       <c r="C110" s="13">
@@ -7020,7 +7024,7 @@
       </c>
     </row>
     <row r="111" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="80" t="s">
+      <c r="B111" s="79" t="s">
         <v>159</v>
       </c>
       <c r="C111" s="14" t="s">
@@ -7038,23 +7042,23 @@
       <c r="G111" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H111" s="171" t="s">
+      <c r="H111" s="182" t="s">
         <v>65</v>
       </c>
-      <c r="I111" s="171"/>
-      <c r="J111" s="171"/>
-      <c r="K111" s="171"/>
-      <c r="L111" s="171" t="s">
+      <c r="I111" s="182"/>
+      <c r="J111" s="182"/>
+      <c r="K111" s="182"/>
+      <c r="L111" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="M111" s="171"/>
-      <c r="N111" s="171"/>
-      <c r="O111" s="171"/>
-      <c r="P111" s="171" t="s">
+      <c r="M111" s="182"/>
+      <c r="N111" s="182"/>
+      <c r="O111" s="182"/>
+      <c r="P111" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="Q111" s="171"/>
-      <c r="R111" s="171"/>
+      <c r="Q111" s="182"/>
+      <c r="R111" s="182"/>
     </row>
     <row r="112" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C112" s="15"/>
@@ -7117,12 +7121,12 @@
       <c r="C114" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D114" s="172" t="s">
+      <c r="D114" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="E114" s="172"/>
-      <c r="F114" s="172"/>
-      <c r="G114" s="172"/>
+      <c r="E114" s="183"/>
+      <c r="F114" s="183"/>
+      <c r="G114" s="183"/>
       <c r="H114" s="36" t="s">
         <v>70</v>
       </c>
@@ -7135,10 +7139,10 @@
       <c r="K114" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="L114" s="95" t="s">
+      <c r="L114" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="M114" s="95" t="s">
+      <c r="M114" s="93" t="s">
         <v>190</v>
       </c>
       <c r="N114" s="36" t="s">
@@ -7204,7 +7208,7 @@
       <c r="A119" s="5">
         <v>4</v>
       </c>
-      <c r="B119" s="81" t="s">
+      <c r="B119" s="80" t="s">
         <v>149</v>
       </c>
       <c r="C119" s="36">
@@ -7257,7 +7261,7 @@
       </c>
     </row>
     <row r="120" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="82" t="s">
+      <c r="B120" s="81" t="s">
         <v>150</v>
       </c>
       <c r="C120" s="35" t="s">
@@ -7275,23 +7279,23 @@
       <c r="G120" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H120" s="171" t="s">
+      <c r="H120" s="182" t="s">
         <v>65</v>
       </c>
-      <c r="I120" s="171"/>
-      <c r="J120" s="171"/>
-      <c r="K120" s="171"/>
-      <c r="L120" s="171" t="s">
+      <c r="I120" s="182"/>
+      <c r="J120" s="182"/>
+      <c r="K120" s="182"/>
+      <c r="L120" s="182" t="s">
         <v>153</v>
       </c>
-      <c r="M120" s="171"/>
-      <c r="N120" s="171"/>
-      <c r="O120" s="171"/>
-      <c r="P120" s="171" t="s">
+      <c r="M120" s="182"/>
+      <c r="N120" s="182"/>
+      <c r="O120" s="182"/>
+      <c r="P120" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="Q120" s="171"/>
-      <c r="R120" s="171"/>
+      <c r="Q120" s="182"/>
+      <c r="R120" s="182"/>
     </row>
     <row r="121" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C121" s="15"/>
@@ -7353,12 +7357,12 @@
       <c r="C123" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D123" s="172" t="s">
+      <c r="D123" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="172"/>
-      <c r="F123" s="172"/>
-      <c r="G123" s="172"/>
+      <c r="E123" s="183"/>
+      <c r="F123" s="183"/>
+      <c r="G123" s="183"/>
       <c r="H123" s="34" t="s">
         <v>70</v>
       </c>
@@ -7440,237 +7444,237 @@
       <c r="A128" s="43">
         <v>5</v>
       </c>
-      <c r="B128" s="81" t="s">
+      <c r="B128" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="C128" s="99">
+      <c r="C128" s="97">
         <v>0</v>
       </c>
-      <c r="D128" s="99">
+      <c r="D128" s="97">
         <v>1</v>
       </c>
-      <c r="E128" s="99">
+      <c r="E128" s="97">
         <v>2</v>
       </c>
-      <c r="F128" s="99">
+      <c r="F128" s="97">
         <v>3</v>
       </c>
-      <c r="G128" s="99">
+      <c r="G128" s="97">
         <v>4</v>
       </c>
-      <c r="H128" s="99">
+      <c r="H128" s="97">
         <v>5</v>
       </c>
-      <c r="I128" s="99">
+      <c r="I128" s="97">
         <v>6</v>
       </c>
-      <c r="J128" s="99">
+      <c r="J128" s="97">
         <v>7</v>
       </c>
-      <c r="K128" s="99">
+      <c r="K128" s="97">
         <v>8</v>
       </c>
-      <c r="L128" s="99">
+      <c r="L128" s="97">
         <v>9</v>
       </c>
-      <c r="M128" s="99">
+      <c r="M128" s="97">
         <v>10</v>
       </c>
-      <c r="N128" s="99">
+      <c r="N128" s="97">
         <v>11</v>
       </c>
-      <c r="O128" s="99">
+      <c r="O128" s="97">
         <v>12</v>
       </c>
-      <c r="P128" s="99">
+      <c r="P128" s="97">
         <v>13</v>
       </c>
-      <c r="Q128" s="99">
+      <c r="Q128" s="97">
         <v>14</v>
       </c>
-      <c r="R128" s="99">
+      <c r="R128" s="97">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:18" s="100" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="81" t="s">
+    <row r="129" spans="1:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="C129" s="101" t="s">
+      <c r="C129" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="D129" s="101" t="s">
+      <c r="D129" s="99" t="s">
         <v>248</v>
       </c>
-      <c r="E129" s="101" t="s">
+      <c r="E129" s="99" t="s">
         <v>249</v>
       </c>
-      <c r="F129" s="101" t="s">
+      <c r="F129" s="99" t="s">
         <v>250</v>
       </c>
-      <c r="G129" s="101" t="s">
+      <c r="G129" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="H129" s="181" t="s">
+      <c r="H129" s="168" t="s">
         <v>252</v>
       </c>
-      <c r="I129" s="181"/>
-      <c r="J129" s="181"/>
-      <c r="K129" s="181"/>
-      <c r="L129" s="181" t="s">
+      <c r="I129" s="168"/>
+      <c r="J129" s="168"/>
+      <c r="K129" s="168"/>
+      <c r="L129" s="168" t="s">
         <v>253</v>
       </c>
-      <c r="M129" s="181"/>
-      <c r="N129" s="181"/>
-      <c r="O129" s="181"/>
-      <c r="P129" s="99" t="s">
+      <c r="M129" s="168"/>
+      <c r="N129" s="168"/>
+      <c r="O129" s="168"/>
+      <c r="P129" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="Q129" s="99" t="s">
+      <c r="Q129" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="R129" s="99" t="s">
+      <c r="R129" s="97" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="102"/>
-      <c r="D130" s="102"/>
-      <c r="E130" s="102"/>
-      <c r="F130" s="102"/>
-      <c r="G130" s="102"/>
-      <c r="H130" s="102"/>
-      <c r="I130" s="102"/>
-      <c r="J130" s="102"/>
-      <c r="K130" s="102"/>
-      <c r="L130" s="102"/>
-      <c r="M130" s="102"/>
-      <c r="N130" s="102"/>
-      <c r="O130" s="102"/>
-      <c r="P130" s="102"/>
-      <c r="Q130" s="102"/>
-      <c r="R130" s="102"/>
+      <c r="C130" s="100"/>
+      <c r="D130" s="100"/>
+      <c r="E130" s="100"/>
+      <c r="F130" s="100"/>
+      <c r="G130" s="100"/>
+      <c r="H130" s="100"/>
+      <c r="I130" s="100"/>
+      <c r="J130" s="100"/>
+      <c r="K130" s="100"/>
+      <c r="L130" s="100"/>
+      <c r="M130" s="100"/>
+      <c r="N130" s="100"/>
+      <c r="O130" s="100"/>
+      <c r="P130" s="100"/>
+      <c r="Q130" s="100"/>
+      <c r="R130" s="100"/>
     </row>
     <row r="131" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="99">
+      <c r="C131" s="97">
         <v>16</v>
       </c>
-      <c r="D131" s="99">
+      <c r="D131" s="97">
         <v>17</v>
       </c>
-      <c r="E131" s="99">
+      <c r="E131" s="97">
         <v>18</v>
       </c>
-      <c r="F131" s="99">
+      <c r="F131" s="97">
         <v>19</v>
       </c>
-      <c r="G131" s="99">
+      <c r="G131" s="97">
         <v>20</v>
       </c>
-      <c r="H131" s="99">
+      <c r="H131" s="97">
         <v>21</v>
       </c>
-      <c r="I131" s="99">
+      <c r="I131" s="97">
         <v>22</v>
       </c>
-      <c r="J131" s="99">
+      <c r="J131" s="97">
         <v>23</v>
       </c>
-      <c r="K131" s="99">
+      <c r="K131" s="97">
         <v>24</v>
       </c>
-      <c r="L131" s="99">
+      <c r="L131" s="97">
         <v>25</v>
       </c>
-      <c r="M131" s="99">
+      <c r="M131" s="97">
         <v>26</v>
       </c>
-      <c r="N131" s="99">
+      <c r="N131" s="97">
         <v>27</v>
       </c>
     </row>
     <row r="132" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="103"/>
-      <c r="C132" s="182" t="s">
+      <c r="B132" s="101"/>
+      <c r="C132" s="169" t="s">
         <v>257</v>
       </c>
-      <c r="D132" s="183"/>
-      <c r="E132" s="99" t="s">
+      <c r="D132" s="170"/>
+      <c r="E132" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="F132" s="99">
+      <c r="F132" s="97">
         <v>0</v>
       </c>
-      <c r="G132" s="99">
+      <c r="G132" s="97">
         <v>0</v>
       </c>
-      <c r="H132" s="99" t="s">
+      <c r="H132" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="I132" s="99" t="s">
+      <c r="I132" s="97" t="s">
         <v>260</v>
       </c>
-      <c r="J132" s="99" t="s">
+      <c r="J132" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="K132" s="99" t="s">
+      <c r="K132" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="L132" s="95" t="s">
+      <c r="L132" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="M132" s="95" t="s">
+      <c r="M132" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="N132" s="99" t="s">
+      <c r="N132" s="97" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="133" spans="1:18" s="93" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="94"/>
-      <c r="D133" s="94"/>
-      <c r="E133" s="94"/>
-      <c r="F133" s="94"/>
-      <c r="G133" s="94"/>
-      <c r="H133" s="94"/>
-      <c r="I133" s="94"/>
-      <c r="J133" s="94"/>
-      <c r="K133" s="94"/>
-      <c r="L133" s="94"/>
-      <c r="M133" s="94"/>
-      <c r="N133" s="94"/>
-    </row>
-    <row r="134" spans="1:18" s="103" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="103" t="s">
+    <row r="133" spans="1:18" s="91" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="92"/>
+      <c r="D133" s="92"/>
+      <c r="E133" s="92"/>
+      <c r="F133" s="92"/>
+      <c r="G133" s="92"/>
+      <c r="H133" s="92"/>
+      <c r="I133" s="92"/>
+      <c r="J133" s="92"/>
+      <c r="K133" s="92"/>
+      <c r="L133" s="92"/>
+      <c r="M133" s="92"/>
+      <c r="N133" s="92"/>
+    </row>
+    <row r="134" spans="1:18" s="101" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="C134" s="99">
+      <c r="C134" s="97">
         <v>0</v>
       </c>
-      <c r="D134" s="99">
+      <c r="D134" s="97">
         <v>1</v>
       </c>
-      <c r="E134" s="99">
+      <c r="E134" s="97">
         <v>2</v>
       </c>
-      <c r="F134" s="99">
+      <c r="F134" s="97">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:18" s="100" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="100" t="s">
+    <row r="135" spans="1:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="C135" s="101" t="s">
+      <c r="C135" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="D135" s="101" t="s">
+      <c r="D135" s="99" t="s">
         <v>248</v>
       </c>
-      <c r="E135" s="101">
+      <c r="E135" s="99">
         <v>11</v>
       </c>
-      <c r="F135" s="101" t="s">
+      <c r="F135" s="99" t="s">
         <v>265</v>
       </c>
     </row>
@@ -7678,7 +7682,7 @@
       <c r="A137" s="56">
         <v>6</v>
       </c>
-      <c r="B137" s="84" t="s">
+      <c r="B137" s="83" t="s">
         <v>210</v>
       </c>
       <c r="C137" s="57">
@@ -7937,18 +7941,18 @@
       <c r="F144" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="G144" s="164" t="s">
+      <c r="G144" s="176" t="s">
         <v>192</v>
       </c>
-      <c r="H144" s="165"/>
-      <c r="I144" s="165"/>
-      <c r="J144" s="166"/>
-      <c r="K144" s="164" t="s">
+      <c r="H144" s="177"/>
+      <c r="I144" s="177"/>
+      <c r="J144" s="178"/>
+      <c r="K144" s="176" t="s">
         <v>197</v>
       </c>
-      <c r="L144" s="165"/>
-      <c r="M144" s="165"/>
-      <c r="N144" s="166"/>
+      <c r="L144" s="177"/>
+      <c r="M144" s="177"/>
+      <c r="N144" s="178"/>
       <c r="O144" s="59" t="s">
         <v>193</v>
       </c>
@@ -7970,21 +7974,6 @@
     <row r="150" s="28" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
     <mergeCell ref="G144:J144"/>
     <mergeCell ref="K144:N144"/>
     <mergeCell ref="D23:G23"/>
@@ -8001,6 +7990,21 @@
     <mergeCell ref="L111:O111"/>
     <mergeCell ref="P111:R111"/>
     <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="C132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8013,19 +8017,19 @@
   <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:H8"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.5" style="119" customWidth="1"/>
-    <col min="3" max="7" width="9" style="118"/>
+    <col min="2" max="2" width="21.5" style="117" customWidth="1"/>
+    <col min="3" max="7" width="9" style="116"/>
     <col min="8" max="8" width="15.875" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="123" t="s">
         <v>277</v>
       </c>
       <c r="C2" s="187" t="s">
@@ -8035,7 +8039,7 @@
       <c r="E2" s="187"/>
       <c r="F2" s="187"/>
       <c r="G2" s="187"/>
-      <c r="H2" s="126" t="s">
+      <c r="H2" s="124" t="s">
         <v>279</v>
       </c>
     </row>
@@ -8051,22 +8055,22 @@
       <c r="H3" s="186"/>
     </row>
     <row r="4" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="119" t="s">
         <v>284</v>
       </c>
-      <c r="G4" s="121" t="s">
+      <c r="G4" s="119" t="s">
         <v>285</v>
       </c>
       <c r="H4" s="70">
@@ -8074,22 +8078,22 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="120" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="119" t="s">
         <v>309</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="119" t="s">
         <v>310</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="119" t="s">
         <v>311</v>
       </c>
-      <c r="G5" s="121" t="s">
+      <c r="G5" s="119" t="s">
         <v>312</v>
       </c>
       <c r="H5" s="70">
@@ -8097,22 +8101,22 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="120" t="s">
         <v>287</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="119" t="s">
         <v>309</v>
       </c>
-      <c r="E6" s="121" t="s">
+      <c r="E6" s="119" t="s">
         <v>310</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="119" t="s">
         <v>313</v>
       </c>
-      <c r="G6" s="121" t="s">
+      <c r="G6" s="119" t="s">
         <v>313</v>
       </c>
       <c r="H6" s="70">
@@ -8120,22 +8124,22 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="120" t="s">
         <v>288</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="119" t="s">
         <v>309</v>
       </c>
-      <c r="E7" s="121" t="s">
+      <c r="E7" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="119" t="s">
         <v>313</v>
       </c>
-      <c r="G7" s="121" t="s">
+      <c r="G7" s="119" t="s">
         <v>314</v>
       </c>
       <c r="H7" s="70">
@@ -8143,22 +8147,22 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="120" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="119" t="s">
         <v>309</v>
       </c>
-      <c r="E8" s="121" t="s">
+      <c r="E8" s="119" t="s">
         <v>310</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="119" t="s">
         <v>315</v>
       </c>
       <c r="H8" s="70">
@@ -8166,91 +8170,91 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="120" t="s">
         <v>290</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="D9" s="119" t="s">
         <v>309</v>
       </c>
-      <c r="E9" s="121" t="s">
+      <c r="E9" s="119" t="s">
         <v>310</v>
       </c>
-      <c r="F9" s="121" t="s">
+      <c r="F9" s="119" t="s">
         <v>311</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="119" t="s">
         <v>315</v>
       </c>
       <c r="H9" s="70">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="136" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="122" t="s">
+    <row r="10" spans="2:8" s="134" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="120" t="s">
         <v>291</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="121" t="s">
+      <c r="D10" s="119" t="s">
         <v>309</v>
       </c>
-      <c r="E10" s="121" t="s">
+      <c r="E10" s="119" t="s">
         <v>310</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="119" t="s">
         <v>313</v>
       </c>
-      <c r="G10" s="121" t="s">
+      <c r="G10" s="119" t="s">
         <v>316</v>
       </c>
       <c r="H10" s="70">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="148" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="146" t="s">
+    <row r="11" spans="2:8" s="146" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="144" t="s">
         <v>339</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="145" t="s">
         <v>281</v>
       </c>
-      <c r="D11" s="147" t="s">
+      <c r="D11" s="145" t="s">
         <v>309</v>
       </c>
-      <c r="E11" s="147" t="s">
+      <c r="E11" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="147" t="s">
+      <c r="F11" s="145" t="s">
         <v>313</v>
       </c>
-      <c r="G11" s="147" t="s">
+      <c r="G11" s="145" t="s">
         <v>316</v>
       </c>
-      <c r="H11" s="140">
+      <c r="H11" s="138">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="120" t="s">
         <v>292</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="D12" s="121" t="s">
+      <c r="D12" s="119" t="s">
         <v>309</v>
       </c>
-      <c r="E12" s="121" t="s">
+      <c r="E12" s="119" t="s">
         <v>310</v>
       </c>
-      <c r="F12" s="121" t="s">
+      <c r="F12" s="119" t="s">
         <v>317</v>
       </c>
-      <c r="G12" s="121" t="s">
+      <c r="G12" s="119" t="s">
         <v>318</v>
       </c>
       <c r="H12" s="70">
@@ -8258,22 +8262,22 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="120" t="s">
         <v>293</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="D13" s="121" t="s">
+      <c r="D13" s="119" t="s">
         <v>309</v>
       </c>
-      <c r="E13" s="121" t="s">
+      <c r="E13" s="119" t="s">
         <v>310</v>
       </c>
-      <c r="F13" s="121" t="s">
+      <c r="F13" s="119" t="s">
         <v>316</v>
       </c>
-      <c r="G13" s="121" t="s">
+      <c r="G13" s="119" t="s">
         <v>317</v>
       </c>
       <c r="H13" s="70">
@@ -8281,22 +8285,22 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="120" t="s">
         <v>294</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="119" t="s">
         <v>309</v>
       </c>
-      <c r="E14" s="121" t="s">
+      <c r="E14" s="119" t="s">
         <v>310</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="119" t="s">
         <v>319</v>
       </c>
-      <c r="G14" s="121" t="s">
+      <c r="G14" s="119" t="s">
         <v>319</v>
       </c>
       <c r="H14" s="70">
@@ -8315,22 +8319,22 @@
       <c r="H15" s="190"/>
     </row>
     <row r="16" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="D16" s="121" t="s">
+      <c r="D16" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="E16" s="121" t="s">
+      <c r="E16" s="119" t="s">
         <v>320</v>
       </c>
-      <c r="F16" s="121" t="s">
+      <c r="F16" s="119" t="s">
         <v>321</v>
       </c>
-      <c r="G16" s="121" t="s">
+      <c r="G16" s="119" t="s">
         <v>285</v>
       </c>
       <c r="H16" s="70">
@@ -8338,43 +8342,43 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="120" t="s">
         <v>296</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="D17" s="121" t="s">
+      <c r="D17" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="E17" s="121" t="s">
+      <c r="E17" s="119" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="121" t="s">
+      <c r="F17" s="119" t="s">
         <v>321</v>
       </c>
-      <c r="G17" s="127"/>
+      <c r="G17" s="125"/>
       <c r="H17" s="70">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="120" t="s">
         <v>297</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="D18" s="121" t="s">
+      <c r="D18" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="E18" s="121" t="s">
+      <c r="E18" s="119" t="s">
         <v>320</v>
       </c>
-      <c r="F18" s="121" t="s">
+      <c r="F18" s="119" t="s">
         <v>321</v>
       </c>
-      <c r="G18" s="127"/>
+      <c r="G18" s="125"/>
       <c r="H18" s="70">
         <v>24</v>
       </c>
@@ -8391,22 +8395,22 @@
       <c r="H19" s="190"/>
     </row>
     <row r="20" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="D20" s="121" t="s">
+      <c r="D20" s="119" t="s">
         <v>322</v>
       </c>
-      <c r="E20" s="121" t="s">
+      <c r="E20" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="F20" s="121" t="s">
+      <c r="F20" s="119" t="s">
         <v>284</v>
       </c>
-      <c r="G20" s="121" t="s">
+      <c r="G20" s="119" t="s">
         <v>285</v>
       </c>
       <c r="H20" s="70">
@@ -8414,41 +8418,41 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="120" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="119" t="s">
         <v>322</v>
       </c>
-      <c r="E21" s="121" t="s">
+      <c r="E21" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
       <c r="H21" s="70">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="120" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="119" t="s">
         <v>322</v>
       </c>
-      <c r="D22" s="121" t="s">
+      <c r="D22" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="E22" s="121" t="s">
+      <c r="E22" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="F22" s="121" t="s">
+      <c r="F22" s="119" t="s">
         <v>284</v>
       </c>
-      <c r="G22" s="121" t="s">
+      <c r="G22" s="119" t="s">
         <v>285</v>
       </c>
       <c r="H22" s="70">
@@ -8456,41 +8460,41 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="120" t="s">
         <v>304</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="119" t="s">
         <v>322</v>
       </c>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="E23" s="121" t="s">
+      <c r="E23" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
       <c r="H23" s="70">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="120" t="s">
         <v>305</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="119" t="s">
         <v>323</v>
       </c>
-      <c r="D24" s="121" t="s">
+      <c r="D24" s="119" t="s">
         <v>324</v>
       </c>
-      <c r="E24" s="121" t="s">
+      <c r="E24" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="F24" s="121" t="s">
+      <c r="F24" s="119" t="s">
         <v>284</v>
       </c>
-      <c r="G24" s="121" t="s">
+      <c r="G24" s="119" t="s">
         <v>285</v>
       </c>
       <c r="H24" s="70">
@@ -8498,20 +8502,20 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="120" t="s">
         <v>306</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="119" t="s">
         <v>323</v>
       </c>
-      <c r="D25" s="121" t="s">
+      <c r="D25" s="119" t="s">
         <v>324</v>
       </c>
-      <c r="E25" s="121" t="s">
+      <c r="E25" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
       <c r="H25" s="70">
         <v>4</v>
       </c>
@@ -8528,22 +8532,22 @@
       <c r="H26" s="186"/>
     </row>
     <row r="27" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="D27" s="121" t="s">
+      <c r="D27" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="E27" s="121" t="s">
+      <c r="E27" s="119" t="s">
         <v>284</v>
       </c>
-      <c r="F27" s="121" t="s">
+      <c r="F27" s="119" t="s">
         <v>320</v>
       </c>
-      <c r="G27" s="121" t="s">
+      <c r="G27" s="119" t="s">
         <v>285</v>
       </c>
       <c r="H27" s="70">
@@ -8551,22 +8555,22 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="123" t="s">
+      <c r="B28" s="121" t="s">
         <v>308</v>
       </c>
-      <c r="C28" s="124" t="s">
+      <c r="C28" s="122" t="s">
         <v>281</v>
       </c>
-      <c r="D28" s="124" t="s">
+      <c r="D28" s="122" t="s">
         <v>282</v>
       </c>
-      <c r="E28" s="124" t="s">
+      <c r="E28" s="122" t="s">
         <v>320</v>
       </c>
-      <c r="F28" s="124" t="s">
+      <c r="F28" s="122" t="s">
         <v>325</v>
       </c>
-      <c r="G28" s="127"/>
+      <c r="G28" s="125"/>
       <c r="H28" s="69">
         <v>16</v>
       </c>

--- a/相关资料/01 通讯协议/航安LED灯具通讯协议.xlsx
+++ b/相关资料/01 通讯协议/航安LED灯具通讯协议.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="345">
   <si>
     <t>RMS1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1403,6 +1403,10 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较复杂，详看说明2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1889,7 +1893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2346,19 +2350,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2382,6 +2386,45 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2401,45 +2444,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2462,6 +2466,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2767,10 +2774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K47"/>
+  <dimension ref="A2:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2913,10 +2920,10 @@
       <c r="C13" s="151" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="153">
+      <c r="D13" s="154">
         <v>5</v>
       </c>
-      <c r="E13" s="153">
+      <c r="E13" s="154">
         <v>6</v>
       </c>
       <c r="F13" s="85">
@@ -2933,9 +2940,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="129" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="155"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
       <c r="F14" s="85">
         <v>1</v>
       </c>
@@ -2950,9 +2957,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="135" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="152"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
       <c r="F15" s="136">
         <v>1</v>
       </c>
@@ -3003,10 +3010,10 @@
       <c r="C18" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="154">
         <v>8</v>
       </c>
-      <c r="E18" s="153">
+      <c r="E18" s="154">
         <v>0</v>
       </c>
       <c r="F18" s="74">
@@ -3023,9 +3030,9 @@
       </c>
     </row>
     <row r="19" spans="3:9" s="105" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="152"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
       <c r="F19" s="114">
         <v>1</v>
       </c>
@@ -3043,10 +3050,10 @@
       <c r="C20" s="151" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="154">
         <v>8</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="154">
         <v>4</v>
       </c>
       <c r="F20" s="74">
@@ -3063,9 +3070,9 @@
       </c>
     </row>
     <row r="21" spans="3:9" s="134" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="152"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
       <c r="F21" s="136">
         <v>1</v>
       </c>
@@ -3128,141 +3135,167 @@
       <c r="H24" s="86"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:9" s="135" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="151" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="153">
+      <c r="D25" s="154">
         <v>12</v>
       </c>
-      <c r="E25" s="153">
+      <c r="E25" s="154">
         <v>0</v>
       </c>
-      <c r="F25" s="74">
+      <c r="F25" s="136">
         <v>1</v>
       </c>
-      <c r="G25" s="74">
-        <v>3</v>
-      </c>
-      <c r="H25" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="I25" s="88" t="s">
-        <v>214</v>
+      <c r="G25" s="136">
+        <v>4</v>
+      </c>
+      <c r="H25" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="I25" s="191" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="152"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="84">
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="74">
         <v>1</v>
       </c>
-      <c r="G26" s="84">
+      <c r="G26" s="74">
+        <v>3</v>
+      </c>
+      <c r="H26" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" s="88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="153"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="84">
+        <v>1</v>
+      </c>
+      <c r="G27" s="84">
         <v>2</v>
-      </c>
-      <c r="H26" s="87" t="s">
-        <v>201</v>
-      </c>
-      <c r="I26" s="88" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="74">
-        <v>12</v>
-      </c>
-      <c r="E27" s="74">
-        <v>3</v>
-      </c>
-      <c r="F27" s="74">
-        <v>1</v>
-      </c>
-      <c r="G27" s="74">
-        <v>0</v>
       </c>
       <c r="H27" s="87" t="s">
         <v>201</v>
       </c>
       <c r="I27" s="88" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="74">
+        <v>12</v>
+      </c>
+      <c r="E28" s="74">
+        <v>3</v>
+      </c>
+      <c r="F28" s="74">
+        <v>1</v>
+      </c>
+      <c r="G28" s="74">
+        <v>0</v>
+      </c>
+      <c r="H28" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" s="88" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="150" t="s">
+    <row r="29" spans="3:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="78">
+      <c r="D29" s="78">
         <v>13</v>
       </c>
-      <c r="E28" s="78">
+      <c r="E29" s="78">
         <v>2</v>
       </c>
-      <c r="F28" s="78">
+      <c r="F29" s="78">
         <v>1</v>
       </c>
-      <c r="G28" s="78">
+      <c r="G29" s="78">
         <v>3</v>
       </c>
-      <c r="H28" s="149" t="s">
+      <c r="H29" s="149" t="s">
         <v>343</v>
       </c>
-      <c r="I28" s="69" t="s">
+      <c r="I29" s="69" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="89" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="89" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="89" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="42" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="132" t="s">
+    <row r="43" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="132" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="133"/>
-    </row>
     <row r="44" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="134"/>
-      <c r="D44" s="37" t="s">
+      <c r="C44" s="133"/>
+    </row>
+    <row r="45" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="134"/>
+      <c r="D45" s="37" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="45" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="E13:E15"/>
@@ -3271,15 +3304,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3780,12 +3804,12 @@
       <c r="L14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="175" t="s">
+      <c r="M14" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="175"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="175"/>
+      <c r="N14" s="167"/>
+      <c r="O14" s="167"/>
+      <c r="P14" s="167"/>
       <c r="Q14" s="27" t="s">
         <v>276</v>
       </c>
@@ -3827,12 +3851,12 @@
       <c r="L15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="175" t="s">
+      <c r="M15" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="175"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="175"/>
+      <c r="N15" s="167"/>
+      <c r="O15" s="167"/>
+      <c r="P15" s="167"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
@@ -4075,12 +4099,12 @@
       <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="175" t="s">
+      <c r="D23" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="175"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="175"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
       <c r="H23" s="106" t="s">
         <v>276</v>
       </c>
@@ -4122,12 +4146,12 @@
       <c r="C24" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="179" t="s">
+      <c r="D24" s="168" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="181"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="170"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -4380,12 +4404,12 @@
       <c r="C32" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="171" t="s">
+      <c r="D32" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="176"/>
+      <c r="G32" s="176"/>
       <c r="H32" s="106" t="s">
         <v>276</v>
       </c>
@@ -4427,12 +4451,12 @@
       <c r="C33" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="172" t="s">
+      <c r="D33" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="175"/>
       <c r="H33" s="63"/>
       <c r="I33" s="63" t="s">
         <v>272</v>
@@ -4719,12 +4743,12 @@
       <c r="H41" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="172" t="s">
+      <c r="I41" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="173"/>
-      <c r="K41" s="173"/>
-      <c r="L41" s="174"/>
+      <c r="J41" s="174"/>
+      <c r="K41" s="174"/>
+      <c r="L41" s="175"/>
       <c r="M41" s="147" t="s">
         <v>134</v>
       </c>
@@ -4766,12 +4790,12 @@
       <c r="H42" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="I42" s="172" t="s">
+      <c r="I42" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="J42" s="173"/>
-      <c r="K42" s="173"/>
-      <c r="L42" s="174"/>
+      <c r="J42" s="174"/>
+      <c r="K42" s="174"/>
+      <c r="L42" s="175"/>
       <c r="M42" s="147"/>
       <c r="N42" s="147"/>
       <c r="O42" s="147"/>
@@ -5063,12 +5087,12 @@
       <c r="L50" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="175" t="s">
+      <c r="M50" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="N50" s="175"/>
-      <c r="O50" s="175"/>
-      <c r="P50" s="175"/>
+      <c r="N50" s="167"/>
+      <c r="O50" s="167"/>
+      <c r="P50" s="167"/>
       <c r="Q50" s="30" t="s">
         <v>139</v>
       </c>
@@ -5110,12 +5134,12 @@
       <c r="L51" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="M51" s="175" t="s">
+      <c r="M51" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="N51" s="175"/>
-      <c r="O51" s="175"/>
-      <c r="P51" s="175"/>
+      <c r="N51" s="167"/>
+      <c r="O51" s="167"/>
+      <c r="P51" s="167"/>
       <c r="Q51" s="30" t="s">
         <v>90</v>
       </c>
@@ -5361,12 +5385,12 @@
       <c r="C59" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="179" t="s">
+      <c r="D59" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="180"/>
-      <c r="F59" s="180"/>
-      <c r="G59" s="181"/>
+      <c r="E59" s="169"/>
+      <c r="F59" s="169"/>
+      <c r="G59" s="170"/>
       <c r="H59" s="140" t="s">
         <v>146</v>
       </c>
@@ -5408,12 +5432,12 @@
       <c r="C60" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="179" t="s">
+      <c r="D60" s="168" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="180"/>
-      <c r="F60" s="180"/>
-      <c r="G60" s="181"/>
+      <c r="E60" s="169"/>
+      <c r="F60" s="169"/>
+      <c r="G60" s="170"/>
       <c r="H60" s="140" t="s">
         <v>157</v>
       </c>
@@ -5670,12 +5694,12 @@
       <c r="C68" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="172" t="s">
+      <c r="D68" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="173"/>
-      <c r="F68" s="173"/>
-      <c r="G68" s="174"/>
+      <c r="E68" s="174"/>
+      <c r="F68" s="174"/>
+      <c r="G68" s="175"/>
       <c r="H68" s="142" t="s">
         <v>146</v>
       </c>
@@ -5717,12 +5741,12 @@
       <c r="C69" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="172" t="s">
+      <c r="D69" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="173"/>
-      <c r="F69" s="173"/>
-      <c r="G69" s="174"/>
+      <c r="E69" s="174"/>
+      <c r="F69" s="174"/>
+      <c r="G69" s="175"/>
       <c r="H69" s="142" t="s">
         <v>95</v>
       </c>
@@ -5980,12 +6004,12 @@
       <c r="C78" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="171" t="s">
+      <c r="D78" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="171"/>
-      <c r="F78" s="171"/>
-      <c r="G78" s="171"/>
+      <c r="E78" s="176"/>
+      <c r="F78" s="176"/>
+      <c r="G78" s="176"/>
       <c r="H78" s="82" t="s">
         <v>190</v>
       </c>
@@ -6027,12 +6051,12 @@
       <c r="C79" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="172" t="s">
+      <c r="D79" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="173"/>
-      <c r="F79" s="173"/>
-      <c r="G79" s="174"/>
+      <c r="E79" s="174"/>
+      <c r="F79" s="174"/>
+      <c r="G79" s="175"/>
       <c r="H79" s="82" t="s">
         <v>88</v>
       </c>
@@ -6304,12 +6328,12 @@
       <c r="C87" s="110" t="s">
         <v>242</v>
       </c>
-      <c r="D87" s="164" t="s">
+      <c r="D87" s="177" t="s">
         <v>243</v>
       </c>
-      <c r="E87" s="164"/>
-      <c r="F87" s="164"/>
-      <c r="G87" s="164"/>
+      <c r="E87" s="177"/>
+      <c r="F87" s="177"/>
+      <c r="G87" s="177"/>
       <c r="H87" s="110" t="s">
         <v>244</v>
       </c>
@@ -6351,12 +6375,12 @@
       <c r="C88" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="165" t="s">
+      <c r="D88" s="178" t="s">
         <v>241</v>
       </c>
-      <c r="E88" s="166"/>
-      <c r="F88" s="166"/>
-      <c r="G88" s="167"/>
+      <c r="E88" s="179"/>
+      <c r="F88" s="179"/>
+      <c r="G88" s="180"/>
       <c r="H88" s="110"/>
       <c r="I88" s="110"/>
       <c r="J88" s="110"/>
@@ -7042,23 +7066,23 @@
       <c r="G111" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H111" s="182" t="s">
+      <c r="H111" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="I111" s="182"/>
-      <c r="J111" s="182"/>
-      <c r="K111" s="182"/>
-      <c r="L111" s="182" t="s">
+      <c r="I111" s="171"/>
+      <c r="J111" s="171"/>
+      <c r="K111" s="171"/>
+      <c r="L111" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="M111" s="182"/>
-      <c r="N111" s="182"/>
-      <c r="O111" s="182"/>
-      <c r="P111" s="182" t="s">
+      <c r="M111" s="171"/>
+      <c r="N111" s="171"/>
+      <c r="O111" s="171"/>
+      <c r="P111" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="Q111" s="182"/>
-      <c r="R111" s="182"/>
+      <c r="Q111" s="171"/>
+      <c r="R111" s="171"/>
     </row>
     <row r="112" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C112" s="15"/>
@@ -7121,12 +7145,12 @@
       <c r="C114" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D114" s="183" t="s">
+      <c r="D114" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="E114" s="183"/>
-      <c r="F114" s="183"/>
-      <c r="G114" s="183"/>
+      <c r="E114" s="172"/>
+      <c r="F114" s="172"/>
+      <c r="G114" s="172"/>
       <c r="H114" s="36" t="s">
         <v>70</v>
       </c>
@@ -7279,23 +7303,23 @@
       <c r="G120" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H120" s="182" t="s">
+      <c r="H120" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="I120" s="182"/>
-      <c r="J120" s="182"/>
-      <c r="K120" s="182"/>
-      <c r="L120" s="182" t="s">
+      <c r="I120" s="171"/>
+      <c r="J120" s="171"/>
+      <c r="K120" s="171"/>
+      <c r="L120" s="171" t="s">
         <v>153</v>
       </c>
-      <c r="M120" s="182"/>
-      <c r="N120" s="182"/>
-      <c r="O120" s="182"/>
-      <c r="P120" s="182" t="s">
+      <c r="M120" s="171"/>
+      <c r="N120" s="171"/>
+      <c r="O120" s="171"/>
+      <c r="P120" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="Q120" s="182"/>
-      <c r="R120" s="182"/>
+      <c r="Q120" s="171"/>
+      <c r="R120" s="171"/>
     </row>
     <row r="121" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C121" s="15"/>
@@ -7357,12 +7381,12 @@
       <c r="C123" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D123" s="183" t="s">
+      <c r="D123" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="183"/>
-      <c r="F123" s="183"/>
-      <c r="G123" s="183"/>
+      <c r="E123" s="172"/>
+      <c r="F123" s="172"/>
+      <c r="G123" s="172"/>
       <c r="H123" s="34" t="s">
         <v>70</v>
       </c>
@@ -7515,18 +7539,18 @@
       <c r="G129" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="H129" s="168" t="s">
+      <c r="H129" s="181" t="s">
         <v>252</v>
       </c>
-      <c r="I129" s="168"/>
-      <c r="J129" s="168"/>
-      <c r="K129" s="168"/>
-      <c r="L129" s="168" t="s">
+      <c r="I129" s="181"/>
+      <c r="J129" s="181"/>
+      <c r="K129" s="181"/>
+      <c r="L129" s="181" t="s">
         <v>253</v>
       </c>
-      <c r="M129" s="168"/>
-      <c r="N129" s="168"/>
-      <c r="O129" s="168"/>
+      <c r="M129" s="181"/>
+      <c r="N129" s="181"/>
+      <c r="O129" s="181"/>
       <c r="P129" s="97" t="s">
         <v>254</v>
       </c>
@@ -7595,10 +7619,10 @@
     </row>
     <row r="132" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B132" s="101"/>
-      <c r="C132" s="169" t="s">
+      <c r="C132" s="182" t="s">
         <v>257</v>
       </c>
-      <c r="D132" s="170"/>
+      <c r="D132" s="183"/>
       <c r="E132" s="97" t="s">
         <v>258</v>
       </c>
@@ -7941,18 +7965,18 @@
       <c r="F144" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="G144" s="176" t="s">
+      <c r="G144" s="164" t="s">
         <v>192</v>
       </c>
-      <c r="H144" s="177"/>
-      <c r="I144" s="177"/>
-      <c r="J144" s="178"/>
-      <c r="K144" s="176" t="s">
+      <c r="H144" s="165"/>
+      <c r="I144" s="165"/>
+      <c r="J144" s="166"/>
+      <c r="K144" s="164" t="s">
         <v>197</v>
       </c>
-      <c r="L144" s="177"/>
-      <c r="M144" s="177"/>
-      <c r="N144" s="178"/>
+      <c r="L144" s="165"/>
+      <c r="M144" s="165"/>
+      <c r="N144" s="166"/>
       <c r="O144" s="59" t="s">
         <v>193</v>
       </c>
@@ -7974,6 +7998,21 @@
     <row r="150" s="28" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
     <mergeCell ref="G144:J144"/>
     <mergeCell ref="K144:N144"/>
     <mergeCell ref="D23:G23"/>
@@ -7990,21 +8029,6 @@
     <mergeCell ref="L111:O111"/>
     <mergeCell ref="P111:R111"/>
     <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="C132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
